--- a/data/nzd0043/nzd0043.xlsx
+++ b/data/nzd0043/nzd0043.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P484"/>
+  <dimension ref="A1:P492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24134,6 +24134,438 @@
         </is>
       </c>
     </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>346.6322222222223</v>
+      </c>
+      <c r="C485" t="n">
+        <v>335.8422222222222</v>
+      </c>
+      <c r="D485" t="n">
+        <v>346.34</v>
+      </c>
+      <c r="E485" t="n">
+        <v>352.4090909090909</v>
+      </c>
+      <c r="F485" t="n">
+        <v>342.199090909091</v>
+      </c>
+      <c r="G485" t="n">
+        <v>346.319090909091</v>
+      </c>
+      <c r="H485" t="n">
+        <v>349.4190909090909</v>
+      </c>
+      <c r="I485" t="n">
+        <v>349.5590909090909</v>
+      </c>
+      <c r="J485" t="n">
+        <v>353.82</v>
+      </c>
+      <c r="K485" t="n">
+        <v>360.25</v>
+      </c>
+      <c r="L485" t="n">
+        <v>366.34</v>
+      </c>
+      <c r="M485" t="n">
+        <v>358.25</v>
+      </c>
+      <c r="N485" t="n">
+        <v>341.5785714285714</v>
+      </c>
+      <c r="O485" t="n">
+        <v>342.6585714285715</v>
+      </c>
+      <c r="P485" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>352.1777777777777</v>
+      </c>
+      <c r="C486" t="n">
+        <v>345.0777777777778</v>
+      </c>
+      <c r="D486" t="n">
+        <v>351.81</v>
+      </c>
+      <c r="E486" t="n">
+        <v>358.6518181818182</v>
+      </c>
+      <c r="F486" t="n">
+        <v>348.9218181818182</v>
+      </c>
+      <c r="G486" t="n">
+        <v>352.3418181818182</v>
+      </c>
+      <c r="H486" t="n">
+        <v>358.2018181818182</v>
+      </c>
+      <c r="I486" t="n">
+        <v>356.7618181818182</v>
+      </c>
+      <c r="J486" t="n">
+        <v>366.25</v>
+      </c>
+      <c r="K486" t="n">
+        <v>368.9</v>
+      </c>
+      <c r="L486" t="n">
+        <v>370.3</v>
+      </c>
+      <c r="M486" t="n">
+        <v>368.96</v>
+      </c>
+      <c r="N486" t="n">
+        <v>351.5185714285714</v>
+      </c>
+      <c r="O486" t="n">
+        <v>349.9485714285714</v>
+      </c>
+      <c r="P486" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>338.9066666666667</v>
+      </c>
+      <c r="C487" t="n">
+        <v>334.7166666666667</v>
+      </c>
+      <c r="D487" t="n">
+        <v>339.19</v>
+      </c>
+      <c r="E487" t="n">
+        <v>356.19</v>
+      </c>
+      <c r="F487" t="n">
+        <v>347.81</v>
+      </c>
+      <c r="G487" t="n">
+        <v>349.22</v>
+      </c>
+      <c r="H487" t="n">
+        <v>357.6</v>
+      </c>
+      <c r="I487" t="n">
+        <v>356.32</v>
+      </c>
+      <c r="J487" t="n">
+        <v>355.04</v>
+      </c>
+      <c r="K487" t="n">
+        <v>362.15</v>
+      </c>
+      <c r="L487" t="n">
+        <v>366.99</v>
+      </c>
+      <c r="M487" t="n">
+        <v>354.09</v>
+      </c>
+      <c r="N487" t="n">
+        <v>337.4814285714286</v>
+      </c>
+      <c r="O487" t="n">
+        <v>346.4314285714286</v>
+      </c>
+      <c r="P487" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>345.7611111111111</v>
+      </c>
+      <c r="C488" t="n">
+        <v>338.2211111111111</v>
+      </c>
+      <c r="D488" t="n">
+        <v>347.2</v>
+      </c>
+      <c r="E488" t="n">
+        <v>359.1363636363636</v>
+      </c>
+      <c r="F488" t="n">
+        <v>352.1363636363636</v>
+      </c>
+      <c r="G488" t="n">
+        <v>356.7463636363636</v>
+      </c>
+      <c r="H488" t="n">
+        <v>363.9963636363637</v>
+      </c>
+      <c r="I488" t="n">
+        <v>363.1263636363637</v>
+      </c>
+      <c r="J488" t="n">
+        <v>362.03</v>
+      </c>
+      <c r="K488" t="n">
+        <v>368.77</v>
+      </c>
+      <c r="L488" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="M488" t="n">
+        <v>357.38</v>
+      </c>
+      <c r="N488" t="n">
+        <v>349.7857142857143</v>
+      </c>
+      <c r="O488" t="n">
+        <v>352.9057142857143</v>
+      </c>
+      <c r="P488" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>359.1333333333333</v>
+      </c>
+      <c r="C489" t="n">
+        <v>356.7333333333333</v>
+      </c>
+      <c r="D489" t="n">
+        <v>363.68</v>
+      </c>
+      <c r="E489" t="n">
+        <v>376.7827272727272</v>
+      </c>
+      <c r="F489" t="n">
+        <v>364.4627272727273</v>
+      </c>
+      <c r="G489" t="n">
+        <v>368.1327272727273</v>
+      </c>
+      <c r="H489" t="n">
+        <v>377.4227272727272</v>
+      </c>
+      <c r="I489" t="n">
+        <v>372.4027272727273</v>
+      </c>
+      <c r="J489" t="n">
+        <v>371.82</v>
+      </c>
+      <c r="K489" t="n">
+        <v>377.37</v>
+      </c>
+      <c r="L489" t="n">
+        <v>382.6</v>
+      </c>
+      <c r="M489" t="n">
+        <v>376.5</v>
+      </c>
+      <c r="N489" t="n">
+        <v>370.4314285714286</v>
+      </c>
+      <c r="O489" t="n">
+        <v>369.9814285714286</v>
+      </c>
+      <c r="P489" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>341.9355555555555</v>
+      </c>
+      <c r="C490" t="n">
+        <v>334.5055555555556</v>
+      </c>
+      <c r="D490" t="n">
+        <v>342.26</v>
+      </c>
+      <c r="E490" t="n">
+        <v>354.8263636363636</v>
+      </c>
+      <c r="F490" t="n">
+        <v>349.1963636363636</v>
+      </c>
+      <c r="G490" t="n">
+        <v>352.3763636363636</v>
+      </c>
+      <c r="H490" t="n">
+        <v>359.4763636363636</v>
+      </c>
+      <c r="I490" t="n">
+        <v>357.5663636363636</v>
+      </c>
+      <c r="J490" t="n">
+        <v>365.72</v>
+      </c>
+      <c r="K490" t="n">
+        <v>366.22</v>
+      </c>
+      <c r="L490" t="n">
+        <v>374.22</v>
+      </c>
+      <c r="M490" t="n">
+        <v>365.93</v>
+      </c>
+      <c r="N490" t="n">
+        <v>353.6685714285715</v>
+      </c>
+      <c r="O490" t="n">
+        <v>355.2685714285714</v>
+      </c>
+      <c r="P490" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>334.6755555555555</v>
+      </c>
+      <c r="C491" t="n">
+        <v>331.6855555555555</v>
+      </c>
+      <c r="D491" t="n">
+        <v>339.21</v>
+      </c>
+      <c r="E491" t="n">
+        <v>347.7390909090909</v>
+      </c>
+      <c r="F491" t="n">
+        <v>341.949090909091</v>
+      </c>
+      <c r="G491" t="n">
+        <v>345.0990909090909</v>
+      </c>
+      <c r="H491" t="n">
+        <v>353.4590909090909</v>
+      </c>
+      <c r="I491" t="n">
+        <v>352.6690909090909</v>
+      </c>
+      <c r="J491" t="n">
+        <v>357.19</v>
+      </c>
+      <c r="K491" t="n">
+        <v>358.5</v>
+      </c>
+      <c r="L491" t="n">
+        <v>362.55</v>
+      </c>
+      <c r="M491" t="n">
+        <v>354.04</v>
+      </c>
+      <c r="N491" t="n">
+        <v>340.1914285714286</v>
+      </c>
+      <c r="O491" t="n">
+        <v>349.7314285714286</v>
+      </c>
+      <c r="P491" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>352.9777777777778</v>
+      </c>
+      <c r="C492" t="n">
+        <v>338.4677777777778</v>
+      </c>
+      <c r="D492" t="n">
+        <v>346.06</v>
+      </c>
+      <c r="E492" t="n">
+        <v>353.6427272727273</v>
+      </c>
+      <c r="F492" t="n">
+        <v>345.4427272727273</v>
+      </c>
+      <c r="G492" t="n">
+        <v>348.4627272727272</v>
+      </c>
+      <c r="H492" t="n">
+        <v>360.6127272727272</v>
+      </c>
+      <c r="I492" t="n">
+        <v>358.2427272727273</v>
+      </c>
+      <c r="J492" t="n">
+        <v>361.48</v>
+      </c>
+      <c r="K492" t="n">
+        <v>362.96</v>
+      </c>
+      <c r="L492" t="n">
+        <v>367.87</v>
+      </c>
+      <c r="M492" t="n">
+        <v>355.76</v>
+      </c>
+      <c r="N492" t="n">
+        <v>336.9085714285715</v>
+      </c>
+      <c r="O492" t="n">
+        <v>353.1285714285714</v>
+      </c>
+      <c r="P492" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24145,7 +24577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B491"/>
+  <dimension ref="A1:B499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29063,6 +29495,86 @@
       </c>
       <c r="B491" t="n">
         <v>0.42</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>-0.37</v>
       </c>
     </row>
   </sheetData>
@@ -29231,28 +29743,28 @@
         <v>0.0469</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06854107286954973</v>
+        <v>0.06525011398648867</v>
       </c>
       <c r="J2" t="n">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="K2" t="n">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002577901876072097</v>
+        <v>0.002407574709413773</v>
       </c>
       <c r="M2" t="n">
-        <v>8.097963336601637</v>
+        <v>8.062522561904927</v>
       </c>
       <c r="N2" t="n">
-        <v>105.9069460587999</v>
+        <v>104.925873356743</v>
       </c>
       <c r="O2" t="n">
-        <v>10.29111004988285</v>
+        <v>10.24333311753274</v>
       </c>
       <c r="P2" t="n">
-        <v>345.6789359973906</v>
+        <v>345.7089925883463</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -29308,28 +29820,28 @@
         <v>0.0504</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1007853985526351</v>
+        <v>0.09177857120065232</v>
       </c>
       <c r="J3" t="n">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="K3" t="n">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006527534651356692</v>
+        <v>0.005561961941035087</v>
       </c>
       <c r="M3" t="n">
-        <v>7.304914660601409</v>
+        <v>7.292005383330067</v>
       </c>
       <c r="N3" t="n">
-        <v>87.80214005383101</v>
+        <v>87.29506537045427</v>
       </c>
       <c r="O3" t="n">
-        <v>9.370279614495557</v>
+        <v>9.343182828696776</v>
       </c>
       <c r="P3" t="n">
-        <v>339.3049163361163</v>
+        <v>339.3887718518511</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -29385,28 +29897,28 @@
         <v>0.0417</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1689370220395716</v>
+        <v>0.1565358473569029</v>
       </c>
       <c r="J4" t="n">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="K4" t="n">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01700730532353112</v>
+        <v>0.01500325033137317</v>
       </c>
       <c r="M4" t="n">
-        <v>7.760877311808732</v>
+        <v>7.748450188185111</v>
       </c>
       <c r="N4" t="n">
-        <v>93.23269734914996</v>
+        <v>92.73162920175398</v>
       </c>
       <c r="O4" t="n">
-        <v>9.655708019050181</v>
+        <v>9.629726330574197</v>
       </c>
       <c r="P4" t="n">
-        <v>346.1597522774339</v>
+        <v>346.2757896139104</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -29462,28 +29974,28 @@
         <v>0.0614</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2686709966929445</v>
+        <v>0.2655404287896735</v>
       </c>
       <c r="J5" t="n">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="K5" t="n">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04339600893075568</v>
+        <v>0.04344820690771334</v>
       </c>
       <c r="M5" t="n">
-        <v>7.298981136065934</v>
+        <v>7.270556219361165</v>
       </c>
       <c r="N5" t="n">
-        <v>89.65520831512865</v>
+        <v>89.19982166326849</v>
       </c>
       <c r="O5" t="n">
-        <v>9.468643425281609</v>
+        <v>9.444565721263656</v>
       </c>
       <c r="P5" t="n">
-        <v>351.481675141802</v>
+        <v>351.5111223524925</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -29539,28 +30051,28 @@
         <v>0.0626</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3447599616161537</v>
+        <v>0.3435875005289153</v>
       </c>
       <c r="J6" t="n">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="K6" t="n">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06586057844471904</v>
+        <v>0.06729270148063771</v>
       </c>
       <c r="M6" t="n">
-        <v>7.54225395397741</v>
+        <v>7.488428699874804</v>
       </c>
       <c r="N6" t="n">
-        <v>95.42596814357837</v>
+        <v>94.44429238790126</v>
       </c>
       <c r="O6" t="n">
-        <v>9.76862160919228</v>
+        <v>9.718245334827746</v>
       </c>
       <c r="P6" t="n">
-        <v>340.5911797514777</v>
+        <v>340.6021847404488</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -29616,28 +30128,28 @@
         <v>0.0576</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3911915914674291</v>
+        <v>0.400291443028378</v>
       </c>
       <c r="J7" t="n">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="K7" t="n">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07862398019899297</v>
+        <v>0.08420502423464771</v>
       </c>
       <c r="M7" t="n">
-        <v>7.916320732456201</v>
+        <v>7.861575855671198</v>
       </c>
       <c r="N7" t="n">
-        <v>101.4666075679402</v>
+        <v>100.5289402932785</v>
       </c>
       <c r="O7" t="n">
-        <v>10.07306346490184</v>
+        <v>10.02641213462116</v>
       </c>
       <c r="P7" t="n">
-        <v>339.8711068093516</v>
+        <v>339.7858106001096</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -29693,28 +30205,28 @@
         <v>0.0581</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3385747165979175</v>
+        <v>0.3604480007576607</v>
       </c>
       <c r="J8" t="n">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="K8" t="n">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05228910817701915</v>
+        <v>0.06020471734321264</v>
       </c>
       <c r="M8" t="n">
-        <v>8.365399792884777</v>
+        <v>8.341511039593151</v>
       </c>
       <c r="N8" t="n">
-        <v>117.963809746792</v>
+        <v>117.4919452994162</v>
       </c>
       <c r="O8" t="n">
-        <v>10.86111457203136</v>
+        <v>10.83937015233894</v>
       </c>
       <c r="P8" t="n">
-        <v>345.4356305101758</v>
+        <v>345.2317745993926</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -29770,28 +30282,28 @@
         <v>0.0577</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3781673789108664</v>
+        <v>0.4034696448208825</v>
       </c>
       <c r="J9" t="n">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="K9" t="n">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06244421157198543</v>
+        <v>0.07220648616313796</v>
       </c>
       <c r="M9" t="n">
-        <v>8.644384095679541</v>
+        <v>8.602687605542151</v>
       </c>
       <c r="N9" t="n">
-        <v>121.8310230415831</v>
+        <v>121.124689243753</v>
       </c>
       <c r="O9" t="n">
-        <v>11.03770913920017</v>
+        <v>11.00566623352503</v>
       </c>
       <c r="P9" t="n">
-        <v>341.8546149025942</v>
+        <v>341.6189213264266</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -29847,28 +30359,28 @@
         <v>0.0549</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4273194965842163</v>
+        <v>0.4608932685117601</v>
       </c>
       <c r="J10" t="n">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="K10" t="n">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07559901552715564</v>
+        <v>0.08860293225735261</v>
       </c>
       <c r="M10" t="n">
-        <v>8.986364353465436</v>
+        <v>8.975241775338649</v>
       </c>
       <c r="N10" t="n">
-        <v>126.0199024464384</v>
+        <v>125.7725954935301</v>
       </c>
       <c r="O10" t="n">
-        <v>11.22585865074197</v>
+        <v>11.21483818401006</v>
       </c>
       <c r="P10" t="n">
-        <v>341.5871211822303</v>
+        <v>341.27168129397</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -29924,28 +30436,28 @@
         <v>0.0553</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4874795233109938</v>
+        <v>0.5124280585760583</v>
       </c>
       <c r="J11" t="n">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="K11" t="n">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="L11" t="n">
-        <v>0.09120091450054446</v>
+        <v>0.102422562818707</v>
       </c>
       <c r="M11" t="n">
-        <v>9.09346270813753</v>
+        <v>9.039717433561625</v>
       </c>
       <c r="N11" t="n">
-        <v>131.3344480451377</v>
+        <v>130.2530042165775</v>
       </c>
       <c r="O11" t="n">
-        <v>11.4601242595854</v>
+        <v>11.41284382687232</v>
       </c>
       <c r="P11" t="n">
-        <v>346.4395010240707</v>
+        <v>346.2035343153739</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -30001,28 +30513,28 @@
         <v>0.0538</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5784384895330228</v>
+        <v>0.6034861286704354</v>
       </c>
       <c r="J12" t="n">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="K12" t="n">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="L12" t="n">
-        <v>0.116336286076092</v>
+        <v>0.1285688942911782</v>
       </c>
       <c r="M12" t="n">
-        <v>9.513560132210923</v>
+        <v>9.460066566721002</v>
       </c>
       <c r="N12" t="n">
-        <v>139.8086073355211</v>
+        <v>138.5786908266559</v>
       </c>
       <c r="O12" t="n">
-        <v>11.82406898387865</v>
+        <v>11.77194507405874</v>
       </c>
       <c r="P12" t="n">
-        <v>348.2856785885655</v>
+        <v>348.0469499913624</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -30078,28 +30590,28 @@
         <v>0.0456</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6124168873048682</v>
+        <v>0.6476000961490517</v>
       </c>
       <c r="J13" t="n">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="K13" t="n">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08529463863231279</v>
+        <v>0.09695575365128628</v>
       </c>
       <c r="M13" t="n">
-        <v>11.9780044615382</v>
+        <v>11.91575994976393</v>
       </c>
       <c r="N13" t="n">
-        <v>219.4277604814011</v>
+        <v>217.7763410131446</v>
       </c>
       <c r="O13" t="n">
-        <v>14.81309422374006</v>
+        <v>14.75724706756462</v>
       </c>
       <c r="P13" t="n">
-        <v>336.6462584569268</v>
+        <v>336.3105193481184</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -30155,28 +30667,28 @@
         <v>0.0416</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5125626367234001</v>
+        <v>0.5516741895231876</v>
       </c>
       <c r="J14" t="n">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="K14" t="n">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04006138016886218</v>
+        <v>0.0474214867671845</v>
       </c>
       <c r="M14" t="n">
-        <v>15.13115251895439</v>
+        <v>15.03220354528596</v>
       </c>
       <c r="N14" t="n">
-        <v>347.3481717394734</v>
+        <v>344.5059782180743</v>
       </c>
       <c r="O14" t="n">
-        <v>18.63727908626883</v>
+        <v>18.56087223753438</v>
       </c>
       <c r="P14" t="n">
-        <v>324.4573529525976</v>
+        <v>324.0852232695842</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -30232,28 +30744,28 @@
         <v>0.0356</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3112323548043462</v>
+        <v>0.3520969141225236</v>
       </c>
       <c r="J15" t="n">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="K15" t="n">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03468582103895557</v>
+        <v>0.04474204595303544</v>
       </c>
       <c r="M15" t="n">
-        <v>9.82356990312487</v>
+        <v>9.861951969723428</v>
       </c>
       <c r="N15" t="n">
-        <v>150.0745860674075</v>
+        <v>150.4316569541629</v>
       </c>
       <c r="O15" t="n">
-        <v>12.25049329894137</v>
+        <v>12.26505837548941</v>
       </c>
       <c r="P15" t="n">
-        <v>333.7910786492477</v>
+        <v>333.4040235390926</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -30290,7 +30802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P484"/>
+  <dimension ref="A1:P492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65054,6 +65566,662 @@
         </is>
       </c>
     </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>-34.98991381139326,173.70982165969096</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>-34.99066431226547,173.70973201751943</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>-34.99140097607477,173.7099585587678</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>-34.99212426540645,173.71025947800078</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>-34.99278463775132,173.71072324838204</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>-34.993351648710174,173.71130015863062</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>-34.99392159146287,173.71188908785263</t>
+        </is>
+      </c>
+      <c r="I485" t="inlineStr">
+        <is>
+          <t>-34.99442846534512,173.7125563142057</t>
+        </is>
+      </c>
+      <c r="J485" t="inlineStr">
+        <is>
+          <t>-34.994904725472125,173.7132398790315</t>
+        </is>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>-34.995380562785925,173.71392789527187</t>
+        </is>
+      </c>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>-34.9958248921251,173.71464049149094</t>
+        </is>
+      </c>
+      <c r="M485" t="inlineStr">
+        <is>
+          <t>-34.9962866276654,173.71534331579392</t>
+        </is>
+      </c>
+      <c r="N485" t="inlineStr">
+        <is>
+          <t>-34.99681646033421,173.71600043873755</t>
+        </is>
+      </c>
+      <c r="O485" t="inlineStr">
+        <is>
+          <t>-34.997189104996785,173.71677871697398</t>
+        </is>
+      </c>
+      <c r="P485" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>-34.98991203851372,173.70988238299913</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>-34.99065757686611,173.7098328790003</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>-34.99139153188926,173.71001738454908</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>-34.99209957875919,173.71032095119057</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>-34.99274802882817,173.71078196031806</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>-34.99331843010612,173.71135236546786</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>-34.993867800768356,173.71195971733144</t>
+        </is>
+      </c>
+      <c r="I486" t="inlineStr">
+        <is>
+          <t>-34.994380911793876,173.71261006859328</t>
+        </is>
+      </c>
+      <c r="J486" t="inlineStr">
+        <is>
+          <t>-34.99482383327587,173.71333415404146</t>
+        </is>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>-34.99532343934262,173.7139924321504</t>
+        </is>
+      </c>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>-34.99579641501359,173.7146666697305</t>
+        </is>
+      </c>
+      <c r="M486" t="inlineStr">
+        <is>
+          <t>-34.99620551198517,173.7154070003673</t>
+        </is>
+      </c>
+      <c r="N486" t="inlineStr">
+        <is>
+          <t>-34.996740328415676,173.7160579184311</t>
+        </is>
+      </c>
+      <c r="O486" t="inlineStr">
+        <is>
+          <t>-34.99713266448282,173.7168196650146</t>
+        </is>
+      </c>
+      <c r="P486" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>-34.98991628115464,173.70973706558397</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>-34.99066513311629,173.7097197253286</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>-34.99141332080832,173.709881665815</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>-34.99210931393699,173.7102967092556</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>-34.992754083287565,173.7107722504234</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>-34.99333564862758,173.71132530460085</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>-34.993871486665505,173.71195487759576</t>
+        </is>
+      </c>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>-34.99438382874847,173.71260677127938</t>
+        </is>
+      </c>
+      <c r="J487" t="inlineStr">
+        <is>
+          <t>-34.99489678593555,173.71324913209784</t>
+        </is>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>-34.995368015442885,173.71394207101008</t>
+        </is>
+      </c>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>-34.99582021785211,173.71464478842543</t>
+        </is>
+      </c>
+      <c r="M487" t="inlineStr">
+        <is>
+          <t>-34.99631813477414,173.71531857926863</t>
+        </is>
+      </c>
+      <c r="N487" t="inlineStr">
+        <is>
+          <t>-34.9968478409447,173.71597674630078</t>
+        </is>
+      </c>
+      <c r="O487" t="inlineStr">
+        <is>
+          <t>-34.99715989484811,173.71679990917676</t>
+        </is>
+      </c>
+      <c r="P487" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>-34.989914089879306,173.7098121211065</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>-34.99066257737331,173.7097579973612</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>-34.99139949125041,173.70996780742902</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>-34.99209766263979,173.71032572258994</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>-34.9927305238619,173.7108100340528</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>-34.99329413663751,173.71139054538463</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>-34.99383231147112,173.71200631621443</t>
+        </is>
+      </c>
+      <c r="I488" t="inlineStr">
+        <is>
+          <t>-34.99433889203282,173.7126575675278</t>
+        </is>
+      </c>
+      <c r="J488" t="inlineStr">
+        <is>
+          <t>-34.99485129628221,173.7133021475826</t>
+        </is>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>-34.99532429784548,173.71399146223268</t>
+        </is>
+      </c>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>-34.99581655034553,173.71464815986602</t>
+        </is>
+      </c>
+      <c r="M488" t="inlineStr">
+        <is>
+          <t>-34.99629321689288,173.71533814253178</t>
+        </is>
+      </c>
+      <c r="N488" t="inlineStr">
+        <is>
+          <t>-34.996753600624736,173.71604789790575</t>
+        </is>
+      </c>
+      <c r="O488" t="inlineStr">
+        <is>
+          <t>-34.99710976973782,173.71683627531502</t>
+        </is>
+      </c>
+      <c r="P488" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>-34.989909814823065,173.7099585456693</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>-34.99064907646534,173.70996016926983</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>-34.991371037736506,173.71014503752176</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>-34.99202788053702,173.71049948910283</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>-34.992663399979755,173.71091768432882</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>-34.99323133458182,173.71148924568374</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>-34.99375008024072,173.71211428890288</t>
+        </is>
+      </c>
+      <c r="I489" t="inlineStr">
+        <is>
+          <t>-34.99427764794327,173.7127267974263</t>
+        </is>
+      </c>
+      <c r="J489" t="inlineStr">
+        <is>
+          <t>-34.99478758469796,173.71337639950065</t>
+        </is>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>-34.99526750456254,173.7140556259782</t>
+        </is>
+      </c>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>-34.99570796334389,173.71474798081394</t>
+        </is>
+      </c>
+      <c r="M489" t="inlineStr">
+        <is>
+          <t>-34.99614840531466,173.71545183518344</t>
+        </is>
+      </c>
+      <c r="N489" t="inlineStr">
+        <is>
+          <t>-34.996595471993466,173.71616728486273</t>
+        </is>
+      </c>
+      <c r="O489" t="inlineStr">
+        <is>
+          <t>-34.996977566366766,173.71693218958987</t>
+        </is>
+      </c>
+      <c r="P489" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>-34.989915312864596,173.70977023163326</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>-34.99066528707632,173.70971741978437</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>-34.99140802034824,173.70991468139346</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>-34.992114706389415,173.71028328129802</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>-34.99274653377756,173.7107843580187</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>-34.99331823956915,173.71135266491828</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>-34.99385999468346,173.71196996704214</t>
+        </is>
+      </c>
+      <c r="I490" t="inlineStr">
+        <is>
+          <t>-34.994375600055335,173.71261607296066</t>
+        </is>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>-34.99482728242169,173.71333013427412</t>
+        </is>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>-34.995341137707854,173.71397243691902</t>
+        </is>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>-34.99576822554418,173.7146925835256</t>
+        </is>
+      </c>
+      <c r="M490" t="inlineStr">
+        <is>
+          <t>-34.99622846068234,173.71538898317573</t>
+        </is>
+      </c>
+      <c r="N490" t="inlineStr">
+        <is>
+          <t>-34.99672386124667,173.71607035114766</t>
+        </is>
+      </c>
+      <c r="O490" t="inlineStr">
+        <is>
+          <t>-34.99709147606072,173.71684954750015</t>
+        </is>
+      </c>
+      <c r="P490" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>-34.989917633761834,173.7096907353125</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>-34.99066734365409,173.70968662256652</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>-34.99141328627767,173.7098818809002</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>-34.99214273273844,173.71021349169763</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>-34.992785999137396,173.71072106504332</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>-34.99335837766848,173.7112895832933</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>-34.9938968480825,173.71192157698573</t>
+        </is>
+      </c>
+      <c r="I491" t="inlineStr">
+        <is>
+          <t>-34.99440793263326,173.7125795243307</t>
+        </is>
+      </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>-34.99488279412758,173.71326543872672</t>
+        </is>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>-34.995392119547795,173.71391483866705</t>
+        </is>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>-34.99585214672915,173.7146154370478</t>
+        </is>
+      </c>
+      <c r="M491" t="inlineStr">
+        <is>
+          <t>-34.99631851346532,173.71531828195452</t>
+        </is>
+      </c>
+      <c r="N491" t="inlineStr">
+        <is>
+          <t>-34.99682708466275,173.71599241734623</t>
+        </is>
+      </c>
+      <c r="O491" t="inlineStr">
+        <is>
+          <t>-34.99713434564275,173.7168184453207</t>
+        </is>
+      </c>
+      <c r="P491" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>-34.989911782756195,173.70989114292308</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>-34.99066239748226,173.7097606912074</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>-34.9914014595058,173.70995554757567</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>-34.99211938703693,173.71027162582936</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>-34.99276697438257,173.71075157620302</t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>-34.99333982539674,173.7113187403294</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>-34.99385303490663,173.71197910551294</t>
+        </is>
+      </c>
+      <c r="I492" t="inlineStr">
+        <is>
+          <t>-34.99437113459357,173.71262112069937</t>
+        </is>
+      </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>-34.99485487558337,173.71329797612313</t>
+        </is>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>-34.995362666311934,173.71394811434982</t>
+        </is>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>-34.995813889605394,173.71465060581292</t>
+        </is>
+      </c>
+      <c r="M492" t="inlineStr">
+        <is>
+          <t>-34.9963054864883,173.71532850955867</t>
+        </is>
+      </c>
+      <c r="N492" t="inlineStr">
+        <is>
+          <t>-34.99685222854016,173.71597343365394</t>
+        </is>
+      </c>
+      <c r="O492" t="inlineStr">
+        <is>
+          <t>-34.99710804433664,173.71683752710538</t>
+        </is>
+      </c>
+      <c r="P492" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0043/nzd0043.xlsx
+++ b/data/nzd0043/nzd0043.xlsx
@@ -29588,7 +29588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29679,35 +29679,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -29766,27 +29771,28 @@
       <c r="P2" t="n">
         <v>345.7089925883463</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.70602606342408 -34.990024567330885, 173.71618692150997 -34.98972780540184)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.7060260634241</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-34.99002456733088</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.71618692151</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-34.98972780540184</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.711106492467</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-34.98987618636636</v>
       </c>
     </row>
@@ -29843,27 +29849,28 @@
       <c r="P3" t="n">
         <v>339.3887718518511</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.70606427316355 -34.99090918187771, 173.71619817930036 -34.99023233877055)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.7060642731635</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-34.99090918187771</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.7161981793004</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-34.99023233877055</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.7111312262319</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-34.99057076032413</v>
       </c>
     </row>
@@ -29920,27 +29927,28 @@
       <c r="P4" t="n">
         <v>346.2757896139104</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.70623390117964 -34.991998888938134, 173.71621255431853 -34.99039675697489)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.7062339011796</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-34.99199888893813</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.7162125543185</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-34.99039675697489</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.7112232277491</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-34.99119782295651</v>
       </c>
     </row>
@@ -29997,27 +30005,28 @@
       <c r="P5" t="n">
         <v>351.5111223524925</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.7067891856177 -34.993517804939785, 173.71592383891473 -34.98984935665403)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.7067891856177</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-34.99351780493978</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.7159238389147</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-34.98984935665403</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.7113565122662</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-34.9916835807969</v>
       </c>
     </row>
@@ -30074,27 +30083,28 @@
       <c r="P6" t="n">
         <v>340.6021847404488</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.707734634301 -34.994648061799786, 173.7158337801308 -34.989597817004544)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.707734634301</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-34.99464806179979</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.7158337801308</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-34.98959781700454</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.7117842072159</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-34.99212293940217</v>
       </c>
     </row>
@@ -30151,27 +30161,28 @@
       <c r="P7" t="n">
         <v>339.7858106001096</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.70829808787047 -34.99526174891565, 173.716336773173 -34.990146683380054)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.7082980878705</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-34.99526174891565</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.716336773173</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-34.99014668338005</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.7123174305218</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-34.99270421614786</v>
       </c>
     </row>
@@ -30228,27 +30239,28 @@
       <c r="P8" t="n">
         <v>345.2317745993926</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (173.70907903274164 -34.99606161092275, 173.7165357157484 -34.99038253038495)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>173.7090790327416</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-34.99606161092275</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.7165357157484</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-34.99038253038495</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.712807374245</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-34.99322207065385</v>
       </c>
     </row>
@@ -30305,27 +30317,28 @@
       <c r="P9" t="n">
         <v>341.6189213264266</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (173.70994745897684 -34.99673628191254, 173.7168666102836 -34.99061513454039)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>173.7099474589768</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-34.99673628191254</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>173.7168666102836</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-34.99061513454039</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>173.7134070346302</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-34.99367570822646</v>
       </c>
     </row>
@@ -30382,27 +30395,28 @@
       <c r="P10" t="n">
         <v>341.27168129397</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (173.7105562627301 -34.997207291944676, 173.7175881437299 -34.991173478356934)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>173.7105562627301</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-34.99720729194468</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>173.7175881437299</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-34.99117347835693</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>173.71407220323</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-34.9941903851508</v>
       </c>
     </row>
@@ -30459,27 +30473,28 @@
       <c r="P11" t="n">
         <v>346.2035343153739</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (173.71124002257636 -34.99775957562455, 173.71815716083233 -34.99163687937868)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>173.7112400225764</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-34.99775957562455</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>173.7181571608323</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-34.99163687937868</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>173.7146985917043</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-34.99469822750162</v>
       </c>
     </row>
@@ -30536,27 +30551,28 @@
       <c r="P12" t="n">
         <v>348.0469499913624</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (173.71221866177416 -34.99845928853923, 173.71834653419884 -34.99179314822097)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>173.7122186617742</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-34.99845928853923</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>173.7183465341988</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-34.99179314822097</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>173.7152825979865</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-34.9951262183801</v>
       </c>
     </row>
@@ -30613,27 +30629,28 @@
       <c r="P13" t="n">
         <v>336.3105193481184</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (173.71321299189682 -34.9989999319577, 173.7187243630824 -34.99197988830791)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>173.7132129918968</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-34.9989999319577</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>173.7187243630824</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-34.99197988830791</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>173.7159686774896</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-34.9954899101328</v>
       </c>
     </row>
@@ -30690,27 +30707,28 @@
       <c r="P14" t="n">
         <v>324.0852232695842</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (173.71402513993922 -34.999432644399015, 173.7193847067779 -34.99233370917489)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>173.7140251399392</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-34.99943264439901</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>173.7193847067779</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-34.99233370917489</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>173.7167049233586</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-34.99588317678695</v>
       </c>
     </row>
@@ -30767,27 +30785,28 @@
       <c r="P15" t="n">
         <v>333.4040235390926</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (173.71485393563538 -34.99984201495243, 173.72005983214675 -34.9926663102866)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>173.7148539356354</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-34.99984201495243</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>173.7200598321467</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-34.9926663102866</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>173.7174568838911</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-34.99625416261951</v>
       </c>
     </row>

--- a/data/nzd0043/nzd0043.xlsx
+++ b/data/nzd0043/nzd0043.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P492"/>
+  <dimension ref="A1:P498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24566,6 +24566,326 @@
         </is>
       </c>
     </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-21 22:17:31+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>344.4155555555556</v>
+      </c>
+      <c r="C493" t="n">
+        <v>344.0055555555556</v>
+      </c>
+      <c r="D493" t="n">
+        <v>342.01</v>
+      </c>
+      <c r="E493" t="n">
+        <v>348.44</v>
+      </c>
+      <c r="F493" t="n">
+        <v>343.06</v>
+      </c>
+      <c r="G493" t="n">
+        <v>341.81</v>
+      </c>
+      <c r="H493" t="n">
+        <v>351.86</v>
+      </c>
+      <c r="I493" t="n">
+        <v>348.95</v>
+      </c>
+      <c r="J493" t="n">
+        <v>355.75</v>
+      </c>
+      <c r="K493" t="n">
+        <v>359.79</v>
+      </c>
+      <c r="L493" t="n">
+        <v>363.8</v>
+      </c>
+      <c r="M493" t="n">
+        <v>348.23</v>
+      </c>
+      <c r="N493" t="inlineStr"/>
+      <c r="O493" t="inlineStr"/>
+      <c r="P493" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>357.7577777777778</v>
+      </c>
+      <c r="C494" t="n">
+        <v>344.0077777777778</v>
+      </c>
+      <c r="D494" t="n">
+        <v>355.8</v>
+      </c>
+      <c r="E494" t="n">
+        <v>356.430909090909</v>
+      </c>
+      <c r="F494" t="n">
+        <v>343.610909090909</v>
+      </c>
+      <c r="G494" t="n">
+        <v>345.550909090909</v>
+      </c>
+      <c r="H494" t="n">
+        <v>354.9609090909091</v>
+      </c>
+      <c r="I494" t="n">
+        <v>350.8209090909091</v>
+      </c>
+      <c r="J494" t="n">
+        <v>352.7</v>
+      </c>
+      <c r="K494" t="n">
+        <v>363.12</v>
+      </c>
+      <c r="L494" t="n">
+        <v>360.37</v>
+      </c>
+      <c r="M494" t="n">
+        <v>357.58</v>
+      </c>
+      <c r="N494" t="n">
+        <v>333.2228571428572</v>
+      </c>
+      <c r="O494" t="n">
+        <v>346.5428571428571</v>
+      </c>
+      <c r="P494" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>349.0777777777778</v>
+      </c>
+      <c r="C495" t="n">
+        <v>339.5877777777778</v>
+      </c>
+      <c r="D495" t="n">
+        <v>354.89</v>
+      </c>
+      <c r="E495" t="n">
+        <v>371.51</v>
+      </c>
+      <c r="F495" t="n">
+        <v>360.15</v>
+      </c>
+      <c r="G495" t="n">
+        <v>355.82</v>
+      </c>
+      <c r="H495" t="n">
+        <v>360.81</v>
+      </c>
+      <c r="I495" t="n">
+        <v>357.66</v>
+      </c>
+      <c r="J495" t="n">
+        <v>365.81</v>
+      </c>
+      <c r="K495" t="n">
+        <v>368.67</v>
+      </c>
+      <c r="L495" t="n">
+        <v>374.17</v>
+      </c>
+      <c r="M495" t="n">
+        <v>362.76</v>
+      </c>
+      <c r="N495" t="n">
+        <v>351.2257142857143</v>
+      </c>
+      <c r="O495" t="n">
+        <v>350.3857142857143</v>
+      </c>
+      <c r="P495" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>333.9288888888889</v>
+      </c>
+      <c r="C496" t="n">
+        <v>333.5488888888889</v>
+      </c>
+      <c r="D496" t="n">
+        <v>351.75</v>
+      </c>
+      <c r="E496" t="n">
+        <v>356.1672727272727</v>
+      </c>
+      <c r="F496" t="n">
+        <v>345.8072727272727</v>
+      </c>
+      <c r="G496" t="n">
+        <v>346.5072727272727</v>
+      </c>
+      <c r="H496" t="n">
+        <v>353.7472727272728</v>
+      </c>
+      <c r="I496" t="n">
+        <v>351.8572727272727</v>
+      </c>
+      <c r="J496" t="n">
+        <v>352.87</v>
+      </c>
+      <c r="K496" t="n">
+        <v>363.04</v>
+      </c>
+      <c r="L496" t="n">
+        <v>367.6</v>
+      </c>
+      <c r="M496" t="n">
+        <v>351.14</v>
+      </c>
+      <c r="N496" t="n">
+        <v>322.8428571428572</v>
+      </c>
+      <c r="O496" t="n">
+        <v>337.0028571428572</v>
+      </c>
+      <c r="P496" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:53+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>344.9233333333333</v>
+      </c>
+      <c r="C497" t="n">
+        <v>327.0833333333333</v>
+      </c>
+      <c r="D497" t="n">
+        <v>334.73</v>
+      </c>
+      <c r="E497" t="n">
+        <v>348.5436363636364</v>
+      </c>
+      <c r="F497" t="n">
+        <v>337.0636363636364</v>
+      </c>
+      <c r="G497" t="n">
+        <v>341.5836363636364</v>
+      </c>
+      <c r="H497" t="n">
+        <v>345.4636363636364</v>
+      </c>
+      <c r="I497" t="n">
+        <v>340.3636363636364</v>
+      </c>
+      <c r="J497" t="n">
+        <v>342.24</v>
+      </c>
+      <c r="K497" t="n">
+        <v>347.48</v>
+      </c>
+      <c r="L497" t="n">
+        <v>343.02</v>
+      </c>
+      <c r="M497" t="n">
+        <v>323.08</v>
+      </c>
+      <c r="N497" t="n">
+        <v>309.3071428571428</v>
+      </c>
+      <c r="O497" t="n">
+        <v>321.7771428571428</v>
+      </c>
+      <c r="P497" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>358.4466666666667</v>
+      </c>
+      <c r="C498" t="n">
+        <v>344.9466666666667</v>
+      </c>
+      <c r="D498" t="n">
+        <v>366.12</v>
+      </c>
+      <c r="E498" t="n">
+        <v>367.1727272727272</v>
+      </c>
+      <c r="F498" t="n">
+        <v>351.7127272727272</v>
+      </c>
+      <c r="G498" t="n">
+        <v>349.4127272727272</v>
+      </c>
+      <c r="H498" t="n">
+        <v>350.4127272727272</v>
+      </c>
+      <c r="I498" t="n">
+        <v>354.6927272727273</v>
+      </c>
+      <c r="J498" t="n">
+        <v>356.64</v>
+      </c>
+      <c r="K498" t="n">
+        <v>358.14</v>
+      </c>
+      <c r="L498" t="n">
+        <v>357.04</v>
+      </c>
+      <c r="M498" t="n">
+        <v>334.19</v>
+      </c>
+      <c r="N498" t="n">
+        <v>329.6542857142857</v>
+      </c>
+      <c r="O498" t="n">
+        <v>336.4842857142857</v>
+      </c>
+      <c r="P498" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24577,7 +24897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B499"/>
+  <dimension ref="A1:B505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29575,6 +29895,66 @@
       </c>
       <c r="B499" t="n">
         <v>-0.37</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2025-02-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>-0.15</v>
       </c>
     </row>
   </sheetData>
@@ -29748,28 +30128,28 @@
         <v>0.0469</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06525011398648867</v>
+        <v>0.06715384206359165</v>
       </c>
       <c r="J2" t="n">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="K2" t="n">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002407574709413773</v>
+        <v>0.002600186880058586</v>
       </c>
       <c r="M2" t="n">
-        <v>8.062522561904927</v>
+        <v>8.047364382619858</v>
       </c>
       <c r="N2" t="n">
-        <v>104.925873356743</v>
+        <v>104.4261683832143</v>
       </c>
       <c r="O2" t="n">
-        <v>10.24333311753274</v>
+        <v>10.2189122896331</v>
       </c>
       <c r="P2" t="n">
-        <v>345.7089925883463</v>
+        <v>345.6914650243833</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29826,28 +30206,28 @@
         <v>0.0504</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09177857120065232</v>
+        <v>0.08402252577031946</v>
       </c>
       <c r="J3" t="n">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="K3" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005561961941035087</v>
+        <v>0.004764013346433837</v>
       </c>
       <c r="M3" t="n">
-        <v>7.292005383330067</v>
+        <v>7.260253471688104</v>
       </c>
       <c r="N3" t="n">
-        <v>87.29506537045427</v>
+        <v>86.75919792910871</v>
       </c>
       <c r="O3" t="n">
-        <v>9.343182828696776</v>
+        <v>9.314461762716551</v>
       </c>
       <c r="P3" t="n">
-        <v>339.3887718518511</v>
+        <v>339.4620222607929</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -29904,28 +30284,28 @@
         <v>0.0417</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1565358473569029</v>
+        <v>0.1581391616676499</v>
       </c>
       <c r="J4" t="n">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="K4" t="n">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01500325033137317</v>
+        <v>0.01550189575149108</v>
       </c>
       <c r="M4" t="n">
-        <v>7.748450188185111</v>
+        <v>7.759655293640597</v>
       </c>
       <c r="N4" t="n">
-        <v>92.73162920175398</v>
+        <v>92.87002214639291</v>
       </c>
       <c r="O4" t="n">
-        <v>9.629726330574197</v>
+        <v>9.63690936692843</v>
       </c>
       <c r="P4" t="n">
-        <v>346.2757896139104</v>
+        <v>346.2603853202562</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -29982,28 +30362,28 @@
         <v>0.0614</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2655404287896735</v>
+        <v>0.2648902263457091</v>
       </c>
       <c r="J5" t="n">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="K5" t="n">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04344820690771334</v>
+        <v>0.04393045483600888</v>
       </c>
       <c r="M5" t="n">
-        <v>7.270556219361165</v>
+        <v>7.275444111646326</v>
       </c>
       <c r="N5" t="n">
-        <v>89.19982166326849</v>
+        <v>89.00611032880404</v>
       </c>
       <c r="O5" t="n">
-        <v>9.444565721263656</v>
+        <v>9.434304973277261</v>
       </c>
       <c r="P5" t="n">
-        <v>351.5111223524925</v>
+        <v>351.5170197255453</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30060,28 +30440,28 @@
         <v>0.0626</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3435875005289153</v>
+        <v>0.3370504873706077</v>
       </c>
       <c r="J6" t="n">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="K6" t="n">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06729270148063771</v>
+        <v>0.06611528127923494</v>
       </c>
       <c r="M6" t="n">
-        <v>7.488428699874804</v>
+        <v>7.475618571517844</v>
       </c>
       <c r="N6" t="n">
-        <v>94.44429238790126</v>
+        <v>93.9439145894649</v>
       </c>
       <c r="O6" t="n">
-        <v>9.718245334827746</v>
+        <v>9.692466899064701</v>
       </c>
       <c r="P6" t="n">
-        <v>340.6021847404488</v>
+        <v>340.664015134728</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30138,28 +30518,28 @@
         <v>0.0576</v>
       </c>
       <c r="I7" t="n">
-        <v>0.400291443028378</v>
+        <v>0.3917152118596419</v>
       </c>
       <c r="J7" t="n">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="K7" t="n">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08420502423464771</v>
+        <v>0.08271236254751735</v>
       </c>
       <c r="M7" t="n">
-        <v>7.861575855671198</v>
+        <v>7.819978549406549</v>
       </c>
       <c r="N7" t="n">
-        <v>100.5289402932785</v>
+        <v>99.55675305903334</v>
       </c>
       <c r="O7" t="n">
-        <v>10.02641213462116</v>
+        <v>9.977813039891725</v>
       </c>
       <c r="P7" t="n">
-        <v>339.7858106001096</v>
+        <v>339.8671952276745</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30216,28 +30596,28 @@
         <v>0.0581</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3604480007576607</v>
+        <v>0.3561668155381835</v>
       </c>
       <c r="J8" t="n">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="K8" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06020471734321264</v>
+        <v>0.06034315051249206</v>
       </c>
       <c r="M8" t="n">
-        <v>8.341511039593151</v>
+        <v>8.275810826843605</v>
       </c>
       <c r="N8" t="n">
-        <v>117.4919452994162</v>
+        <v>116.1199053206375</v>
       </c>
       <c r="O8" t="n">
-        <v>10.83937015233894</v>
+        <v>10.77589464131111</v>
       </c>
       <c r="P8" t="n">
-        <v>345.2317745993926</v>
+        <v>345.2723309285289</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30294,28 +30674,28 @@
         <v>0.0577</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4034696448208825</v>
+        <v>0.4001502616419671</v>
       </c>
       <c r="J9" t="n">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="K9" t="n">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07220648616313796</v>
+        <v>0.07283542521071396</v>
       </c>
       <c r="M9" t="n">
-        <v>8.602687605542151</v>
+        <v>8.536668101788401</v>
       </c>
       <c r="N9" t="n">
-        <v>121.124689243753</v>
+        <v>119.7855245509944</v>
       </c>
       <c r="O9" t="n">
-        <v>11.00566623352503</v>
+        <v>10.94465735192264</v>
       </c>
       <c r="P9" t="n">
-        <v>341.6189213264266</v>
+        <v>341.6502391066207</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30372,28 +30752,28 @@
         <v>0.0549</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4608932685117601</v>
+        <v>0.4642165227146924</v>
       </c>
       <c r="J10" t="n">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="K10" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="L10" t="n">
-        <v>0.08860293225735261</v>
+        <v>0.0916814828421656</v>
       </c>
       <c r="M10" t="n">
-        <v>8.975241775338649</v>
+        <v>8.916542898247334</v>
       </c>
       <c r="N10" t="n">
-        <v>125.7725954935301</v>
+        <v>124.6577837988371</v>
       </c>
       <c r="O10" t="n">
-        <v>11.21483818401006</v>
+        <v>11.16502502455042</v>
       </c>
       <c r="P10" t="n">
-        <v>341.27168129397</v>
+        <v>341.2402216062789</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30450,28 +30830,28 @@
         <v>0.0553</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5124280585760583</v>
+        <v>0.5142856090600597</v>
       </c>
       <c r="J11" t="n">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="K11" t="n">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="L11" t="n">
-        <v>0.102422562818707</v>
+        <v>0.1053807294723361</v>
       </c>
       <c r="M11" t="n">
-        <v>9.039717433561625</v>
+        <v>8.981451703992994</v>
       </c>
       <c r="N11" t="n">
-        <v>130.2530042165775</v>
+        <v>128.9894855266678</v>
       </c>
       <c r="O11" t="n">
-        <v>11.41284382687232</v>
+        <v>11.35735380828949</v>
       </c>
       <c r="P11" t="n">
-        <v>346.2035343153739</v>
+        <v>346.1859932678477</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30528,28 +30908,28 @@
         <v>0.0538</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6034861286704354</v>
+        <v>0.5966712588216175</v>
       </c>
       <c r="J12" t="n">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="K12" t="n">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1285688942911782</v>
+        <v>0.1281254249334784</v>
       </c>
       <c r="M12" t="n">
-        <v>9.460066566721002</v>
+        <v>9.43256745655145</v>
       </c>
       <c r="N12" t="n">
-        <v>138.5786908266559</v>
+        <v>138.0247765319657</v>
       </c>
       <c r="O12" t="n">
-        <v>11.77194507405874</v>
+        <v>11.74839463637333</v>
       </c>
       <c r="P12" t="n">
-        <v>348.0469499913624</v>
+        <v>348.1130723046211</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30606,28 +30986,28 @@
         <v>0.0456</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6476000961490517</v>
+        <v>0.6284962877885557</v>
       </c>
       <c r="J13" t="n">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="K13" t="n">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="L13" t="n">
-        <v>0.09695575365128628</v>
+        <v>0.09308631126159628</v>
       </c>
       <c r="M13" t="n">
-        <v>11.91575994976393</v>
+        <v>11.91128267231019</v>
       </c>
       <c r="N13" t="n">
-        <v>217.7763410131446</v>
+        <v>217.9486652436443</v>
       </c>
       <c r="O13" t="n">
-        <v>14.75724706756462</v>
+        <v>14.76308454367326</v>
       </c>
       <c r="P13" t="n">
-        <v>336.3105193481184</v>
+        <v>336.4959985932658</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30684,28 +31064,28 @@
         <v>0.0416</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5516741895231876</v>
+        <v>0.5304195496790565</v>
       </c>
       <c r="J14" t="n">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="K14" t="n">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0474214867671845</v>
+        <v>0.04466509529144436</v>
       </c>
       <c r="M14" t="n">
-        <v>15.03220354528596</v>
+        <v>15.01886650457892</v>
       </c>
       <c r="N14" t="n">
-        <v>344.5059782180743</v>
+        <v>343.5032153098079</v>
       </c>
       <c r="O14" t="n">
-        <v>18.56087223753438</v>
+        <v>18.53383973465315</v>
       </c>
       <c r="P14" t="n">
-        <v>324.0852232695842</v>
+        <v>324.2907358156643</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30762,28 +31142,28 @@
         <v>0.0356</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3520969141225236</v>
+        <v>0.3427288250720734</v>
       </c>
       <c r="J15" t="n">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="K15" t="n">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04474204595303544</v>
+        <v>0.04313732234545242</v>
       </c>
       <c r="M15" t="n">
-        <v>9.861951969723428</v>
+        <v>9.843995975305864</v>
       </c>
       <c r="N15" t="n">
-        <v>150.4316569541629</v>
+        <v>149.9726515234282</v>
       </c>
       <c r="O15" t="n">
-        <v>12.26505837548941</v>
+        <v>12.24633216613971</v>
       </c>
       <c r="P15" t="n">
-        <v>333.4040235390926</v>
+        <v>333.4943510342031</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30821,7 +31201,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P492"/>
+  <dimension ref="A1:P498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66241,6 +66621,490 @@
         </is>
       </c>
     </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-21 22:17:31+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>-34.989914520039285,173.7097973874</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>-34.99065835883146,173.7098211692648</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>-34.99140845198213,173.7099119928286</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>-34.99213996102201,173.71022039367284</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>-34.992779949632514,173.7107307670061</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>-34.99337651877511,173.7112610724274</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>-34.99390664187427,173.71190871731542</t>
+        </is>
+      </c>
+      <c r="I493" t="inlineStr">
+        <is>
+          <t>-34.99443248665913,173.7125517685207</t>
+        </is>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>-34.994892165385245,173.7132545170782</t>
+        </is>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>-34.99538360056345,173.71392446325038</t>
+        </is>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>-34.995843157744204,173.7146237003884</t>
+        </is>
+      </c>
+      <c r="M493" t="inlineStr">
+        <is>
+          <t>-34.99636251737561,173.71528373403518</t>
+        </is>
+      </c>
+      <c r="N493" t="inlineStr"/>
+      <c r="O493" t="inlineStr"/>
+      <c r="P493" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>-34.98991025459187,173.7099434834675</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>-34.99065835721082,173.70982119353368</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>-34.991384642968235,173.7100602940224</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>-34.992108361270255,173.71029908152795</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>-34.992776949632265,173.71073557828996</t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>-34.99335588564752,173.71129349979324</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>-34.993887650046034,173.71193365439925</t>
+        </is>
+      </c>
+      <c r="I494" t="inlineStr">
+        <is>
+          <t>-34.99442013462246,173.7125657312353</t>
+        </is>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>-34.994912014226415,173.71323138441173</t>
+        </is>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>-34.99536160969345,173.71394930809583</t>
+        </is>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>-34.995867823517564,173.71460102577748</t>
+        </is>
+      </c>
+      <c r="M494" t="inlineStr">
+        <is>
+          <t>-34.99629170212796,173.7153393317875</t>
+        </is>
+      </c>
+      <c r="N494" t="inlineStr">
+        <is>
+          <t>-34.996880457955186,173.7159521203564</t>
+        </is>
+      </c>
+      <c r="O494" t="inlineStr">
+        <is>
+          <t>-34.99715903214772,173.71680053507274</t>
+        </is>
+      </c>
+      <c r="P494" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>-34.98991302956813,173.70984843829308</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>-34.99066158067891,173.70977292272514</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>-34.99138621412698,173.71005050765194</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>-34.99204873143065,173.7104475677609</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>-34.99268688518088,173.7108800198523</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>-34.993299246038816,173.71138251538957</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>-34.993851826689315,173.7119806919513</t>
+        </is>
+      </c>
+      <c r="I495" t="inlineStr">
+        <is>
+          <t>-34.99437498185298,173.71261677177398</t>
+        </is>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>-34.994826696717695,173.71333081687615</t>
+        </is>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>-34.99532495823229,173.7139907161421</t>
+        </is>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>-34.995768585103775,173.7146922529926</t>
+        </is>
+      </c>
+      <c r="M495" t="inlineStr">
+        <is>
+          <t>-34.99625246971257,173.71537013349595</t>
+        </is>
+      </c>
+      <c r="N495" t="inlineStr">
+        <is>
+          <t>-34.99674257145188,173.71605622493774</t>
+        </is>
+      </c>
+      <c r="O495" t="inlineStr">
+        <is>
+          <t>-34.99712928004239,173.7168221204509</t>
+        </is>
+      </c>
+      <c r="P495" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>-34.9899178724554,173.70968255938206</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>-34.99066598475785,173.7097069720286</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>-34.991391635481946,173.7100167392938</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>-34.99210940381122,173.71029648545633</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>-34.99276498923338,173.71075475990637</t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>-34.993350610785825,173.71130178984865</t>
+        </is>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>-34.993895083084055,173.71192389450414</t>
+        </is>
+      </c>
+      <c r="I496" t="inlineStr">
+        <is>
+          <t>-34.99441329238571,173.71257346568183</t>
+        </is>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>-34.994910907897676,173.71323267377375</t>
+        </is>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>-34.99536213800268,173.71394871122283</t>
+        </is>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>-34.995815831226594,173.71464882093275</t>
+        </is>
+      </c>
+      <c r="M496" t="inlineStr">
+        <is>
+          <t>-34.996340477552565,173.71530103773088</t>
+        </is>
+      </c>
+      <c r="N496" t="inlineStr">
+        <is>
+          <t>-34.99695995984598,173.7158920960845</t>
+        </is>
+      </c>
+      <c r="O496" t="inlineStr">
+        <is>
+          <t>-34.99723289256231,173.71674694870262</t>
+        </is>
+      </c>
+      <c r="P496" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:53+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>-34.989914357708265,173.7098029475188</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>-34.9906706999593,173.7096363616975</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>-34.99142102113507,173.70983370180716</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>-34.992139551196196,173.71022141419832</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>-34.9928126030884,173.7106783986203</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>-34.99337776729215,173.71125911023634</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>-34.99394581702794,173.71185727860365</t>
+        </is>
+      </c>
+      <c r="I497" t="inlineStr">
+        <is>
+          <t>-34.99448917516478,173.7124876878841</t>
+        </is>
+      </c>
+      <c r="J497" t="inlineStr">
+        <is>
+          <t>-34.99498008595698,173.7131520506575</t>
+        </is>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>-34.99546489409656,173.71383261927696</t>
+        </is>
+      </c>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>-34.995992590557925,173.71448633038054</t>
+        </is>
+      </c>
+      <c r="M497" t="inlineStr">
+        <is>
+          <t>-34.996552998906346,173.7151341845286</t>
+        </is>
+      </c>
+      <c r="N497" t="inlineStr">
+        <is>
+          <t>-34.99706363175561,173.71581382313735</t>
+        </is>
+      </c>
+      <c r="O497" t="inlineStr">
+        <is>
+          <t>-34.99735077276223,173.7166614253641</t>
+        </is>
+      </c>
+      <c r="P497" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>-34.989910034352484,173.70995102673498</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>-34.990657672484744,173.70983144713628</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>-34.99136682493709,173.71017127788878</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>-34.99206588307169,173.7104048579612</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>-34.99273283079505,173.71080633429094</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>-34.993334585632255,173.71132697521963</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>-34.99391550583928,173.7118970785436</t>
+        </is>
+      </c>
+      <c r="I498" t="inlineStr">
+        <is>
+          <t>-34.99439457226361,173.71259462684955</t>
+        </is>
+      </c>
+      <c r="J498" t="inlineStr">
+        <is>
+          <t>-34.9948863734275,173.71326126726404</t>
+        </is>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>-34.99539449693864,173.71391215273644</t>
+        </is>
+      </c>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>-34.99589177016816,173.71457901222098</t>
+        </is>
+      </c>
+      <c r="M498" t="inlineStr">
+        <is>
+          <t>-34.99646885380724,173.7152002480337</t>
+        </is>
+      </c>
+      <c r="N498" t="inlineStr">
+        <is>
+          <t>-34.9969077901527,173.71593148444438</t>
+        </is>
+      </c>
+      <c r="O498" t="inlineStr">
+        <is>
+          <t>-34.99723690743592,173.7167440358738</t>
+        </is>
+      </c>
+      <c r="P498" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0043/nzd0043.xlsx
+++ b/data/nzd0043/nzd0043.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P498"/>
+  <dimension ref="A1:P501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24886,6 +24886,168 @@
         </is>
       </c>
     </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>334.9855555555555</v>
+      </c>
+      <c r="C499" t="n">
+        <v>326.6255555555555</v>
+      </c>
+      <c r="D499" t="n">
+        <v>337.28</v>
+      </c>
+      <c r="E499" t="n">
+        <v>350.0890909090909</v>
+      </c>
+      <c r="F499" t="n">
+        <v>342.5490909090909</v>
+      </c>
+      <c r="G499" t="n">
+        <v>340.3390909090909</v>
+      </c>
+      <c r="H499" t="n">
+        <v>343.9690909090909</v>
+      </c>
+      <c r="I499" t="n">
+        <v>341.8090909090909</v>
+      </c>
+      <c r="J499" t="n">
+        <v>342.87</v>
+      </c>
+      <c r="K499" t="n">
+        <v>348.57</v>
+      </c>
+      <c r="L499" t="n">
+        <v>339.88</v>
+      </c>
+      <c r="M499" t="n">
+        <v>317.78</v>
+      </c>
+      <c r="N499" t="n">
+        <v>303.4914285714286</v>
+      </c>
+      <c r="O499" t="n">
+        <v>321.8314285714285</v>
+      </c>
+      <c r="P499" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>344.68</v>
+      </c>
+      <c r="C500" t="n">
+        <v>342.45</v>
+      </c>
+      <c r="D500" t="n">
+        <v>348.68</v>
+      </c>
+      <c r="E500" t="n">
+        <v>360.8572727272728</v>
+      </c>
+      <c r="F500" t="n">
+        <v>350.7972727272727</v>
+      </c>
+      <c r="G500" t="n">
+        <v>351.3872727272728</v>
+      </c>
+      <c r="H500" t="n">
+        <v>355.4472727272728</v>
+      </c>
+      <c r="I500" t="n">
+        <v>355.9772727272727</v>
+      </c>
+      <c r="J500" t="n">
+        <v>351.92</v>
+      </c>
+      <c r="K500" t="n">
+        <v>363.73</v>
+      </c>
+      <c r="L500" t="n">
+        <v>356.96</v>
+      </c>
+      <c r="M500" t="n">
+        <v>342.66</v>
+      </c>
+      <c r="N500" t="n">
+        <v>332.4771428571428</v>
+      </c>
+      <c r="O500" t="n">
+        <v>335.4571428571429</v>
+      </c>
+      <c r="P500" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>344.95</v>
+      </c>
+      <c r="C501" t="n">
+        <v>336.98</v>
+      </c>
+      <c r="D501" t="n">
+        <v>343.82</v>
+      </c>
+      <c r="E501" t="n">
+        <v>362.5918181818182</v>
+      </c>
+      <c r="F501" t="n">
+        <v>350.2318181818182</v>
+      </c>
+      <c r="G501" t="n">
+        <v>356.7618181818182</v>
+      </c>
+      <c r="H501" t="n">
+        <v>359.0418181818182</v>
+      </c>
+      <c r="I501" t="n">
+        <v>352.7918181818182</v>
+      </c>
+      <c r="J501" t="n">
+        <v>351.71</v>
+      </c>
+      <c r="K501" t="n">
+        <v>363.91</v>
+      </c>
+      <c r="L501" t="n">
+        <v>359.78</v>
+      </c>
+      <c r="M501" t="n">
+        <v>354.56</v>
+      </c>
+      <c r="N501" t="n">
+        <v>326.0414285714286</v>
+      </c>
+      <c r="O501" t="n">
+        <v>335.3214285714286</v>
+      </c>
+      <c r="P501" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24897,7 +25059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B505"/>
+  <dimension ref="A1:B508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29955,6 +30117,36 @@
       </c>
       <c r="B505" t="n">
         <v>-0.15</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>-0.54</v>
       </c>
     </row>
   </sheetData>
@@ -30128,28 +30320,28 @@
         <v>0.0469</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06715384206359165</v>
+        <v>0.05935825854568501</v>
       </c>
       <c r="J2" t="n">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002600186880058586</v>
+        <v>0.002054535258462331</v>
       </c>
       <c r="M2" t="n">
-        <v>8.047364382619858</v>
+        <v>8.027656526104442</v>
       </c>
       <c r="N2" t="n">
-        <v>104.4261683832143</v>
+        <v>104.062431100358</v>
       </c>
       <c r="O2" t="n">
-        <v>10.2189122896331</v>
+        <v>10.20109950448274</v>
       </c>
       <c r="P2" t="n">
-        <v>345.6914650243833</v>
+        <v>345.7637658695276</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30206,28 +30398,28 @@
         <v>0.0504</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08402252577031946</v>
+        <v>0.07570348946881231</v>
       </c>
       <c r="J3" t="n">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004764013346433837</v>
+        <v>0.003900315430080847</v>
       </c>
       <c r="M3" t="n">
-        <v>7.260253471688104</v>
+        <v>7.252260730754472</v>
       </c>
       <c r="N3" t="n">
-        <v>86.75919792910871</v>
+        <v>86.72126389721787</v>
       </c>
       <c r="O3" t="n">
-        <v>9.314461762716551</v>
+        <v>9.312425242503581</v>
       </c>
       <c r="P3" t="n">
-        <v>339.4620222607929</v>
+        <v>339.5408262119097</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30284,28 +30476,28 @@
         <v>0.0417</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1581391616676499</v>
+        <v>0.1489938101412552</v>
       </c>
       <c r="J4" t="n">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="K4" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01550189575149108</v>
+        <v>0.01390308991239397</v>
       </c>
       <c r="M4" t="n">
-        <v>7.759655293640597</v>
+        <v>7.7542646148225</v>
       </c>
       <c r="N4" t="n">
-        <v>92.87002214639291</v>
+        <v>92.71332977540366</v>
       </c>
       <c r="O4" t="n">
-        <v>9.63690936692843</v>
+        <v>9.628776130713792</v>
       </c>
       <c r="P4" t="n">
-        <v>346.2603853202562</v>
+        <v>346.3474898145191</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30362,28 +30554,28 @@
         <v>0.0614</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2648902263457091</v>
+        <v>0.2642644572075454</v>
       </c>
       <c r="J5" t="n">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04393045483600888</v>
+        <v>0.04421857929524475</v>
       </c>
       <c r="M5" t="n">
-        <v>7.275444111646326</v>
+        <v>7.259540178823896</v>
       </c>
       <c r="N5" t="n">
-        <v>89.00611032880404</v>
+        <v>88.59711019807901</v>
       </c>
       <c r="O5" t="n">
-        <v>9.434304973277261</v>
+        <v>9.412603794810392</v>
       </c>
       <c r="P5" t="n">
-        <v>351.5170197255453</v>
+        <v>351.5229524292329</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30440,28 +30632,28 @@
         <v>0.0626</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3370504873706077</v>
+        <v>0.3351301672942175</v>
       </c>
       <c r="J6" t="n">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="K6" t="n">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06611528127923494</v>
+        <v>0.0662026536370891</v>
       </c>
       <c r="M6" t="n">
-        <v>7.475618571517844</v>
+        <v>7.443099752895146</v>
       </c>
       <c r="N6" t="n">
-        <v>93.9439145894649</v>
+        <v>93.38918515288391</v>
       </c>
       <c r="O6" t="n">
-        <v>9.692466899064701</v>
+        <v>9.663808004761059</v>
       </c>
       <c r="P6" t="n">
-        <v>340.664015134728</v>
+        <v>340.6823052494243</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30518,28 +30710,28 @@
         <v>0.0576</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3917152118596419</v>
+        <v>0.3911252542066491</v>
       </c>
       <c r="J7" t="n">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="K7" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08271236254751735</v>
+        <v>0.08329698781371653</v>
       </c>
       <c r="M7" t="n">
-        <v>7.819978549406549</v>
+        <v>7.806286816120116</v>
       </c>
       <c r="N7" t="n">
-        <v>99.55675305903334</v>
+        <v>99.17601134773454</v>
       </c>
       <c r="O7" t="n">
-        <v>9.977813039891725</v>
+        <v>9.958715346254985</v>
       </c>
       <c r="P7" t="n">
-        <v>339.8671952276745</v>
+        <v>339.8727913375538</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30596,28 +30788,28 @@
         <v>0.0581</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3561668155381835</v>
+        <v>0.3540242644994616</v>
       </c>
       <c r="J8" t="n">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="K8" t="n">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06034315051249206</v>
+        <v>0.06031975250482458</v>
       </c>
       <c r="M8" t="n">
-        <v>8.275810826843605</v>
+        <v>8.254529928951079</v>
       </c>
       <c r="N8" t="n">
-        <v>116.1199053206375</v>
+        <v>115.5923912878446</v>
       </c>
       <c r="O8" t="n">
-        <v>10.77589464131111</v>
+        <v>10.75139020256658</v>
       </c>
       <c r="P8" t="n">
-        <v>345.2723309285289</v>
+        <v>345.2926359443409</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30674,28 +30866,28 @@
         <v>0.0577</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4001502616419671</v>
+        <v>0.3978062978186748</v>
       </c>
       <c r="J9" t="n">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07283542521071396</v>
+        <v>0.07285878669706858</v>
       </c>
       <c r="M9" t="n">
-        <v>8.536668101788401</v>
+        <v>8.511905207365896</v>
       </c>
       <c r="N9" t="n">
-        <v>119.7855245509944</v>
+        <v>119.1975446707701</v>
       </c>
       <c r="O9" t="n">
-        <v>10.94465735192264</v>
+        <v>10.9177628052074</v>
       </c>
       <c r="P9" t="n">
-        <v>341.6502391066207</v>
+        <v>341.6724569781906</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30752,28 +30944,28 @@
         <v>0.0549</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4642165227146924</v>
+        <v>0.4584587329005697</v>
       </c>
       <c r="J10" t="n">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="K10" t="n">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0916814828421656</v>
+        <v>0.0906185869697731</v>
       </c>
       <c r="M10" t="n">
-        <v>8.916542898247334</v>
+        <v>8.884728316838101</v>
       </c>
       <c r="N10" t="n">
-        <v>124.6577837988371</v>
+        <v>124.0132618960785</v>
       </c>
       <c r="O10" t="n">
-        <v>11.16502502455042</v>
+        <v>11.13612418645188</v>
       </c>
       <c r="P10" t="n">
-        <v>341.2402216062789</v>
+        <v>341.2953668322205</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30830,28 +31022,28 @@
         <v>0.0553</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5142856090600597</v>
+        <v>0.5133742491724639</v>
       </c>
       <c r="J11" t="n">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="K11" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1053807294723361</v>
+        <v>0.106133040993555</v>
       </c>
       <c r="M11" t="n">
-        <v>8.981451703992994</v>
+        <v>8.964369564055383</v>
       </c>
       <c r="N11" t="n">
-        <v>128.9894855266678</v>
+        <v>128.4361417449709</v>
       </c>
       <c r="O11" t="n">
-        <v>11.35735380828949</v>
+        <v>11.33296703184876</v>
       </c>
       <c r="P11" t="n">
-        <v>346.1859932678477</v>
+        <v>346.1947320551145</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30908,28 +31100,28 @@
         <v>0.0538</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5966712588216175</v>
+        <v>0.5816455580092132</v>
       </c>
       <c r="J12" t="n">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="K12" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1281254249334784</v>
+        <v>0.1229521371247966</v>
       </c>
       <c r="M12" t="n">
-        <v>9.43256745655145</v>
+        <v>9.446033626371921</v>
       </c>
       <c r="N12" t="n">
-        <v>138.0247765319657</v>
+        <v>138.4815366807018</v>
       </c>
       <c r="O12" t="n">
-        <v>11.74839463637333</v>
+        <v>11.76781783852477</v>
       </c>
       <c r="P12" t="n">
-        <v>348.1130723046211</v>
+        <v>348.2590163927153</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30986,28 +31178,28 @@
         <v>0.0456</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6284962877885557</v>
+        <v>0.6085426557621093</v>
       </c>
       <c r="J13" t="n">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="K13" t="n">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L13" t="n">
-        <v>0.09308631126159628</v>
+        <v>0.08779579956060302</v>
       </c>
       <c r="M13" t="n">
-        <v>11.91128267231019</v>
+        <v>11.94039617897754</v>
       </c>
       <c r="N13" t="n">
-        <v>217.9486652436443</v>
+        <v>219.5709374914526</v>
       </c>
       <c r="O13" t="n">
-        <v>14.76308454367326</v>
+        <v>14.81792622101529</v>
       </c>
       <c r="P13" t="n">
-        <v>336.4959985932658</v>
+        <v>336.690066060856</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31064,28 +31256,28 @@
         <v>0.0416</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5304195496790565</v>
+        <v>0.5062777066745678</v>
       </c>
       <c r="J14" t="n">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04466509529144436</v>
+        <v>0.04106079596986489</v>
       </c>
       <c r="M14" t="n">
-        <v>15.01886650457892</v>
+        <v>15.03204882421026</v>
       </c>
       <c r="N14" t="n">
-        <v>343.5032153098079</v>
+        <v>344.2793638150521</v>
       </c>
       <c r="O14" t="n">
-        <v>18.53383973465315</v>
+        <v>18.55476660632119</v>
       </c>
       <c r="P14" t="n">
-        <v>324.2907358156643</v>
+        <v>324.5249506746416</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -31142,28 +31334,28 @@
         <v>0.0356</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3427288250720734</v>
+        <v>0.3269482143038144</v>
       </c>
       <c r="J15" t="n">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="K15" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04313732234545242</v>
+        <v>0.03965401135340874</v>
       </c>
       <c r="M15" t="n">
-        <v>9.843995975305864</v>
+        <v>9.847066961529835</v>
       </c>
       <c r="N15" t="n">
-        <v>149.9726515234282</v>
+        <v>150.1153443597867</v>
       </c>
       <c r="O15" t="n">
-        <v>12.24633216613971</v>
+        <v>12.25215672278912</v>
       </c>
       <c r="P15" t="n">
-        <v>333.4943510342031</v>
+        <v>333.6465973805692</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -31201,7 +31393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P498"/>
+  <dimension ref="A1:P501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67105,6 +67297,252 @@
         </is>
       </c>
     </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>-34.989917534661224,173.70969412978363</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>-34.990671033806,173.70963136230614</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>-34.99141661848418,173.70986112517602</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>-34.99213343975768,173.71023663255943</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>-34.99278273181079,173.71072630505614</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>-34.99338463162828,173.71124832212453</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>-34.99395497051442,173.71184525965936</t>
+        </is>
+      </c>
+      <c r="I499" t="inlineStr">
+        <is>
+          <t>-34.994479632051814,173.71249847541938</t>
+        </is>
+      </c>
+      <c r="J499" t="inlineStr">
+        <is>
+          <t>-34.99497598603583,173.71315682888925</t>
+        </is>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>-34.99545769589046,173.71384075169135</t>
+        </is>
+      </c>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>-34.99601517086392,173.71446557279037</t>
+        </is>
+      </c>
+      <c r="M499" t="inlineStr">
+        <is>
+          <t>-34.99659314012024,173.7151026690378</t>
+        </is>
+      </c>
+      <c r="N499" t="inlineStr">
+        <is>
+          <t>-34.99710817510116,173.71578019255807</t>
+        </is>
+      </c>
+      <c r="O499" t="inlineStr">
+        <is>
+          <t>-34.99735035247265,173.71666173028916</t>
+        </is>
+      </c>
+      <c r="P499" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>-34.98991443549932,173.70980028304174</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>-34.99065949328698,173.7098041810471</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>-34.991396935969625,173.70998372372898</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>-34.99209085735875,173.71034266866502</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>-34.99273781594845,173.71079833931125</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>-34.993323694942944,173.71134409117948</t>
+        </is>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>-34.99388467126277,173.71193756566757</t>
+        </is>
+      </c>
+      <c r="I500" t="inlineStr">
+        <is>
+          <t>-34.994386091488906,173.71260421348632</t>
+        </is>
+      </c>
+      <c r="J500" t="inlineStr">
+        <is>
+          <t>-34.994917090322815,173.71322546851488</t>
+        </is>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>-34.995357581335334,173.71395385925229</t>
+        </is>
+      </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>-34.99589234546303,173.71457848336664</t>
+        </is>
+      </c>
+      <c r="M500" t="inlineStr">
+        <is>
+          <t>-34.99640470355932,173.7152506131899</t>
+        </is>
+      </c>
+      <c r="N500" t="inlineStr">
+        <is>
+          <t>-34.99688616948754,173.7159478081293</t>
+        </is>
+      </c>
+      <c r="O500" t="inlineStr">
+        <is>
+          <t>-34.997244859761146,173.71673826638568</t>
+        </is>
+      </c>
+      <c r="P500" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>-34.98991434918323,173.7098032395163</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>-34.99066348249991,173.7097444431889</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>-34.99140532695143,173.70993145803752</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>-34.99208399815076,173.71035974901676</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>-34.992740895159145,173.71079340100155</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>-34.99329405139726,173.71139067934922</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>-34.99386265610195,173.7119664724905</t>
+        </is>
+      </c>
+      <c r="I501" t="inlineStr">
+        <is>
+          <t>-34.99440712236831,173.7125804402518</t>
+        </is>
+      </c>
+      <c r="J501" t="inlineStr">
+        <is>
+          <t>-34.99491845696409,173.71322387577328</t>
+        </is>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>-34.99535639263946,173.7139552022164</t>
+        </is>
+      </c>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>-34.9958720663178,173.7145971254786</t>
+        </is>
+      </c>
+      <c r="M501" t="inlineStr">
+        <is>
+          <t>-34.996314575077,173.71532137402122</t>
+        </is>
+      </c>
+      <c r="N501" t="inlineStr">
+        <is>
+          <t>-34.99693546153731,173.71591059242832</t>
+        </is>
+      </c>
+      <c r="O501" t="inlineStr">
+        <is>
+          <t>-34.9972459104856,173.7167375040749</t>
+        </is>
+      </c>
+      <c r="P501" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0043/nzd0043.xlsx
+++ b/data/nzd0043/nzd0043.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P501"/>
+  <dimension ref="A1:P502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25048,6 +25048,60 @@
         </is>
       </c>
     </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>318.4833333333333</v>
+      </c>
+      <c r="C502" t="n">
+        <v>322.7633333333333</v>
+      </c>
+      <c r="D502" t="n">
+        <v>342.08</v>
+      </c>
+      <c r="E502" t="n">
+        <v>348.09</v>
+      </c>
+      <c r="F502" t="n">
+        <v>336.24</v>
+      </c>
+      <c r="G502" t="n">
+        <v>336.91</v>
+      </c>
+      <c r="H502" t="n">
+        <v>332.58</v>
+      </c>
+      <c r="I502" t="n">
+        <v>331.46</v>
+      </c>
+      <c r="J502" t="n">
+        <v>338.6</v>
+      </c>
+      <c r="K502" t="n">
+        <v>348.83</v>
+      </c>
+      <c r="L502" t="n">
+        <v>342.45</v>
+      </c>
+      <c r="M502" t="n">
+        <v>324.79</v>
+      </c>
+      <c r="N502" t="n">
+        <v>327.5828571428572</v>
+      </c>
+      <c r="O502" t="n">
+        <v>325.5828571428572</v>
+      </c>
+      <c r="P502" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25059,7 +25113,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B508"/>
+  <dimension ref="A1:B509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30147,6 +30201,16 @@
       </c>
       <c r="B508" t="n">
         <v>-0.54</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
@@ -30320,28 +30384,28 @@
         <v>0.0469</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05935825854568501</v>
+        <v>0.04665457014137405</v>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K2" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002054535258462331</v>
+        <v>0.00125192482898917</v>
       </c>
       <c r="M2" t="n">
-        <v>8.027656526104442</v>
+        <v>8.072610527418771</v>
       </c>
       <c r="N2" t="n">
-        <v>104.062431100358</v>
+        <v>105.8359009322199</v>
       </c>
       <c r="O2" t="n">
-        <v>10.20109950448274</v>
+        <v>10.2876576990207</v>
       </c>
       <c r="P2" t="n">
-        <v>345.7637658695276</v>
+        <v>345.8819694583046</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30398,28 +30462,28 @@
         <v>0.0504</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07570348946881231</v>
+        <v>0.06743787537069747</v>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K3" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003900315430080847</v>
+        <v>0.003082392611614804</v>
       </c>
       <c r="M3" t="n">
-        <v>7.252260730754472</v>
+        <v>7.276034747121031</v>
       </c>
       <c r="N3" t="n">
-        <v>86.72126389721787</v>
+        <v>87.35620739013424</v>
       </c>
       <c r="O3" t="n">
-        <v>9.312425242503581</v>
+        <v>9.346454268338034</v>
       </c>
       <c r="P3" t="n">
-        <v>339.5408262119097</v>
+        <v>339.6193787846382</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30476,28 +30540,28 @@
         <v>0.0417</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1489938101412552</v>
+        <v>0.1455036895813409</v>
       </c>
       <c r="J4" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K4" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01390308991239397</v>
+        <v>0.01330710602747043</v>
       </c>
       <c r="M4" t="n">
-        <v>7.7542646148225</v>
+        <v>7.754824831448615</v>
       </c>
       <c r="N4" t="n">
-        <v>92.71332977540366</v>
+        <v>92.6487713397994</v>
       </c>
       <c r="O4" t="n">
-        <v>9.628776130713792</v>
+        <v>9.625423177180284</v>
       </c>
       <c r="P4" t="n">
-        <v>346.3474898145191</v>
+        <v>346.3808314173681</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30554,28 +30618,28 @@
         <v>0.0614</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2642644572075454</v>
+        <v>0.2598797748047441</v>
       </c>
       <c r="J5" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K5" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04421857929524475</v>
+        <v>0.04290255544841182</v>
       </c>
       <c r="M5" t="n">
-        <v>7.259540178823896</v>
+        <v>7.266832718490663</v>
       </c>
       <c r="N5" t="n">
-        <v>88.59711019807901</v>
+        <v>88.63394184139516</v>
       </c>
       <c r="O5" t="n">
-        <v>9.412603794810392</v>
+        <v>9.414560098134972</v>
       </c>
       <c r="P5" t="n">
-        <v>351.5229524292329</v>
+        <v>351.564912669783</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30632,28 +30696,28 @@
         <v>0.0626</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3351301672942175</v>
+        <v>0.329483464014187</v>
       </c>
       <c r="J6" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K6" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0662026536370891</v>
+        <v>0.06415178898859053</v>
       </c>
       <c r="M6" t="n">
-        <v>7.443099752895146</v>
+        <v>7.454865930901582</v>
       </c>
       <c r="N6" t="n">
-        <v>93.38918515288391</v>
+        <v>93.57145841968502</v>
       </c>
       <c r="O6" t="n">
-        <v>9.663808004761059</v>
+        <v>9.67323412410167</v>
       </c>
       <c r="P6" t="n">
-        <v>340.6823052494243</v>
+        <v>340.7363126592545</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30710,28 +30774,28 @@
         <v>0.0576</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3911252542066491</v>
+        <v>0.3854517800720415</v>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K7" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08329698781371653</v>
+        <v>0.08113412306978784</v>
       </c>
       <c r="M7" t="n">
-        <v>7.806286816120116</v>
+        <v>7.81714835623853</v>
       </c>
       <c r="N7" t="n">
-        <v>99.17601134773454</v>
+        <v>99.34438014407932</v>
       </c>
       <c r="O7" t="n">
-        <v>9.958715346254985</v>
+        <v>9.967165100673276</v>
       </c>
       <c r="P7" t="n">
-        <v>339.8727913375538</v>
+        <v>339.9272343074082</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30788,28 +30852,28 @@
         <v>0.0581</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3540242644994616</v>
+        <v>0.3444063132406067</v>
       </c>
       <c r="J8" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K8" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06031975250482458</v>
+        <v>0.05699379264527948</v>
       </c>
       <c r="M8" t="n">
-        <v>8.254529928951079</v>
+        <v>8.287714184745605</v>
       </c>
       <c r="N8" t="n">
-        <v>115.5923912878446</v>
+        <v>116.4619998313517</v>
       </c>
       <c r="O8" t="n">
-        <v>10.75139020256658</v>
+        <v>10.79175610507167</v>
       </c>
       <c r="P8" t="n">
-        <v>345.2926359443409</v>
+        <v>345.384246542251</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30866,28 +30930,28 @@
         <v>0.0577</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3978062978186748</v>
+        <v>0.3887189612757316</v>
       </c>
       <c r="J9" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K9" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07285878669706858</v>
+        <v>0.06955662153248909</v>
       </c>
       <c r="M9" t="n">
-        <v>8.511905207365896</v>
+        <v>8.546265786515637</v>
       </c>
       <c r="N9" t="n">
-        <v>119.1975446707701</v>
+        <v>119.9238496718925</v>
       </c>
       <c r="O9" t="n">
-        <v>10.9177628052074</v>
+        <v>10.9509748274705</v>
       </c>
       <c r="P9" t="n">
-        <v>341.6724569781906</v>
+        <v>341.758994946714</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30944,28 +31008,28 @@
         <v>0.0549</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4584587329005697</v>
+        <v>0.4520759619920696</v>
       </c>
       <c r="J10" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K10" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0906185869697731</v>
+        <v>0.08838341609530531</v>
       </c>
       <c r="M10" t="n">
-        <v>8.884728316838101</v>
+        <v>8.899843756024366</v>
       </c>
       <c r="N10" t="n">
-        <v>124.0132618960785</v>
+        <v>124.2206421686169</v>
       </c>
       <c r="O10" t="n">
-        <v>11.13612418645188</v>
+        <v>11.14543144829382</v>
       </c>
       <c r="P10" t="n">
-        <v>341.2953668322205</v>
+        <v>341.3566983038127</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31022,28 +31086,28 @@
         <v>0.0553</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5133742491724639</v>
+        <v>0.5086835335936212</v>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K11" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L11" t="n">
-        <v>0.106133040993555</v>
+        <v>0.1046544485539259</v>
       </c>
       <c r="M11" t="n">
-        <v>8.964369564055383</v>
+        <v>8.97051272019722</v>
       </c>
       <c r="N11" t="n">
-        <v>128.4361417449709</v>
+        <v>128.3962974533811</v>
       </c>
       <c r="O11" t="n">
-        <v>11.33296703184876</v>
+        <v>11.33120900228131</v>
       </c>
       <c r="P11" t="n">
-        <v>346.1947320551145</v>
+        <v>346.2401018272061</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31100,28 +31164,28 @@
         <v>0.0538</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5816455580092132</v>
+        <v>0.5724107760001323</v>
       </c>
       <c r="J12" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K12" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1229521371247966</v>
+        <v>0.1192613740134731</v>
       </c>
       <c r="M12" t="n">
-        <v>9.446033626371921</v>
+        <v>9.47393183984711</v>
       </c>
       <c r="N12" t="n">
-        <v>138.4815366807018</v>
+        <v>139.1795073139506</v>
       </c>
       <c r="O12" t="n">
-        <v>11.76781783852477</v>
+        <v>11.79743647213032</v>
       </c>
       <c r="P12" t="n">
-        <v>348.2590163927153</v>
+        <v>348.3489875108902</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31178,28 +31242,28 @@
         <v>0.0456</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6085426557621093</v>
+        <v>0.5957685452083216</v>
       </c>
       <c r="J13" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K13" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08779579956060302</v>
+        <v>0.08418373376829047</v>
       </c>
       <c r="M13" t="n">
-        <v>11.94039617897754</v>
+        <v>11.98117898929655</v>
       </c>
       <c r="N13" t="n">
-        <v>219.5709374914526</v>
+        <v>220.8991758044511</v>
       </c>
       <c r="O13" t="n">
-        <v>14.81792622101529</v>
+        <v>14.86267727579561</v>
       </c>
       <c r="P13" t="n">
-        <v>336.690066060856</v>
+        <v>336.8146993601864</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31256,28 +31320,28 @@
         <v>0.0416</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5062777066745678</v>
+        <v>0.5016280897498616</v>
       </c>
       <c r="J14" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K14" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04106079596986489</v>
+        <v>0.04050536640762237</v>
       </c>
       <c r="M14" t="n">
-        <v>15.03204882421026</v>
+        <v>15.0189236269764</v>
       </c>
       <c r="N14" t="n">
-        <v>344.2793638150521</v>
+        <v>343.6639605198048</v>
       </c>
       <c r="O14" t="n">
-        <v>18.55476660632119</v>
+        <v>18.53817576030082</v>
       </c>
       <c r="P14" t="n">
-        <v>324.5249506746416</v>
+        <v>324.5701952691107</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -31334,28 +31398,28 @@
         <v>0.0356</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3269482143038144</v>
+        <v>0.3193845570287963</v>
       </c>
       <c r="J15" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K15" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03965401135340874</v>
+        <v>0.03792503967445437</v>
       </c>
       <c r="M15" t="n">
-        <v>9.847066961529835</v>
+        <v>9.859118433996942</v>
       </c>
       <c r="N15" t="n">
-        <v>150.1153443597867</v>
+        <v>150.4148597437009</v>
       </c>
       <c r="O15" t="n">
-        <v>12.25215672278912</v>
+        <v>12.2643735976894</v>
       </c>
       <c r="P15" t="n">
-        <v>333.6465973805692</v>
+        <v>333.7197855177174</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -31393,7 +31457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P501"/>
+  <dimension ref="A1:P502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42578,7 +42642,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>-34.9921376530555,173.71022614084248</t>
+          <t>-34.99213765305551,173.71022614084248</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -53188,7 +53252,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>-34.99438918850225,173.71260071263404</t>
+          <t>-34.994389188502254,173.71260071263404</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -67543,6 +67607,88 @@
         </is>
       </c>
     </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>-34.98992280994969,173.70951343197464</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>-34.9906738504268,173.70958918297336</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>-34.99140833112465,173.70991274562675</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>-34.99214134508279,173.71021694716129</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>-34.99281708823388,173.71067120550643</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>-34.99340354490016,173.71121859767564</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>-34.99402472405176,173.71175366995215</t>
+        </is>
+      </c>
+      <c r="I502" t="inlineStr">
+        <is>
+          <t>-34.99454795831909,173.71242123932558</t>
+        </is>
+      </c>
+      <c r="J502" t="inlineStr">
+        <is>
+          <t>-34.99500377438662,173.71312444308703</t>
+        </is>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>-34.995455978887094,173.71384269153313</t>
+        </is>
+      </c>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>-34.99599668953093,173.7144825622838</t>
+        </is>
+      </c>
+      <c r="M502" t="inlineStr">
+        <is>
+          <t>-34.99654004768278,173.7151443527276</t>
+        </is>
+      </c>
+      <c r="N502" t="inlineStr">
+        <is>
+          <t>-34.99692365551798,173.71591950602644</t>
+        </is>
+      </c>
+      <c r="O502" t="inlineStr">
+        <is>
+          <t>-34.99732130824796,173.71668280220936</t>
+        </is>
+      </c>
+      <c r="P502" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0043/nzd0043.xlsx
+++ b/data/nzd0043/nzd0043.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P502"/>
+  <dimension ref="A1:P505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25102,6 +25102,168 @@
         </is>
       </c>
     </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>316.7488888888889</v>
+      </c>
+      <c r="C503" t="n">
+        <v>332.9188888888889</v>
+      </c>
+      <c r="D503" t="n">
+        <v>352</v>
+      </c>
+      <c r="E503" t="n">
+        <v>357.7163636363636</v>
+      </c>
+      <c r="F503" t="n">
+        <v>345.3563636363637</v>
+      </c>
+      <c r="G503" t="n">
+        <v>346.8263636363636</v>
+      </c>
+      <c r="H503" t="n">
+        <v>334.8463636363636</v>
+      </c>
+      <c r="I503" t="n">
+        <v>338.0063636363636</v>
+      </c>
+      <c r="J503" t="n">
+        <v>345.09</v>
+      </c>
+      <c r="K503" t="n">
+        <v>353.54</v>
+      </c>
+      <c r="L503" t="n">
+        <v>349.61</v>
+      </c>
+      <c r="M503" t="n">
+        <v>343.95</v>
+      </c>
+      <c r="N503" t="n">
+        <v>336.1114285714286</v>
+      </c>
+      <c r="O503" t="n">
+        <v>332.2314285714286</v>
+      </c>
+      <c r="P503" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>339.75</v>
+      </c>
+      <c r="C504" t="n">
+        <v>341.3</v>
+      </c>
+      <c r="D504" t="n">
+        <v>355.34</v>
+      </c>
+      <c r="E504" t="n">
+        <v>362.4981818181818</v>
+      </c>
+      <c r="F504" t="n">
+        <v>351.1581818181818</v>
+      </c>
+      <c r="G504" t="n">
+        <v>350.9081818181818</v>
+      </c>
+      <c r="H504" t="n">
+        <v>350.8681818181818</v>
+      </c>
+      <c r="I504" t="n">
+        <v>346.9881818181818</v>
+      </c>
+      <c r="J504" t="n">
+        <v>353.98</v>
+      </c>
+      <c r="K504" t="n">
+        <v>359.86</v>
+      </c>
+      <c r="L504" t="n">
+        <v>357.93</v>
+      </c>
+      <c r="M504" t="n">
+        <v>342.23</v>
+      </c>
+      <c r="N504" t="n">
+        <v>319.8885714285714</v>
+      </c>
+      <c r="O504" t="n">
+        <v>339.5985714285715</v>
+      </c>
+      <c r="P504" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>354.5711111111111</v>
+      </c>
+      <c r="C505" t="n">
+        <v>335.8611111111111</v>
+      </c>
+      <c r="D505" t="n">
+        <v>353.22</v>
+      </c>
+      <c r="E505" t="n">
+        <v>352.6590909090909</v>
+      </c>
+      <c r="F505" t="n">
+        <v>335.8290909090909</v>
+      </c>
+      <c r="G505" t="n">
+        <v>340.3390909090909</v>
+      </c>
+      <c r="H505" t="n">
+        <v>356.0490909090909</v>
+      </c>
+      <c r="I505" t="n">
+        <v>347.7890909090909</v>
+      </c>
+      <c r="J505" t="n">
+        <v>361.22</v>
+      </c>
+      <c r="K505" t="n">
+        <v>370</v>
+      </c>
+      <c r="L505" t="n">
+        <v>374.06</v>
+      </c>
+      <c r="M505" t="n">
+        <v>362.69</v>
+      </c>
+      <c r="N505" t="n">
+        <v>336.4628571428572</v>
+      </c>
+      <c r="O505" t="n">
+        <v>339.7328571428571</v>
+      </c>
+      <c r="P505" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25113,7 +25275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B509"/>
+  <dimension ref="A1:B512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30211,6 +30373,36 @@
       </c>
       <c r="B509" t="n">
         <v>-0.66</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>-0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -30384,28 +30576,28 @@
         <v>0.0469</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04665457014137405</v>
+        <v>0.03363170641699917</v>
       </c>
       <c r="J2" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K2" t="n">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00125192482898917</v>
+        <v>0.0006449556262567713</v>
       </c>
       <c r="M2" t="n">
-        <v>8.072610527418771</v>
+        <v>8.118219807372501</v>
       </c>
       <c r="N2" t="n">
-        <v>105.8359009322199</v>
+        <v>107.562469483856</v>
       </c>
       <c r="O2" t="n">
-        <v>10.2876576990207</v>
+        <v>10.37123278515414</v>
       </c>
       <c r="P2" t="n">
-        <v>345.8819694583046</v>
+        <v>346.0031205640188</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30462,28 +30654,28 @@
         <v>0.0504</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06743787537069747</v>
+        <v>0.06137892759695241</v>
       </c>
       <c r="J3" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K3" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003082392611614804</v>
+        <v>0.002583895468067809</v>
       </c>
       <c r="M3" t="n">
-        <v>7.276034747121031</v>
+        <v>7.25386796485681</v>
       </c>
       <c r="N3" t="n">
-        <v>87.35620739013424</v>
+        <v>86.96599035149509</v>
       </c>
       <c r="O3" t="n">
-        <v>9.346454268338034</v>
+        <v>9.32555576636026</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6193787846382</v>
+        <v>339.6770183641257</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30540,28 +30732,28 @@
         <v>0.0417</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1455036895813409</v>
+        <v>0.1497886148858058</v>
       </c>
       <c r="J4" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K4" t="n">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01330710602747043</v>
+        <v>0.0142696158664648</v>
       </c>
       <c r="M4" t="n">
-        <v>7.754824831448615</v>
+        <v>7.723967700730298</v>
       </c>
       <c r="N4" t="n">
-        <v>92.6487713397994</v>
+        <v>92.08989415550941</v>
       </c>
       <c r="O4" t="n">
-        <v>9.625423177180284</v>
+        <v>9.596347959276457</v>
       </c>
       <c r="P4" t="n">
-        <v>346.3808314173681</v>
+        <v>346.3398423635647</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30618,28 +30810,28 @@
         <v>0.0614</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2598797748047441</v>
+        <v>0.259054724506557</v>
       </c>
       <c r="J5" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K5" t="n">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04290255544841182</v>
+        <v>0.04315030601668746</v>
       </c>
       <c r="M5" t="n">
-        <v>7.266832718490663</v>
+        <v>7.240429977501487</v>
       </c>
       <c r="N5" t="n">
-        <v>88.63394184139516</v>
+        <v>88.13236324919743</v>
       </c>
       <c r="O5" t="n">
-        <v>9.414560098134972</v>
+        <v>9.387883853627367</v>
       </c>
       <c r="P5" t="n">
-        <v>351.564912669783</v>
+        <v>351.5728416832725</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30696,28 +30888,28 @@
         <v>0.0626</v>
       </c>
       <c r="I6" t="n">
-        <v>0.329483464014187</v>
+        <v>0.3229586481805995</v>
       </c>
       <c r="J6" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K6" t="n">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06415178898859053</v>
+        <v>0.06230129130989615</v>
       </c>
       <c r="M6" t="n">
-        <v>7.454865930901582</v>
+        <v>7.445935370365532</v>
       </c>
       <c r="N6" t="n">
-        <v>93.57145841968502</v>
+        <v>93.37465879670101</v>
       </c>
       <c r="O6" t="n">
-        <v>9.67323412410167</v>
+        <v>9.663056390019724</v>
       </c>
       <c r="P6" t="n">
-        <v>340.7363126592545</v>
+        <v>340.7988403212945</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30774,28 +30966,28 @@
         <v>0.0576</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3854517800720415</v>
+        <v>0.3805115430780401</v>
       </c>
       <c r="J7" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K7" t="n">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08113412306978784</v>
+        <v>0.08006338464442309</v>
       </c>
       <c r="M7" t="n">
-        <v>7.81714835623853</v>
+        <v>7.791985699714718</v>
       </c>
       <c r="N7" t="n">
-        <v>99.34438014407932</v>
+        <v>98.87322893634959</v>
       </c>
       <c r="O7" t="n">
-        <v>9.967165100673276</v>
+        <v>9.943501844740091</v>
       </c>
       <c r="P7" t="n">
-        <v>339.9272343074082</v>
+        <v>339.9747308830536</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30852,28 +31044,28 @@
         <v>0.0581</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3444063132406067</v>
+        <v>0.3353237165549927</v>
       </c>
       <c r="J8" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K8" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05699379264527948</v>
+        <v>0.05449642886738026</v>
       </c>
       <c r="M8" t="n">
-        <v>8.287714184745605</v>
+        <v>8.287581834228833</v>
       </c>
       <c r="N8" t="n">
-        <v>116.4619998313517</v>
+        <v>116.5573427580526</v>
       </c>
       <c r="O8" t="n">
-        <v>10.79175610507167</v>
+        <v>10.79617259764091</v>
       </c>
       <c r="P8" t="n">
-        <v>345.384246542251</v>
+        <v>345.4707670365362</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30930,28 +31122,28 @@
         <v>0.0577</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3887189612757316</v>
+        <v>0.3788860320194084</v>
       </c>
       <c r="J9" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K9" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06955662153248909</v>
+        <v>0.0669096524414392</v>
       </c>
       <c r="M9" t="n">
-        <v>8.546265786515637</v>
+        <v>8.543726024908903</v>
       </c>
       <c r="N9" t="n">
-        <v>119.9238496718925</v>
+        <v>119.5982249554019</v>
       </c>
       <c r="O9" t="n">
-        <v>10.9509748274705</v>
+        <v>10.93609733659142</v>
       </c>
       <c r="P9" t="n">
-        <v>341.758994946714</v>
+        <v>341.8527030677945</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31008,28 +31200,28 @@
         <v>0.0549</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4520759619920696</v>
+        <v>0.4526051453454117</v>
       </c>
       <c r="J10" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K10" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L10" t="n">
-        <v>0.08838341609530531</v>
+        <v>0.08949478972316049</v>
       </c>
       <c r="M10" t="n">
-        <v>8.899843756024366</v>
+        <v>8.876463749583488</v>
       </c>
       <c r="N10" t="n">
-        <v>124.2206421686169</v>
+        <v>123.6376260625779</v>
       </c>
       <c r="O10" t="n">
-        <v>11.14543144829382</v>
+        <v>11.11924575061537</v>
       </c>
       <c r="P10" t="n">
-        <v>341.3566983038127</v>
+        <v>341.3515322631178</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31086,28 +31278,28 @@
         <v>0.0553</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5086835335936212</v>
+        <v>0.5109832270477337</v>
       </c>
       <c r="J11" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K11" t="n">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1046544485539259</v>
+        <v>0.106578289602725</v>
       </c>
       <c r="M11" t="n">
-        <v>8.97051272019722</v>
+        <v>8.945634364573579</v>
       </c>
       <c r="N11" t="n">
-        <v>128.3962974533811</v>
+        <v>127.8296153768135</v>
       </c>
       <c r="O11" t="n">
-        <v>11.33120900228131</v>
+        <v>11.30617598380697</v>
       </c>
       <c r="P11" t="n">
-        <v>346.2401018272061</v>
+        <v>346.2177566063061</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31164,28 +31356,28 @@
         <v>0.0538</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5724107760001323</v>
+        <v>0.5690394394574344</v>
       </c>
       <c r="J12" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K12" t="n">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1192613740134731</v>
+        <v>0.1189061609337451</v>
       </c>
       <c r="M12" t="n">
-        <v>9.47393183984711</v>
+        <v>9.476980105607291</v>
       </c>
       <c r="N12" t="n">
-        <v>139.1795073139506</v>
+        <v>138.9675692234166</v>
       </c>
       <c r="O12" t="n">
-        <v>11.79743647213032</v>
+        <v>11.78845067103462</v>
       </c>
       <c r="P12" t="n">
-        <v>348.3489875108902</v>
+        <v>348.3817589646058</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31242,28 +31434,28 @@
         <v>0.0456</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5957685452083216</v>
+        <v>0.5922785526301994</v>
       </c>
       <c r="J13" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K13" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08418373376829047</v>
+        <v>0.08417226173382319</v>
       </c>
       <c r="M13" t="n">
-        <v>11.98117898929655</v>
+        <v>11.96384543515102</v>
       </c>
       <c r="N13" t="n">
-        <v>220.8991758044511</v>
+        <v>219.9505357230958</v>
       </c>
       <c r="O13" t="n">
-        <v>14.86267727579561</v>
+        <v>14.83072944002067</v>
       </c>
       <c r="P13" t="n">
-        <v>336.8146993601864</v>
+        <v>336.8486988574817</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31320,28 +31512,28 @@
         <v>0.0416</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5016280897498616</v>
+        <v>0.4924688218979675</v>
       </c>
       <c r="J14" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K14" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04050536640762237</v>
+        <v>0.03956700173473771</v>
       </c>
       <c r="M14" t="n">
-        <v>15.0189236269764</v>
+        <v>14.95544801623201</v>
       </c>
       <c r="N14" t="n">
-        <v>343.6639605198048</v>
+        <v>341.868872638895</v>
       </c>
       <c r="O14" t="n">
-        <v>18.53817576030082</v>
+        <v>18.4896963912038</v>
       </c>
       <c r="P14" t="n">
-        <v>324.5701952691107</v>
+        <v>324.6594230721972</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -31398,28 +31590,28 @@
         <v>0.0356</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3193845570287963</v>
+        <v>0.3129464191602261</v>
       </c>
       <c r="J15" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K15" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03792503967445437</v>
+        <v>0.03691988413839309</v>
       </c>
       <c r="M15" t="n">
-        <v>9.859118433996942</v>
+        <v>9.816799416335799</v>
       </c>
       <c r="N15" t="n">
-        <v>150.4148597437009</v>
+        <v>149.5548881195924</v>
       </c>
       <c r="O15" t="n">
-        <v>12.2643735976894</v>
+        <v>12.22926359678261</v>
       </c>
       <c r="P15" t="n">
-        <v>333.7197855177174</v>
+        <v>333.7821223839817</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -31457,7 +31649,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P502"/>
+  <dimension ref="A1:P505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67689,6 +67881,252 @@
         </is>
       </c>
     </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>-34.98992336438637,173.7094944399666</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>-34.99066644420614,173.70970009179914</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>-34.991391203845744,173.7100194278575</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>-34.99210327798352,173.71031173961404</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>-34.99276744467974,173.71075082195907</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>-34.9933488508271,173.71130455582698</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>-34.99401084350412,173.7117718957899</t>
+        </is>
+      </c>
+      <c r="I503" t="inlineStr">
+        <is>
+          <t>-34.99450473823945,173.71247009537626</t>
+        </is>
+      </c>
+      <c r="J503" t="inlineStr">
+        <is>
+          <t>-34.99496153869319,173.71317366646397</t>
+        </is>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>-34.99542487470538,173.71387783249858</t>
+        </is>
+      </c>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>-34.99594520066871,173.71452989484015</t>
+        </is>
+      </c>
+      <c r="M503" t="inlineStr">
+        <is>
+          <t>-34.99639493333086,173.71525828390932</t>
+        </is>
+      </c>
+      <c r="N503" t="inlineStr">
+        <is>
+          <t>-34.996858333972085,173.715968824035</t>
+        </is>
+      </c>
+      <c r="O503" t="inlineStr">
+        <is>
+          <t>-34.997269833821086,173.71672014745738</t>
+        </is>
+      </c>
+      <c r="P503" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>-34.98991601155462,173.70974630000498</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>-34.9906603319722,173.70979162190008</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>-34.99138543718045,173.71005534706597</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>-34.99208436843301,173.71035882696432</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>-34.992735850600056,173.7108014912547</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>-34.99332633738941,173.71133993827436</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>-34.99391271636298,173.7119007412478</t>
+        </is>
+      </c>
+      <c r="I504" t="inlineStr">
+        <is>
+          <t>-34.99444543889024,173.7125371273412</t>
+        </is>
+      </c>
+      <c r="J504" t="inlineStr">
+        <is>
+          <t>-34.99490368422147,173.71324109254851</t>
+        </is>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>-34.99538313829297,173.71392498551455</t>
+        </is>
+      </c>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>-34.99588537001268,173.7145848957253</t>
+        </is>
+      </c>
+      <c r="M504" t="inlineStr">
+        <is>
+          <t>-34.996407960302044,173.715248056283</t>
+        </is>
+      </c>
+      <c r="N504" t="inlineStr">
+        <is>
+          <t>-34.996982587133516,173.7158750123593</t>
+        </is>
+      </c>
+      <c r="O504" t="inlineStr">
+        <is>
+          <t>-34.99721279607267,173.7167615288909</t>
+        </is>
+      </c>
+      <c r="P504" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>-34.989911273370595,173.70990858977152</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>-34.990664298490074,173.70973222380496</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>-34.991389097460235,173.71003254804802</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>-34.992123276790764,173.7102619397937</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>-34.992819325855955,173.71066761688863</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>-34.99338463162828,173.71124832212453</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>-34.99388098536632,173.7119424054048</t>
+        </is>
+      </c>
+      <c r="I505" t="inlineStr">
+        <is>
+          <t>-34.99444015116311,173.71254310457954</t>
+        </is>
+      </c>
+      <c r="J505" t="inlineStr">
+        <is>
+          <t>-34.99485656761659,173.71329600416036</t>
+        </is>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>-34.99531617508729,173.7140006391459</t>
+        </is>
+      </c>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>-34.995769376134874,173.71469152582003</t>
+        </is>
+      </c>
+      <c r="M505" t="inlineStr">
+        <is>
+          <t>-34.99625299988039,173.71536971725686</t>
+        </is>
+      </c>
+      <c r="N505" t="inlineStr">
+        <is>
+          <t>-34.99685564233008,173.71597085623267</t>
+        </is>
+      </c>
+      <c r="O505" t="inlineStr">
+        <is>
+          <t>-34.99721175640831,173.71676228317676</t>
+        </is>
+      </c>
+      <c r="P505" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0043/nzd0043.xlsx
+++ b/data/nzd0043/nzd0043.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P505"/>
+  <dimension ref="A1:P511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25264,6 +25264,290 @@
         </is>
       </c>
     </row>
+    <row r="506">
+      <c r="A506" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr"/>
+      <c r="C506" t="inlineStr"/>
+      <c r="D506" t="inlineStr"/>
+      <c r="E506" t="inlineStr"/>
+      <c r="F506" t="inlineStr"/>
+      <c r="G506" t="inlineStr"/>
+      <c r="H506" t="inlineStr"/>
+      <c r="I506" t="inlineStr"/>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="n">
+        <v>366.59</v>
+      </c>
+      <c r="L506" t="n">
+        <v>364.68</v>
+      </c>
+      <c r="M506" t="n">
+        <v>358.64</v>
+      </c>
+      <c r="N506" t="n">
+        <v>331.5914285714285</v>
+      </c>
+      <c r="O506" t="n">
+        <v>339.1714285714286</v>
+      </c>
+      <c r="P506" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>344.7811111111111</v>
+      </c>
+      <c r="C507" t="n">
+        <v>340.7611111111111</v>
+      </c>
+      <c r="D507" t="n">
+        <v>355.08</v>
+      </c>
+      <c r="E507" t="n">
+        <v>362.6236363636364</v>
+      </c>
+      <c r="F507" t="n">
+        <v>354.2036363636363</v>
+      </c>
+      <c r="G507" t="n">
+        <v>351.3536363636364</v>
+      </c>
+      <c r="H507" t="n">
+        <v>352.3636363636364</v>
+      </c>
+      <c r="I507" t="n">
+        <v>349.6236363636364</v>
+      </c>
+      <c r="J507" t="n">
+        <v>349.91</v>
+      </c>
+      <c r="K507" t="n">
+        <v>358.88</v>
+      </c>
+      <c r="L507" t="n">
+        <v>357.17</v>
+      </c>
+      <c r="M507" t="n">
+        <v>334.89</v>
+      </c>
+      <c r="N507" t="n">
+        <v>321.1785714285714</v>
+      </c>
+      <c r="O507" t="n">
+        <v>342.4085714285715</v>
+      </c>
+      <c r="P507" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>338.2588888888889</v>
+      </c>
+      <c r="C508" t="n">
+        <v>334.6888888888889</v>
+      </c>
+      <c r="D508" t="n">
+        <v>351.28</v>
+      </c>
+      <c r="E508" t="n">
+        <v>353.0427272727272</v>
+      </c>
+      <c r="F508" t="n">
+        <v>346.0927272727272</v>
+      </c>
+      <c r="G508" t="n">
+        <v>345.0827272727273</v>
+      </c>
+      <c r="H508" t="n">
+        <v>349.4327272727273</v>
+      </c>
+      <c r="I508" t="n">
+        <v>344.5927272727272</v>
+      </c>
+      <c r="J508" t="n">
+        <v>343.01</v>
+      </c>
+      <c r="K508" t="n">
+        <v>358.15</v>
+      </c>
+      <c r="L508" t="n">
+        <v>355.13</v>
+      </c>
+      <c r="M508" t="n">
+        <v>335.72</v>
+      </c>
+      <c r="N508" t="n">
+        <v>317.9685714285715</v>
+      </c>
+      <c r="O508" t="n">
+        <v>330.1785714285714</v>
+      </c>
+      <c r="P508" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>345.7644444444445</v>
+      </c>
+      <c r="C509" t="n">
+        <v>343.4144444444445</v>
+      </c>
+      <c r="D509" t="n">
+        <v>353.14</v>
+      </c>
+      <c r="E509" t="n">
+        <v>360.9381818181818</v>
+      </c>
+      <c r="F509" t="n">
+        <v>350.3881818181818</v>
+      </c>
+      <c r="G509" t="n">
+        <v>348.9281818181818</v>
+      </c>
+      <c r="H509" t="n">
+        <v>359.2081818181818</v>
+      </c>
+      <c r="I509" t="n">
+        <v>349.1881818181818</v>
+      </c>
+      <c r="J509" t="n">
+        <v>352.27</v>
+      </c>
+      <c r="K509" t="n">
+        <v>356.13</v>
+      </c>
+      <c r="L509" t="n">
+        <v>357.74</v>
+      </c>
+      <c r="M509" t="n">
+        <v>347.24</v>
+      </c>
+      <c r="N509" t="n">
+        <v>314.7614285714285</v>
+      </c>
+      <c r="O509" t="n">
+        <v>336.6614285714285</v>
+      </c>
+      <c r="P509" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr"/>
+      <c r="C510" t="inlineStr"/>
+      <c r="D510" t="inlineStr"/>
+      <c r="E510" t="inlineStr"/>
+      <c r="F510" t="inlineStr"/>
+      <c r="G510" t="inlineStr"/>
+      <c r="H510" t="inlineStr"/>
+      <c r="I510" t="inlineStr"/>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="n">
+        <v>350.07</v>
+      </c>
+      <c r="L510" t="n">
+        <v>347.77</v>
+      </c>
+      <c r="M510" t="n">
+        <v>348.66</v>
+      </c>
+      <c r="N510" t="inlineStr"/>
+      <c r="O510" t="inlineStr"/>
+      <c r="P510" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>336.6744444444445</v>
+      </c>
+      <c r="C511" t="n">
+        <v>332.4744444444444</v>
+      </c>
+      <c r="D511" t="n">
+        <v>342.74</v>
+      </c>
+      <c r="E511" t="n">
+        <v>345.5818181818182</v>
+      </c>
+      <c r="F511" t="n">
+        <v>335.8518181818182</v>
+      </c>
+      <c r="G511" t="n">
+        <v>341.9118181818182</v>
+      </c>
+      <c r="H511" t="n">
+        <v>346.9918181818182</v>
+      </c>
+      <c r="I511" t="n">
+        <v>336.4518181818182</v>
+      </c>
+      <c r="J511" t="n">
+        <v>337.86</v>
+      </c>
+      <c r="K511" t="n">
+        <v>343.48</v>
+      </c>
+      <c r="L511" t="n">
+        <v>350.55</v>
+      </c>
+      <c r="M511" t="n">
+        <v>335.31</v>
+      </c>
+      <c r="N511" t="n">
+        <v>324.3142857142857</v>
+      </c>
+      <c r="O511" t="n">
+        <v>334.7442857142857</v>
+      </c>
+      <c r="P511" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25275,7 +25559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B512"/>
+  <dimension ref="A1:B518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30403,6 +30687,66 @@
       </c>
       <c r="B512" t="n">
         <v>-0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>-0.89</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>-0.43</v>
       </c>
     </row>
   </sheetData>
@@ -30576,28 +30920,28 @@
         <v>0.0469</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03363170641699917</v>
+        <v>0.02431305220055822</v>
       </c>
       <c r="J2" t="n">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="K2" t="n">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0006449556262567713</v>
+        <v>0.0003421114282192717</v>
       </c>
       <c r="M2" t="n">
-        <v>8.118219807372501</v>
+        <v>8.088432535200727</v>
       </c>
       <c r="N2" t="n">
-        <v>107.562469483856</v>
+        <v>106.9576931017664</v>
       </c>
       <c r="O2" t="n">
-        <v>10.37123278515414</v>
+        <v>10.34203524949352</v>
       </c>
       <c r="P2" t="n">
-        <v>346.0031205640188</v>
+        <v>346.0903063174585</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30654,28 +30998,28 @@
         <v>0.0504</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06137892759695241</v>
+        <v>0.05555899923346513</v>
       </c>
       <c r="J3" t="n">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="K3" t="n">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002583895468067809</v>
+        <v>0.002150178700675243</v>
       </c>
       <c r="M3" t="n">
-        <v>7.25386796485681</v>
+        <v>7.224432751676301</v>
       </c>
       <c r="N3" t="n">
-        <v>86.96599035149509</v>
+        <v>86.43204537429477</v>
       </c>
       <c r="O3" t="n">
-        <v>9.32555576636026</v>
+        <v>9.296883637773185</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6770183641257</v>
+        <v>339.7326343436965</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30732,28 +31076,28 @@
         <v>0.0417</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1497886148858058</v>
+        <v>0.1503378998258286</v>
       </c>
       <c r="J4" t="n">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="K4" t="n">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0142696158664648</v>
+        <v>0.01459757925700622</v>
       </c>
       <c r="M4" t="n">
-        <v>7.723967700730298</v>
+        <v>7.69012737162389</v>
       </c>
       <c r="N4" t="n">
-        <v>92.08989415550941</v>
+        <v>91.4424962711963</v>
       </c>
       <c r="O4" t="n">
-        <v>9.596347959276457</v>
+        <v>9.562556994402506</v>
       </c>
       <c r="P4" t="n">
-        <v>346.3398423635647</v>
+        <v>346.3346552718159</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30810,28 +31154,28 @@
         <v>0.0614</v>
       </c>
       <c r="I5" t="n">
-        <v>0.259054724506557</v>
+        <v>0.2545392876237713</v>
       </c>
       <c r="J5" t="n">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="K5" t="n">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04315030601668746</v>
+        <v>0.04221547335053666</v>
       </c>
       <c r="M5" t="n">
-        <v>7.240429977501487</v>
+        <v>7.231462915228559</v>
       </c>
       <c r="N5" t="n">
-        <v>88.13236324919743</v>
+        <v>87.81401172449159</v>
       </c>
       <c r="O5" t="n">
-        <v>9.387883853627367</v>
+        <v>9.370913067812101</v>
       </c>
       <c r="P5" t="n">
-        <v>351.5728416832725</v>
+        <v>351.6163611535786</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30888,28 +31232,28 @@
         <v>0.0626</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3229586481805995</v>
+        <v>0.3187441670298923</v>
       </c>
       <c r="J6" t="n">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="K6" t="n">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06230129130989615</v>
+        <v>0.06150863493128478</v>
       </c>
       <c r="M6" t="n">
-        <v>7.445935370365532</v>
+        <v>7.42839623766283</v>
       </c>
       <c r="N6" t="n">
-        <v>93.37465879670101</v>
+        <v>93.00003485829201</v>
       </c>
       <c r="O6" t="n">
-        <v>9.663056390019724</v>
+        <v>9.643652568311035</v>
       </c>
       <c r="P6" t="n">
-        <v>340.7988403212945</v>
+        <v>340.8394734833535</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30966,28 +31310,28 @@
         <v>0.0576</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3805115430780401</v>
+        <v>0.3754748027129763</v>
       </c>
       <c r="J7" t="n">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="K7" t="n">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08006338464442309</v>
+        <v>0.07927618154328475</v>
       </c>
       <c r="M7" t="n">
-        <v>7.791985699714718</v>
+        <v>7.752352933910659</v>
       </c>
       <c r="N7" t="n">
-        <v>98.87322893634959</v>
+        <v>98.14515731463048</v>
       </c>
       <c r="O7" t="n">
-        <v>9.943501844740091</v>
+        <v>9.906823775288954</v>
       </c>
       <c r="P7" t="n">
-        <v>339.9747308830536</v>
+        <v>340.0233628714458</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31044,28 +31388,28 @@
         <v>0.0581</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3353237165549927</v>
+        <v>0.3316789939698879</v>
       </c>
       <c r="J8" t="n">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="K8" t="n">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05449642886738026</v>
+        <v>0.05421034246876044</v>
       </c>
       <c r="M8" t="n">
-        <v>8.287581834228833</v>
+        <v>8.253052153598603</v>
       </c>
       <c r="N8" t="n">
-        <v>116.5573427580526</v>
+        <v>115.6876776431885</v>
       </c>
       <c r="O8" t="n">
-        <v>10.79617259764091</v>
+        <v>10.75582064015519</v>
       </c>
       <c r="P8" t="n">
-        <v>345.4707670365362</v>
+        <v>345.5056640006138</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31122,28 +31466,28 @@
         <v>0.0577</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3788860320194084</v>
+        <v>0.3674550670256683</v>
       </c>
       <c r="J9" t="n">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="K9" t="n">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0669096524414392</v>
+        <v>0.06394274832712232</v>
       </c>
       <c r="M9" t="n">
-        <v>8.543726024908903</v>
+        <v>8.530150545475037</v>
       </c>
       <c r="N9" t="n">
-        <v>119.5982249554019</v>
+        <v>119.1381252386695</v>
       </c>
       <c r="O9" t="n">
-        <v>10.93609733659142</v>
+        <v>10.91504123852354</v>
       </c>
       <c r="P9" t="n">
-        <v>341.8527030677945</v>
+        <v>341.9621964619402</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31200,28 +31544,28 @@
         <v>0.0549</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4526051453454117</v>
+        <v>0.4402529811062112</v>
       </c>
       <c r="J10" t="n">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="K10" t="n">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="L10" t="n">
-        <v>0.08949478972316049</v>
+        <v>0.08599787806224701</v>
       </c>
       <c r="M10" t="n">
-        <v>8.876463749583488</v>
+        <v>8.864085727375526</v>
       </c>
       <c r="N10" t="n">
-        <v>123.6376260625779</v>
+        <v>123.2631295551112</v>
       </c>
       <c r="O10" t="n">
-        <v>11.11924575061537</v>
+        <v>11.10239296526254</v>
       </c>
       <c r="P10" t="n">
-        <v>341.3515322631178</v>
+        <v>341.4708818739569</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31278,28 +31622,28 @@
         <v>0.0553</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5109832270477337</v>
+        <v>0.5011441214707543</v>
       </c>
       <c r="J11" t="n">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="K11" t="n">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="L11" t="n">
-        <v>0.106578289602725</v>
+        <v>0.1047780639739857</v>
       </c>
       <c r="M11" t="n">
-        <v>8.945634364573579</v>
+        <v>8.911603298571192</v>
       </c>
       <c r="N11" t="n">
-        <v>127.8296153768135</v>
+        <v>126.9805986174313</v>
       </c>
       <c r="O11" t="n">
-        <v>11.30617598380697</v>
+        <v>11.26856683955113</v>
       </c>
       <c r="P11" t="n">
-        <v>346.2177566063061</v>
+        <v>346.3136405409269</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31356,28 +31700,28 @@
         <v>0.0538</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5690394394574344</v>
+        <v>0.5498286955830236</v>
       </c>
       <c r="J12" t="n">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="K12" t="n">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1189061609337451</v>
+        <v>0.1137585923784228</v>
       </c>
       <c r="M12" t="n">
-        <v>9.476980105607291</v>
+        <v>9.457651931622543</v>
       </c>
       <c r="N12" t="n">
-        <v>138.9675692234166</v>
+        <v>138.2103842366666</v>
       </c>
       <c r="O12" t="n">
-        <v>11.78845067103462</v>
+        <v>11.75629126198678</v>
       </c>
       <c r="P12" t="n">
-        <v>348.3817589646058</v>
+        <v>348.5699637079049</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31434,28 +31778,28 @@
         <v>0.0456</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5922785526301994</v>
+        <v>0.5692461994010742</v>
       </c>
       <c r="J13" t="n">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="K13" t="n">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="L13" t="n">
-        <v>0.08417226173382319</v>
+        <v>0.07958752287590132</v>
       </c>
       <c r="M13" t="n">
-        <v>11.96384543515102</v>
+        <v>11.95149743733166</v>
       </c>
       <c r="N13" t="n">
-        <v>219.9505357230958</v>
+        <v>218.9689936603428</v>
       </c>
       <c r="O13" t="n">
-        <v>14.83072944002067</v>
+        <v>14.79760094273199</v>
       </c>
       <c r="P13" t="n">
-        <v>336.8486988574817</v>
+        <v>337.0745520475278</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31512,28 +31856,28 @@
         <v>0.0416</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4924688218979675</v>
+        <v>0.4583343739193241</v>
       </c>
       <c r="J14" t="n">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="K14" t="n">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03956700173473771</v>
+        <v>0.03493303660852543</v>
       </c>
       <c r="M14" t="n">
-        <v>14.95544801623201</v>
+        <v>14.95504350123331</v>
       </c>
       <c r="N14" t="n">
-        <v>341.868872638895</v>
+        <v>340.9030306775388</v>
       </c>
       <c r="O14" t="n">
-        <v>18.4896963912038</v>
+        <v>18.46355953432433</v>
       </c>
       <c r="P14" t="n">
-        <v>324.6594230721972</v>
+        <v>324.993134575923</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -31590,28 +31934,28 @@
         <v>0.0356</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3129464191602261</v>
+        <v>0.301491381895055</v>
       </c>
       <c r="J15" t="n">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="K15" t="n">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03691988413839309</v>
+        <v>0.03502681251575246</v>
       </c>
       <c r="M15" t="n">
-        <v>9.816799416335799</v>
+        <v>9.754504074725979</v>
       </c>
       <c r="N15" t="n">
-        <v>149.5548881195924</v>
+        <v>148.2598532705335</v>
       </c>
       <c r="O15" t="n">
-        <v>12.22926359678261</v>
+        <v>12.17620028048707</v>
       </c>
       <c r="P15" t="n">
-        <v>333.7821223839817</v>
+        <v>333.8935045857788</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -31649,7 +31993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P505"/>
+  <dimension ref="A1:P511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68127,6 +68471,418 @@
         </is>
       </c>
     </row>
+    <row r="506">
+      <c r="A506" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr"/>
+      <c r="C506" t="inlineStr"/>
+      <c r="D506" t="inlineStr"/>
+      <c r="E506" t="inlineStr"/>
+      <c r="F506" t="inlineStr"/>
+      <c r="G506" t="inlineStr"/>
+      <c r="H506" t="inlineStr"/>
+      <c r="I506" t="inlineStr"/>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>-34.99533869427703,173.7139751974552</t>
+        </is>
+      </c>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>-34.99583682949847,173.71462951777912</t>
+        </is>
+      </c>
+      <c r="M506" t="inlineStr">
+        <is>
+          <t>-34.9962836738737,173.7153456348422</t>
+        </is>
+      </c>
+      <c r="N506" t="inlineStr">
+        <is>
+          <t>-34.99689295329973,173.71594268632623</t>
+        </is>
+      </c>
+      <c r="O506" t="inlineStr">
+        <is>
+          <t>-34.99721610309006,173.71675912961993</t>
+        </is>
+      </c>
+      <c r="P506" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>-34.9899144031752,173.7098013901989</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>-34.99066072497884,173.70978573669584</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>-34.99138588608291,173.7100525509601</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>-34.9920838723267,173.71036006233558</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>-34.99271926642264,173.71082808825258</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>-34.99332388046575,173.71134379960932</t>
+        </is>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>-34.99390355730327,173.7119127674905</t>
+        </is>
+      </c>
+      <c r="I507" t="inlineStr">
+        <is>
+          <t>-34.994428039205864,173.7125567959126</t>
+        </is>
+      </c>
+      <c r="J507" t="inlineStr">
+        <is>
+          <t>-34.994930171031434,173.71321022370046</t>
+        </is>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>-34.99538961007962,173.7139176738158</t>
+        </is>
+      </c>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>-34.995890835314015,173.71457987160932</t>
+        </is>
+      </c>
+      <c r="M507" t="inlineStr">
+        <is>
+          <t>-34.99646355213463,173.71520441044626</t>
+        </is>
+      </c>
+      <c r="N507" t="inlineStr">
+        <is>
+          <t>-34.99697270684336,173.7158824720335</t>
+        </is>
+      </c>
+      <c r="O507" t="inlineStr">
+        <is>
+          <t>-34.99719104054229,173.71677731271922</t>
+        </is>
+      </c>
+      <c r="P507" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>-34.98991648823825,173.70972997247793</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>-34.990665153374195,173.7097194219675</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>-34.99139244695783,173.71001168479393</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>-34.992121759714955,173.71026571752677</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>-34.99276343477733,173.7107572528809</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>-34.99335846792277,173.71128944144823</t>
+        </is>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>-34.99392150794562,173.71188919751444</t>
+        </is>
+      </c>
+      <c r="I508" t="inlineStr">
+        <is>
+          <t>-34.99446125405424,173.71251924989846</t>
+        </is>
+      </c>
+      <c r="J508" t="inlineStr">
+        <is>
+          <t>-34.994975074942225,173.7131578907185</t>
+        </is>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>-34.9953944309,173.71391222734562</t>
+        </is>
+      </c>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>-34.995905505332345,173.71456638582094</t>
+        </is>
+      </c>
+      <c r="M508" t="inlineStr">
+        <is>
+          <t>-34.996457265865516,173.7152093458776</t>
+        </is>
+      </c>
+      <c r="N508" t="inlineStr">
+        <is>
+          <t>-34.99699729268081,173.71586390958512</t>
+        </is>
+      </c>
+      <c r="O508" t="inlineStr">
+        <is>
+          <t>-34.99728572740876,173.71670861649514</t>
+        </is>
+      </c>
+      <c r="P508" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>-34.98991408881366,173.7098121576062</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>-34.990658789924844,173.70981471374213</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>-34.99138923558391,173.7100316877077</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>-34.99209053740622,173.7103434653901</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>-34.99274004367325,173.7107947665792</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>-34.99333725816292,173.71132277503173</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>-34.993861637190705,173.71196781036278</t>
+        </is>
+      </c>
+      <c r="I509" t="inlineStr">
+        <is>
+          <t>-34.9944309141453,173.71255354608712</t>
+        </is>
+      </c>
+      <c r="J509" t="inlineStr">
+        <is>
+          <t>-34.994914812587275,173.71322812308406</t>
+        </is>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>-34.99540777070312,173.7138971562878</t>
+        </is>
+      </c>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>-34.995886736338036,173.71458363969637</t>
+        </is>
+      </c>
+      <c r="M509" t="inlineStr">
+        <is>
+          <t>-34.996370015459185,173.71527784720877</t>
+        </is>
+      </c>
+      <c r="N509" t="inlineStr">
+        <is>
+          <t>-34.997021856632216,173.7158453636477</t>
+        </is>
+      </c>
+      <c r="O509" t="inlineStr">
+        <is>
+          <t>-34.997235535963945,173.71674503088974</t>
+        </is>
+      </c>
+      <c r="P509" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr"/>
+      <c r="C510" t="inlineStr"/>
+      <c r="D510" t="inlineStr"/>
+      <c r="E510" t="inlineStr"/>
+      <c r="F510" t="inlineStr"/>
+      <c r="G510" t="inlineStr"/>
+      <c r="H510" t="inlineStr"/>
+      <c r="I510" t="inlineStr"/>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>-34.995447790101366,173.713851943085</t>
+        </is>
+      </c>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>-34.995958432445086,173.7145177311721</t>
+        </is>
+      </c>
+      <c r="M510" t="inlineStr">
+        <is>
+          <t>-34.99635926063216,173.71528629093925</t>
+        </is>
+      </c>
+      <c r="N510" t="inlineStr"/>
+      <c r="O510" t="inlineStr"/>
+      <c r="P510" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>-34.9899169947566,173.70971262295936</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>-34.99066676833171,173.70969523802165</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>-34.99140719161101,173.70991984343792</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>-34.99215126358309,173.71019224865043</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>-34.99281920209368,173.7106678153741</t>
+        </is>
+      </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>-34.99337595719312,173.71126195501935</t>
+        </is>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>-34.99393645753113,173.7118695680445</t>
+        </is>
+      </c>
+      <c r="I511" t="inlineStr">
+        <is>
+          <t>-34.994515001584645,173.71245849368023</t>
+        </is>
+      </c>
+      <c r="J511" t="inlineStr">
+        <is>
+          <t>-34.99500859016551,173.71311883055702</t>
+        </is>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>-34.9954913095272,173.71380277554223</t>
+        </is>
+      </c>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>-34.9959384409564,173.71453610888648</t>
+        </is>
+      </c>
+      <c r="M511" t="inlineStr">
+        <is>
+          <t>-34.996460371131,173.71520690789353</t>
+        </is>
+      </c>
+      <c r="N511" t="inlineStr">
+        <is>
+          <t>-34.99694868996784,173.71590060489967</t>
+        </is>
+      </c>
+      <c r="O511" t="inlineStr">
+        <is>
+          <t>-34.997250378829534,173.7167342622479</t>
+        </is>
+      </c>
+      <c r="P511" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0043/nzd0043.xlsx
+++ b/data/nzd0043/nzd0043.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P511"/>
+  <dimension ref="A1:P516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25548,6 +25548,268 @@
         </is>
       </c>
     </row>
+    <row r="512">
+      <c r="A512" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>330.4588888888889</v>
+      </c>
+      <c r="C512" t="n">
+        <v>325.2688888888889</v>
+      </c>
+      <c r="D512" t="n">
+        <v>333.2</v>
+      </c>
+      <c r="E512" t="n">
+        <v>346.7772727272728</v>
+      </c>
+      <c r="F512" t="n">
+        <v>336.8772727272727</v>
+      </c>
+      <c r="G512" t="n">
+        <v>338.5172727272728</v>
+      </c>
+      <c r="H512" t="n">
+        <v>343.7872727272728</v>
+      </c>
+      <c r="I512" t="n">
+        <v>337.8272727272728</v>
+      </c>
+      <c r="J512" t="n">
+        <v>335.12</v>
+      </c>
+      <c r="K512" t="n">
+        <v>345.11</v>
+      </c>
+      <c r="L512" t="n">
+        <v>348.31</v>
+      </c>
+      <c r="M512" t="n">
+        <v>330.74</v>
+      </c>
+      <c r="N512" t="n">
+        <v>306.7428571428572</v>
+      </c>
+      <c r="O512" t="n">
+        <v>318.7428571428572</v>
+      </c>
+      <c r="P512" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>336.5222222222222</v>
+      </c>
+      <c r="C513" t="n">
+        <v>331.9222222222222</v>
+      </c>
+      <c r="D513" t="n">
+        <v>338.11</v>
+      </c>
+      <c r="E513" t="n">
+        <v>344.5581818181818</v>
+      </c>
+      <c r="F513" t="n">
+        <v>333.4081818181818</v>
+      </c>
+      <c r="G513" t="n">
+        <v>328.8581818181818</v>
+      </c>
+      <c r="H513" t="n">
+        <v>335.8081818181818</v>
+      </c>
+      <c r="I513" t="n">
+        <v>334.0281818181818</v>
+      </c>
+      <c r="J513" t="n">
+        <v>331.22</v>
+      </c>
+      <c r="K513" t="n">
+        <v>336.46</v>
+      </c>
+      <c r="L513" t="n">
+        <v>337.38</v>
+      </c>
+      <c r="M513" t="n">
+        <v>314.9</v>
+      </c>
+      <c r="N513" t="n">
+        <v>302.9671428571428</v>
+      </c>
+      <c r="O513" t="n">
+        <v>321.3071428571428</v>
+      </c>
+      <c r="P513" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>345.0911111111111</v>
+      </c>
+      <c r="C514" t="n">
+        <v>330.6011111111111</v>
+      </c>
+      <c r="D514" t="n">
+        <v>338.42</v>
+      </c>
+      <c r="E514" t="n">
+        <v>348.79</v>
+      </c>
+      <c r="F514" t="n">
+        <v>333.35</v>
+      </c>
+      <c r="G514" t="n">
+        <v>333.86</v>
+      </c>
+      <c r="H514" t="n">
+        <v>342.94</v>
+      </c>
+      <c r="I514" t="n">
+        <v>336.15</v>
+      </c>
+      <c r="J514" t="n">
+        <v>333.26</v>
+      </c>
+      <c r="K514" t="n">
+        <v>341.1</v>
+      </c>
+      <c r="L514" t="n">
+        <v>339.36</v>
+      </c>
+      <c r="M514" t="n">
+        <v>324.81</v>
+      </c>
+      <c r="N514" t="n">
+        <v>316.0342857142857</v>
+      </c>
+      <c r="O514" t="n">
+        <v>322.7942857142857</v>
+      </c>
+      <c r="P514" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>319.4666666666667</v>
+      </c>
+      <c r="C515" t="n">
+        <v>311.7666666666667</v>
+      </c>
+      <c r="D515" t="n">
+        <v>321.17</v>
+      </c>
+      <c r="E515" t="n">
+        <v>334.7527272727273</v>
+      </c>
+      <c r="F515" t="n">
+        <v>327.0027272727273</v>
+      </c>
+      <c r="G515" t="n">
+        <v>320.4827272727272</v>
+      </c>
+      <c r="H515" t="n">
+        <v>329.0627272727273</v>
+      </c>
+      <c r="I515" t="n">
+        <v>333.0727272727273</v>
+      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
+      <c r="L515" t="inlineStr"/>
+      <c r="M515" t="inlineStr"/>
+      <c r="N515" t="n">
+        <v>309.6942857142857</v>
+      </c>
+      <c r="O515" t="n">
+        <v>314.6542857142857</v>
+      </c>
+      <c r="P515" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>338.1355555555555</v>
+      </c>
+      <c r="C516" t="n">
+        <v>333.5555555555555</v>
+      </c>
+      <c r="D516" t="n">
+        <v>338.77</v>
+      </c>
+      <c r="E516" t="n">
+        <v>345.8954545454546</v>
+      </c>
+      <c r="F516" t="n">
+        <v>333.4154545454546</v>
+      </c>
+      <c r="G516" t="n">
+        <v>332.3854545454545</v>
+      </c>
+      <c r="H516" t="n">
+        <v>339.3154545454545</v>
+      </c>
+      <c r="I516" t="n">
+        <v>335.4854545454546</v>
+      </c>
+      <c r="J516" t="n">
+        <v>340.94</v>
+      </c>
+      <c r="K516" t="n">
+        <v>338.89</v>
+      </c>
+      <c r="L516" t="n">
+        <v>340.16</v>
+      </c>
+      <c r="M516" t="n">
+        <v>322.55</v>
+      </c>
+      <c r="N516" t="n">
+        <v>312.5928571428572</v>
+      </c>
+      <c r="O516" t="n">
+        <v>326.2128571428572</v>
+      </c>
+      <c r="P516" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25559,7 +25821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B518"/>
+  <dimension ref="A1:B523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30747,6 +31009,56 @@
       </c>
       <c r="B518" t="n">
         <v>-0.43</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -30920,28 +31232,28 @@
         <v>0.0469</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02431305220055822</v>
+        <v>-0.001973556692663785</v>
       </c>
       <c r="J2" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K2" t="n">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003421114282192717</v>
+        <v>2.247530434207334e-06</v>
       </c>
       <c r="M2" t="n">
-        <v>8.088432535200727</v>
+        <v>8.129555175862087</v>
       </c>
       <c r="N2" t="n">
-        <v>106.9576931017664</v>
+        <v>108.4530579558532</v>
       </c>
       <c r="O2" t="n">
-        <v>10.34203524949352</v>
+        <v>10.4140797940026</v>
       </c>
       <c r="P2" t="n">
-        <v>346.0903063174585</v>
+        <v>346.3370986603543</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30998,28 +31310,28 @@
         <v>0.0504</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05555899923346513</v>
+        <v>0.02558694426441108</v>
       </c>
       <c r="J3" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K3" t="n">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002150178700675243</v>
+        <v>0.0004505422797939085</v>
       </c>
       <c r="M3" t="n">
-        <v>7.224432751676301</v>
+        <v>7.295386084203316</v>
       </c>
       <c r="N3" t="n">
-        <v>86.43204537429477</v>
+        <v>88.56759141155855</v>
       </c>
       <c r="O3" t="n">
-        <v>9.296883637773185</v>
+        <v>9.411035618440648</v>
       </c>
       <c r="P3" t="n">
-        <v>339.7326343436965</v>
+        <v>340.0199708927501</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31076,28 +31388,28 @@
         <v>0.0417</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1503378998258286</v>
+        <v>0.1175228824548635</v>
       </c>
       <c r="J4" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K4" t="n">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01459757925700622</v>
+        <v>0.008832718454115152</v>
       </c>
       <c r="M4" t="n">
-        <v>7.69012737162389</v>
+        <v>7.789194502890854</v>
       </c>
       <c r="N4" t="n">
-        <v>91.4424962711963</v>
+        <v>93.85670087876657</v>
       </c>
       <c r="O4" t="n">
-        <v>9.562556994402506</v>
+        <v>9.687966808302276</v>
       </c>
       <c r="P4" t="n">
-        <v>346.3346552718159</v>
+        <v>346.6508710763395</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31154,28 +31466,28 @@
         <v>0.0614</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2545392876237713</v>
+        <v>0.2263692489756441</v>
       </c>
       <c r="J5" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K5" t="n">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04221547335053666</v>
+        <v>0.03348926159221333</v>
       </c>
       <c r="M5" t="n">
-        <v>7.231462915228559</v>
+        <v>7.306126740599137</v>
       </c>
       <c r="N5" t="n">
-        <v>87.81401172449159</v>
+        <v>89.2650213815661</v>
       </c>
       <c r="O5" t="n">
-        <v>9.370913067812101</v>
+        <v>9.448016796215283</v>
       </c>
       <c r="P5" t="n">
-        <v>351.6163611535786</v>
+        <v>351.8882930527093</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31232,28 +31544,28 @@
         <v>0.0626</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3187441670298923</v>
+        <v>0.2858428178652287</v>
       </c>
       <c r="J6" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K6" t="n">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06150863493128478</v>
+        <v>0.04953997320366765</v>
       </c>
       <c r="M6" t="n">
-        <v>7.42839623766283</v>
+        <v>7.523761840606682</v>
       </c>
       <c r="N6" t="n">
-        <v>93.00003485829201</v>
+        <v>95.01316698798981</v>
       </c>
       <c r="O6" t="n">
-        <v>9.643652568311035</v>
+        <v>9.747469773638173</v>
       </c>
       <c r="P6" t="n">
-        <v>340.8394734833535</v>
+        <v>341.1569255132116</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31310,28 +31622,28 @@
         <v>0.0576</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3754748027129763</v>
+        <v>0.3369580254639134</v>
       </c>
       <c r="J7" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K7" t="n">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07927618154328475</v>
+        <v>0.06344919249712444</v>
       </c>
       <c r="M7" t="n">
-        <v>7.752352933910659</v>
+        <v>7.879598869959302</v>
       </c>
       <c r="N7" t="n">
-        <v>98.14515731463048</v>
+        <v>101.4799940491588</v>
       </c>
       <c r="O7" t="n">
-        <v>9.906823775288954</v>
+        <v>10.07372791220603</v>
       </c>
       <c r="P7" t="n">
-        <v>340.0233628714458</v>
+        <v>340.3962709171507</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31388,28 +31700,28 @@
         <v>0.0581</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3316789939698879</v>
+        <v>0.2989226840453653</v>
       </c>
       <c r="J8" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K8" t="n">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05421034246876044</v>
+        <v>0.04424824994903709</v>
       </c>
       <c r="M8" t="n">
-        <v>8.253052153598603</v>
+        <v>8.340794407681235</v>
       </c>
       <c r="N8" t="n">
-        <v>115.6876776431885</v>
+        <v>117.5570085486318</v>
       </c>
       <c r="O8" t="n">
-        <v>10.75582064015519</v>
+        <v>10.84237098372085</v>
       </c>
       <c r="P8" t="n">
-        <v>345.5056640006138</v>
+        <v>345.8204397798737</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31466,28 +31778,28 @@
         <v>0.0577</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3674550670256683</v>
+        <v>0.3339345617816127</v>
       </c>
       <c r="J9" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K9" t="n">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06394274832712232</v>
+        <v>0.05325211420669851</v>
       </c>
       <c r="M9" t="n">
-        <v>8.530150545475037</v>
+        <v>8.629843554793263</v>
       </c>
       <c r="N9" t="n">
-        <v>119.1381252386695</v>
+        <v>120.7631241155722</v>
       </c>
       <c r="O9" t="n">
-        <v>10.91504123852354</v>
+        <v>10.98922763962837</v>
       </c>
       <c r="P9" t="n">
-        <v>341.9621964619402</v>
+        <v>342.2842043266735</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31544,28 +31856,28 @@
         <v>0.0549</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4402529811062112</v>
+        <v>0.4108998039326755</v>
       </c>
       <c r="J10" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K10" t="n">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="L10" t="n">
-        <v>0.08599787806224701</v>
+        <v>0.07528161028928437</v>
       </c>
       <c r="M10" t="n">
-        <v>8.864085727375526</v>
+        <v>8.955570996786921</v>
       </c>
       <c r="N10" t="n">
-        <v>123.2631295551112</v>
+        <v>125.1250848272087</v>
       </c>
       <c r="O10" t="n">
-        <v>11.10239296526254</v>
+        <v>11.18593245229063</v>
       </c>
       <c r="P10" t="n">
-        <v>341.4708818739569</v>
+        <v>341.7552985197186</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31622,28 +31934,28 @@
         <v>0.0553</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5011441214707543</v>
+        <v>0.4700830881593065</v>
       </c>
       <c r="J11" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K11" t="n">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1047780639739857</v>
+        <v>0.09264825974800794</v>
       </c>
       <c r="M11" t="n">
-        <v>8.911603298571192</v>
+        <v>9.012028200025508</v>
       </c>
       <c r="N11" t="n">
-        <v>126.9805986174313</v>
+        <v>129.1342238367149</v>
       </c>
       <c r="O11" t="n">
-        <v>11.26856683955113</v>
+        <v>11.36372403029548</v>
       </c>
       <c r="P11" t="n">
-        <v>346.3136405409269</v>
+        <v>346.616587825951</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31700,28 +32012,28 @@
         <v>0.0538</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5498286955830236</v>
+        <v>0.5143595628554369</v>
       </c>
       <c r="J12" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K12" t="n">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1137585923784228</v>
+        <v>0.09975249321268187</v>
       </c>
       <c r="M12" t="n">
-        <v>9.457651931622543</v>
+        <v>9.570264381012555</v>
       </c>
       <c r="N12" t="n">
-        <v>138.2103842366666</v>
+        <v>141.28085245331</v>
       </c>
       <c r="O12" t="n">
-        <v>11.75629126198678</v>
+        <v>11.88616222560125</v>
       </c>
       <c r="P12" t="n">
-        <v>348.5699637079049</v>
+        <v>348.9184100048554</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31778,28 +32090,28 @@
         <v>0.0456</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5692461994010742</v>
+        <v>0.5202956345764164</v>
       </c>
       <c r="J13" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K13" t="n">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07958752287590132</v>
+        <v>0.0662722814498572</v>
       </c>
       <c r="M13" t="n">
-        <v>11.95149743733166</v>
+        <v>12.11749263263397</v>
       </c>
       <c r="N13" t="n">
-        <v>218.9689936603428</v>
+        <v>224.8076074944217</v>
       </c>
       <c r="O13" t="n">
-        <v>14.79760094273199</v>
+        <v>14.99358554497295</v>
       </c>
       <c r="P13" t="n">
-        <v>337.0745520475278</v>
+        <v>337.5560751033217</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31856,28 +32168,28 @@
         <v>0.0416</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4583343739193241</v>
+        <v>0.3997384527609187</v>
       </c>
       <c r="J14" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K14" t="n">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03493303660852543</v>
+        <v>0.02671016084606748</v>
       </c>
       <c r="M14" t="n">
-        <v>14.95504350123331</v>
+        <v>15.09518423979574</v>
       </c>
       <c r="N14" t="n">
-        <v>340.9030306775388</v>
+        <v>345.7480708699738</v>
       </c>
       <c r="O14" t="n">
-        <v>18.46355953432433</v>
+        <v>18.59430210763431</v>
       </c>
       <c r="P14" t="n">
-        <v>324.993134575923</v>
+        <v>325.5681217148999</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -31934,28 +32246,28 @@
         <v>0.0356</v>
       </c>
       <c r="I15" t="n">
-        <v>0.301491381895055</v>
+        <v>0.2570109261611948</v>
       </c>
       <c r="J15" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K15" t="n">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03502681251575246</v>
+        <v>0.02538045200609318</v>
       </c>
       <c r="M15" t="n">
-        <v>9.754504074725979</v>
+        <v>9.854989450536943</v>
       </c>
       <c r="N15" t="n">
-        <v>148.2598532705335</v>
+        <v>151.784067125706</v>
       </c>
       <c r="O15" t="n">
-        <v>12.17620028048707</v>
+        <v>12.3200676591367</v>
       </c>
       <c r="P15" t="n">
-        <v>333.8935045857788</v>
+        <v>334.3275844561084</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -31993,7 +32305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P511"/>
+  <dimension ref="A1:P516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68883,6 +69195,400 @@
         </is>
       </c>
     </row>
+    <row r="512">
+      <c r="A512" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>-34.989918981733844,173.70964456320453</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>-34.990672023190285,173.70961654614845</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>-34.991423662722624,173.7098172477844</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>-34.99214653620861,173.71020402050394</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>-34.992813617939234,173.7106767710394</t>
+        </is>
+      </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>-34.993394679931626,173.71123253002773</t>
+        </is>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>-34.993956084077176,173.7118437975005</t>
+        </is>
+      </c>
+      <c r="I512" t="inlineStr">
+        <is>
+          <t>-34.99450592062489,173.71246875880675</t>
+        </is>
+      </c>
+      <c r="J512" t="inlineStr">
+        <is>
+          <t>-34.99502642156082,173.71309804902126</t>
+        </is>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>-34.995480545240085,173.71381493686644</t>
+        </is>
+      </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>-34.99595454920649,173.71452130094465</t>
+        </is>
+      </c>
+      <c r="M512" t="inlineStr">
+        <is>
+          <t>-34.99649498347728,173.7151797332783</t>
+        </is>
+      </c>
+      <c r="N512" t="inlineStr">
+        <is>
+          <t>-34.997083271969295,173.71579899462552</t>
+        </is>
+      </c>
+      <c r="O512" t="inlineStr">
+        <is>
+          <t>-34.99737426473717,173.71664438165223</t>
+        </is>
+      </c>
+      <c r="P512" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>-34.98991704341917,173.70971095614024</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>-34.990667171057446,173.70968920720307</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>-34.99141518546317,173.70987005121307</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>-34.992155311508924,173.71018216872002</t>
+        </is>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>-34.9928325090123,173.71064647420937</t>
+        </is>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>-34.99344795495919,173.7111488019048</t>
+        </is>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>-34.99400495276148,173.71177963062013</t>
+        </is>
+      </c>
+      <c r="I513" t="inlineStr">
+        <is>
+          <t>-34.994531002797856,173.712440405884</t>
+        </is>
+      </c>
+      <c r="J513" t="inlineStr">
+        <is>
+          <t>-34.99505180200797,173.71306846944748</t>
+        </is>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>-34.99553766859052,173.71375039974149</t>
+        </is>
+      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>-34.99603314881203,173.7144490460385</t>
+        </is>
+      </c>
+      <c r="M513" t="inlineStr">
+        <is>
+          <t>-34.996614952701016,173.7150855436262</t>
+        </is>
+      </c>
+      <c r="N513" t="inlineStr">
+        <is>
+          <t>-34.99711219067619,173.71577716076496</t>
+        </is>
+      </c>
+      <c r="O513" t="inlineStr">
+        <is>
+          <t>-34.997354411585256,173.71665878535475</t>
+        </is>
+      </c>
+      <c r="P513" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>-34.98991430407148,173.70980478466967</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>-34.9906681345188,173.70967477934911</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>-34.991414650238276,173.70987338503406</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>-34.992138576961125,173.71022384018428</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>-34.99283282584366,173.71064596608633</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>-34.99342036727672,173.71119215929556</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>-34.99396127327937,173.71183698383973</t>
+        </is>
+      </c>
+      <c r="I514" t="inlineStr">
+        <is>
+          <t>-34.99451699423399,173.71245624118686</t>
+        </is>
+      </c>
+      <c r="J514" t="inlineStr">
+        <is>
+          <t>-34.995038526082666,173.7130839418422</t>
+        </is>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>-34.995507026705006,173.713785018511</t>
+        </is>
+      </c>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>-34.99601891027731,173.71446213522657</t>
+        </is>
+      </c>
+      <c r="M514" t="inlineStr">
+        <is>
+          <t>-34.99653989620648,173.7151444716539</t>
+        </is>
+      </c>
+      <c r="N514" t="inlineStr">
+        <is>
+          <t>-34.997012107643386,173.715852724197</t>
+        </is>
+      </c>
+      <c r="O514" t="inlineStr">
+        <is>
+          <t>-34.99734289786239,173.7166671386966</t>
+        </is>
+      </c>
+      <c r="P514" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>-34.98992249561369,173.7095241993846</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>-34.99068186993704,173.7094690883483</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>-34.99144443277502,173.70968787395935</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>-34.99219408671395,173.71008561260393</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>-34.99286739015122,173.71059053301315</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>-34.993494150002874,173.71107620066877</t>
+        </is>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>-34.994046265899115,173.711725384434</t>
+        </is>
+      </c>
+      <c r="I515" t="inlineStr">
+        <is>
+          <t>-34.994537310852294,173.71243327524675</t>
+        </is>
+      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
+      <c r="L515" t="inlineStr"/>
+      <c r="M515" t="inlineStr"/>
+      <c r="N515" t="inlineStr">
+        <is>
+          <t>-34.997060666575564,173.71581606187027</t>
+        </is>
+      </c>
+      <c r="O515" t="inlineStr">
+        <is>
+          <t>-34.99740591917422,173.7166214159574</t>
+        </is>
+      </c>
+      <c r="P515" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>-34.989916527665784,173.70972862198946</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>-34.99066597989595,173.70970704483528</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>-34.99141404595201,173.70987714902543</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>-34.99215002332145,173.7101953370836</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>-34.99283246940838,173.71064653772476</t>
+        </is>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>-34.99342850017924,173.71117937745785</t>
+        </is>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>-34.993983472147605,173.711807835691</t>
+        </is>
+      </c>
+      <c r="I516" t="inlineStr">
+        <is>
+          <t>-34.994521381663596,173.71245128163028</t>
+        </is>
+      </c>
+      <c r="J516" t="inlineStr">
+        <is>
+          <t>-34.99498854611113,173.71314219081273</t>
+        </is>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>-34.99552162122497,173.71376852983303</t>
+        </is>
+      </c>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>-34.996013157333586,173.71446742378612</t>
+        </is>
+      </c>
+      <c r="M516" t="inlineStr">
+        <is>
+          <t>-34.9965570130281,173.7151310329809</t>
+        </is>
+      </c>
+      <c r="N516" t="inlineStr">
+        <is>
+          <t>-34.99703846601959,173.7158328234486</t>
+        </is>
+      </c>
+      <c r="O516" t="inlineStr">
+        <is>
+          <t>-34.99731643067599,173.71668634094243</t>
+        </is>
+      </c>
+      <c r="P516" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0043/nzd0043.xlsx
+++ b/data/nzd0043/nzd0043.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P516"/>
+  <dimension ref="A1:P518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25810,6 +25810,114 @@
         </is>
       </c>
     </row>
+    <row r="517">
+      <c r="A517" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>328.84</v>
+      </c>
+      <c r="C517" t="n">
+        <v>326.58</v>
+      </c>
+      <c r="D517" t="n">
+        <v>333.72</v>
+      </c>
+      <c r="E517" t="n">
+        <v>344.6354545454545</v>
+      </c>
+      <c r="F517" t="n">
+        <v>332.4454545454545</v>
+      </c>
+      <c r="G517" t="n">
+        <v>319.9454545454545</v>
+      </c>
+      <c r="H517" t="n">
+        <v>324.7754545454546</v>
+      </c>
+      <c r="I517" t="n">
+        <v>326.3754545454545</v>
+      </c>
+      <c r="J517" t="n">
+        <v>329</v>
+      </c>
+      <c r="K517" t="n">
+        <v>327.49</v>
+      </c>
+      <c r="L517" t="n">
+        <v>337.95</v>
+      </c>
+      <c r="M517" t="n">
+        <v>324.84</v>
+      </c>
+      <c r="N517" t="n">
+        <v>313.41</v>
+      </c>
+      <c r="O517" t="n">
+        <v>318.2</v>
+      </c>
+      <c r="P517" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>348.8055555555555</v>
+      </c>
+      <c r="C518" t="n">
+        <v>345.0255555555556</v>
+      </c>
+      <c r="D518" t="n">
+        <v>357.46</v>
+      </c>
+      <c r="E518" t="n">
+        <v>361.55</v>
+      </c>
+      <c r="F518" t="n">
+        <v>351.45</v>
+      </c>
+      <c r="G518" t="n">
+        <v>332.89</v>
+      </c>
+      <c r="H518" t="n">
+        <v>344.19</v>
+      </c>
+      <c r="I518" t="n">
+        <v>340.51</v>
+      </c>
+      <c r="J518" t="n">
+        <v>348.3</v>
+      </c>
+      <c r="K518" t="n">
+        <v>348.44</v>
+      </c>
+      <c r="L518" t="n">
+        <v>352.7</v>
+      </c>
+      <c r="M518" t="n">
+        <v>348.25</v>
+      </c>
+      <c r="N518" t="n">
+        <v>322.6428571428572</v>
+      </c>
+      <c r="O518" t="n">
+        <v>331.3228571428572</v>
+      </c>
+      <c r="P518" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25821,7 +25929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B523"/>
+  <dimension ref="A1:B525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31059,6 +31167,26 @@
       </c>
       <c r="B523" t="n">
         <v>0.25</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>
@@ -32305,7 +32433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P516"/>
+  <dimension ref="A1:P518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69589,6 +69717,170 @@
         </is>
       </c>
     </row>
+    <row r="517">
+      <c r="A517" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>-34.98991949925098,173.70962683652124</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>-34.9906710670286,173.7096308647939</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>-34.99142276492841,173.7098228400014</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>-34.992155005937285,173.71018292963842</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>-34.99283775158079,173.71063806636016</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>-34.99349711334353,173.7110715434066</t>
+        </is>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>-34.994072523670674,173.711690906641</t>
+        </is>
+      </c>
+      <c r="I517" t="inlineStr">
+        <is>
+          <t>-34.99458152724135,173.7123832929089</t>
+        </is>
+      </c>
+      <c r="J517" t="inlineStr">
+        <is>
+          <t>-34.99506624933626,173.7130516318358</t>
+        </is>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>-34.99559690513908,173.71368347502127</t>
+        </is>
+      </c>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>-34.99602904984006,173.71445281413855</t>
+        </is>
+      </c>
+      <c r="M517" t="inlineStr">
+        <is>
+          <t>-34.99653966899202,173.71514465004333</t>
+        </is>
+      </c>
+      <c r="N517" t="inlineStr">
+        <is>
+          <t>-34.99703220741001,173.7158375487416</t>
+        </is>
+      </c>
+      <c r="O517" t="inlineStr">
+        <is>
+          <t>-34.997378467632615,173.71664133239955</t>
+        </is>
+      </c>
+      <c r="P517" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>-34.98991311659576,173.70984545748553</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>-34.990657614951495,173.70983230868157</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>-34.9913817768964,173.7100781460818</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>-34.9920881179898,173.71034949006372</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>-34.992734261489574,173.71080403980332</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>-34.99342571734283,173.71118375102162</t>
+        </is>
+      </c>
+      <c r="H518" t="inlineStr">
+        <is>
+          <t>-34.99395361753566,173.7118470361823</t>
+        </is>
+      </c>
+      <c r="I518" t="inlineStr">
+        <is>
+          <t>-34.9944882088496,173.712488780207</t>
+        </is>
+      </c>
+      <c r="J518" t="inlineStr">
+        <is>
+          <t>-34.9949406486126,173.71319801267643</t>
+        </is>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>-34.99545855439213,173.71383978177047</t>
+        </is>
+      </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>-34.9959229799111,173.71455032186088</t>
+        </is>
+      </c>
+      <c r="M518" t="inlineStr">
+        <is>
+          <t>-34.99636236589917,173.71528385296097</t>
+        </is>
+      </c>
+      <c r="N518" t="inlineStr">
+        <is>
+          <t>-34.99696149167403,173.71589093954634</t>
+        </is>
+      </c>
+      <c r="O518" t="inlineStr">
+        <is>
+          <t>-34.99727686814395,173.716715043984</t>
+        </is>
+      </c>
+      <c r="P518" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0043/nzd0043.xlsx
+++ b/data/nzd0043/nzd0043.xlsx
@@ -31360,28 +31360,28 @@
         <v>0.0469</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.001973556692663785</v>
+        <v>-0.008119865679703844</v>
       </c>
       <c r="J2" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K2" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L2" t="n">
-        <v>2.247530434207334e-06</v>
+        <v>3.813032048050058e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>8.129555175862087</v>
+        <v>8.135088713638051</v>
       </c>
       <c r="N2" t="n">
-        <v>108.4530579558532</v>
+        <v>108.6727325491403</v>
       </c>
       <c r="O2" t="n">
-        <v>10.4140797940026</v>
+        <v>10.42462145831398</v>
       </c>
       <c r="P2" t="n">
-        <v>346.3370986603543</v>
+        <v>346.3953492374605</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31438,28 +31438,28 @@
         <v>0.0504</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02558694426441108</v>
+        <v>0.02155596907454299</v>
       </c>
       <c r="J3" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K3" t="n">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0004505422797939085</v>
+        <v>0.0003208408634517435</v>
       </c>
       <c r="M3" t="n">
-        <v>7.295386084203316</v>
+        <v>7.304113080326059</v>
       </c>
       <c r="N3" t="n">
-        <v>88.56759141155855</v>
+        <v>88.66166381516118</v>
       </c>
       <c r="O3" t="n">
-        <v>9.411035618440648</v>
+        <v>9.416032275601076</v>
       </c>
       <c r="P3" t="n">
-        <v>340.0199708927501</v>
+        <v>340.0589599916143</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31516,28 +31516,28 @@
         <v>0.0417</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1175228824548635</v>
+        <v>0.1141923309370972</v>
       </c>
       <c r="J4" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K4" t="n">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008832718454115152</v>
+        <v>0.008352329617529297</v>
       </c>
       <c r="M4" t="n">
-        <v>7.789194502890854</v>
+        <v>7.808080035038593</v>
       </c>
       <c r="N4" t="n">
-        <v>93.85670087876657</v>
+        <v>94.1483495196437</v>
       </c>
       <c r="O4" t="n">
-        <v>9.687966808302276</v>
+        <v>9.703007241038405</v>
       </c>
       <c r="P4" t="n">
-        <v>346.6508710763395</v>
+        <v>346.6832328463365</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31594,28 +31594,28 @@
         <v>0.0614</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2263692489756441</v>
+        <v>0.2225876273163704</v>
       </c>
       <c r="J5" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K5" t="n">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03348926159221333</v>
+        <v>0.03254079940006904</v>
       </c>
       <c r="M5" t="n">
-        <v>7.306126740599137</v>
+        <v>7.311200184033143</v>
       </c>
       <c r="N5" t="n">
-        <v>89.2650213815661</v>
+        <v>89.2837894743719</v>
       </c>
       <c r="O5" t="n">
-        <v>9.448016796215283</v>
+        <v>9.449009973239097</v>
       </c>
       <c r="P5" t="n">
-        <v>351.8882930527093</v>
+        <v>351.92511848251</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31672,28 +31672,28 @@
         <v>0.0626</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2858428178652287</v>
+        <v>0.2804376381858237</v>
       </c>
       <c r="J6" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K6" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04953997320366765</v>
+        <v>0.04787549790806633</v>
       </c>
       <c r="M6" t="n">
-        <v>7.523761840606682</v>
+        <v>7.532584679852623</v>
       </c>
       <c r="N6" t="n">
-        <v>95.01316698798981</v>
+        <v>95.19377611072365</v>
       </c>
       <c r="O6" t="n">
-        <v>9.747469773638173</v>
+        <v>9.756729785677352</v>
       </c>
       <c r="P6" t="n">
-        <v>341.1569255132116</v>
+        <v>341.2095534408326</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31750,28 +31750,28 @@
         <v>0.0576</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3369580254639134</v>
+        <v>0.3183747896343602</v>
       </c>
       <c r="J7" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K7" t="n">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06344919249712444</v>
+        <v>0.05615511578655186</v>
       </c>
       <c r="M7" t="n">
-        <v>7.879598869959302</v>
+        <v>7.95154478998758</v>
       </c>
       <c r="N7" t="n">
-        <v>101.4799940491588</v>
+        <v>103.5856021273634</v>
       </c>
       <c r="O7" t="n">
-        <v>10.07372791220603</v>
+        <v>10.1777012201854</v>
       </c>
       <c r="P7" t="n">
-        <v>340.3962709171507</v>
+        <v>340.5779365852123</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31828,28 +31828,28 @@
         <v>0.0581</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2989226840453653</v>
+        <v>0.2831333755586028</v>
       </c>
       <c r="J8" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K8" t="n">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04424824994903709</v>
+        <v>0.03952845166944052</v>
       </c>
       <c r="M8" t="n">
-        <v>8.340794407681235</v>
+        <v>8.392932797939066</v>
       </c>
       <c r="N8" t="n">
-        <v>117.5570085486318</v>
+        <v>119.1460102871448</v>
       </c>
       <c r="O8" t="n">
-        <v>10.84237098372085</v>
+        <v>10.91540243358644</v>
       </c>
       <c r="P8" t="n">
-        <v>345.8204397798737</v>
+        <v>345.9736231052624</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31906,28 +31906,28 @@
         <v>0.0577</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3339345617816127</v>
+        <v>0.3193415850845853</v>
       </c>
       <c r="J9" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K9" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05325211420669851</v>
+        <v>0.04869788846681988</v>
       </c>
       <c r="M9" t="n">
-        <v>8.629843554793263</v>
+        <v>8.678885407072155</v>
       </c>
       <c r="N9" t="n">
-        <v>120.7631241155722</v>
+        <v>121.8679661007333</v>
       </c>
       <c r="O9" t="n">
-        <v>10.98922763962837</v>
+        <v>11.03938250540913</v>
       </c>
       <c r="P9" t="n">
-        <v>342.2842043266735</v>
+        <v>342.4257570483677</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31984,28 +31984,28 @@
         <v>0.0549</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4108998039326755</v>
+        <v>0.3994206769748235</v>
       </c>
       <c r="J10" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K10" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07528161028928437</v>
+        <v>0.07131996862468981</v>
       </c>
       <c r="M10" t="n">
-        <v>8.955570996786921</v>
+        <v>8.981363621638565</v>
       </c>
       <c r="N10" t="n">
-        <v>125.1250848272087</v>
+        <v>125.864225132375</v>
       </c>
       <c r="O10" t="n">
-        <v>11.18593245229063</v>
+        <v>11.21892263688341</v>
       </c>
       <c r="P10" t="n">
-        <v>341.7552985197186</v>
+        <v>341.8676318380286</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32062,28 +32062,28 @@
         <v>0.0553</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4700830881593065</v>
+        <v>0.4528474404377392</v>
       </c>
       <c r="J11" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K11" t="n">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L11" t="n">
-        <v>0.09264825974800794</v>
+        <v>0.08573572403352092</v>
       </c>
       <c r="M11" t="n">
-        <v>9.012028200025508</v>
+        <v>9.072264245944785</v>
       </c>
       <c r="N11" t="n">
-        <v>129.1342238367149</v>
+        <v>131.0424426921631</v>
       </c>
       <c r="O11" t="n">
-        <v>11.36372403029548</v>
+        <v>11.44737710972095</v>
       </c>
       <c r="P11" t="n">
-        <v>346.616587825951</v>
+        <v>346.786318640641</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32140,28 +32140,28 @@
         <v>0.0538</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5143595628554369</v>
+        <v>0.5002811668770039</v>
       </c>
       <c r="J12" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K12" t="n">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L12" t="n">
-        <v>0.09975249321268187</v>
+        <v>0.09468351142103648</v>
       </c>
       <c r="M12" t="n">
-        <v>9.570264381012555</v>
+        <v>9.607183411688609</v>
       </c>
       <c r="N12" t="n">
-        <v>141.28085245331</v>
+        <v>142.2023639307216</v>
       </c>
       <c r="O12" t="n">
-        <v>11.88616222560125</v>
+        <v>11.9248632667516</v>
       </c>
       <c r="P12" t="n">
-        <v>348.9184100048554</v>
+        <v>349.0580477245493</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -32218,28 +32218,28 @@
         <v>0.0456</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5202956345764164</v>
+        <v>0.5077576543388852</v>
       </c>
       <c r="J13" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K13" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0662722814498572</v>
+        <v>0.0634260509040413</v>
       </c>
       <c r="M13" t="n">
-        <v>12.11749263263397</v>
+        <v>12.131506312499</v>
       </c>
       <c r="N13" t="n">
-        <v>224.8076074944217</v>
+        <v>225.3930423794979</v>
       </c>
       <c r="O13" t="n">
-        <v>14.99358554497295</v>
+        <v>15.01309569607474</v>
       </c>
       <c r="P13" t="n">
-        <v>337.5560751033217</v>
+        <v>337.6805690598478</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -32296,28 +32296,28 @@
         <v>0.0416</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3997384527609187</v>
+        <v>0.3842377832415326</v>
       </c>
       <c r="J14" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K14" t="n">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02671016084606748</v>
+        <v>0.02483668501681169</v>
       </c>
       <c r="M14" t="n">
-        <v>15.09518423979574</v>
+        <v>15.10711790219343</v>
       </c>
       <c r="N14" t="n">
-        <v>345.7480708699738</v>
+        <v>345.7224352850415</v>
       </c>
       <c r="O14" t="n">
-        <v>18.59430210763431</v>
+        <v>18.59361275505762</v>
       </c>
       <c r="P14" t="n">
-        <v>325.5681217148999</v>
+        <v>325.7217092230283</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -32374,28 +32374,28 @@
         <v>0.0356</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2570109261611948</v>
+        <v>0.2431596730505257</v>
       </c>
       <c r="J15" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K15" t="n">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02538045200609318</v>
+        <v>0.0227677410929138</v>
       </c>
       <c r="M15" t="n">
-        <v>9.854989450536943</v>
+        <v>9.874886779689133</v>
       </c>
       <c r="N15" t="n">
-        <v>151.784067125706</v>
+        <v>152.5185135865951</v>
       </c>
       <c r="O15" t="n">
-        <v>12.3200676591367</v>
+        <v>12.34983860569016</v>
       </c>
       <c r="P15" t="n">
-        <v>334.3275844561084</v>
+        <v>334.4640720673391</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">

--- a/data/nzd0043/nzd0043.xlsx
+++ b/data/nzd0043/nzd0043.xlsx
@@ -31351,13 +31351,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0397</v>
+        <v>0.0496</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0469</v>
+        <v>0.0636</v>
       </c>
       <c r="I2" t="n">
         <v>-0.008158657322595774</v>
@@ -31429,13 +31429,13 @@
         <v>0.0770227618248259</v>
       </c>
       <c r="F3" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0444</v>
+        <v>0.0539</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0504</v>
+        <v>0.0633</v>
       </c>
       <c r="I3" t="n">
         <v>0.02151723001426563</v>
@@ -31507,13 +31507,13 @@
         <v>0.1536720880208823</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0393</v>
+        <v>0.0537</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0417</v>
+        <v>0.0606</v>
       </c>
       <c r="I4" t="n">
         <v>0.1141923309370972</v>
@@ -31585,13 +31585,13 @@
         <v>0.2303008987125895</v>
       </c>
       <c r="F5" t="n">
-        <v>0.055</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0529</v>
+        <v>0.0626</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0614</v>
+        <v>0.0785</v>
       </c>
       <c r="I5" t="n">
         <v>0.222596043227028</v>
@@ -31663,13 +31663,13 @@
         <v>0.3073236605362966</v>
       </c>
       <c r="F6" t="n">
-        <v>0.055</v>
+        <v>0.075</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0532</v>
+        <v>0.06510000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0626</v>
+        <v>0.08840000000000001</v>
       </c>
       <c r="I6" t="n">
         <v>0.2804487715239264</v>
@@ -31741,13 +31741,13 @@
         <v>0.3843464223611543</v>
       </c>
       <c r="F7" t="n">
-        <v>0.055</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0496</v>
+        <v>0.0636</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0576</v>
+        <v>0.082</v>
       </c>
       <c r="I7" t="n">
         <v>0.3183803308010035</v>
@@ -31819,13 +31819,13 @@
         <v>0.4612504280650961</v>
       </c>
       <c r="F8" t="n">
-        <v>0.055</v>
+        <v>0.075</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05</v>
+        <v>0.0668</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0581</v>
+        <v>0.09229999999999999</v>
       </c>
       <c r="I8" t="n">
         <v>0.2831492326237665</v>
@@ -31897,13 +31897,13 @@
         <v>0.5382731898897214</v>
       </c>
       <c r="F9" t="n">
-        <v>0.055</v>
+        <v>0.08</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0491</v>
+        <v>0.0696</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0577</v>
+        <v>0.0948</v>
       </c>
       <c r="I9" t="n">
         <v>0.3193596939204457</v>
@@ -31975,13 +31975,13 @@
         <v>0.6152892390885888</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0478</v>
+        <v>0.0668</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0549</v>
+        <v>0.08740000000000001</v>
       </c>
       <c r="I10" t="n">
         <v>0.3994206769748235</v>
@@ -32053,13 +32053,13 @@
         <v>0.6923120009133068</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>0.048</v>
+        <v>0.0631</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0553</v>
+        <v>0.0775</v>
       </c>
       <c r="I11" t="n">
         <v>0.4528474404377394</v>
@@ -32131,13 +32131,13 @@
         <v>0.7690265391127796</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0472</v>
+        <v>0.0568</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0538</v>
+        <v>0.06909999999999999</v>
       </c>
       <c r="I12" t="n">
         <v>0.5002811668770042</v>
@@ -32209,13 +32209,13 @@
         <v>0.8460493009371227</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0381</v>
+        <v>0.0496</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0456</v>
+        <v>0.0613</v>
       </c>
       <c r="I13" t="n">
         <v>0.5077576543388852</v>
@@ -32287,13 +32287,13 @@
         <v>0.9230720627616616</v>
       </c>
       <c r="F14" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0341</v>
+        <v>0.0388</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0416</v>
+        <v>0.0466</v>
       </c>
       <c r="I14" t="n">
         <v>0.3842327643691945</v>
@@ -32365,13 +32365,13 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0299</v>
+        <v>0.0433</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0356</v>
+        <v>0.0582</v>
       </c>
       <c r="I15" t="n">
         <v>0.2431481791659179</v>

--- a/data/nzd0043/nzd0043.xlsx
+++ b/data/nzd0043/nzd0043.xlsx
@@ -543,7 +543,7 @@
         <v>335.19</v>
       </c>
       <c r="H2" t="n">
-        <v>340.06</v>
+        <v>339.87</v>
       </c>
       <c r="I2" t="n">
         <v>331.3</v>
@@ -597,7 +597,7 @@
         <v>337.89</v>
       </c>
       <c r="H3" t="n">
-        <v>339.63</v>
+        <v>339.5</v>
       </c>
       <c r="I3" t="n">
         <v>335.81</v>
@@ -651,7 +651,7 @@
         <v>338.7</v>
       </c>
       <c r="H4" t="n">
-        <v>343.37</v>
+        <v>342.54</v>
       </c>
       <c r="I4" t="n">
         <v>338.96</v>
@@ -705,7 +705,7 @@
         <v>335.23</v>
       </c>
       <c r="H5" t="n">
-        <v>342</v>
+        <v>341.75</v>
       </c>
       <c r="I5" t="n">
         <v>334.96</v>
@@ -759,7 +759,7 @@
         <v>343.82</v>
       </c>
       <c r="H6" t="n">
-        <v>350.66</v>
+        <v>349.91</v>
       </c>
       <c r="I6" t="n">
         <v>347.42</v>
@@ -813,7 +813,7 @@
         <v>352.7</v>
       </c>
       <c r="H7" t="n">
-        <v>360.34</v>
+        <v>360.89</v>
       </c>
       <c r="I7" t="n">
         <v>351.88</v>
@@ -863,7 +863,7 @@
         <v>353.66</v>
       </c>
       <c r="H8" t="n">
-        <v>361.33</v>
+        <v>361.82</v>
       </c>
       <c r="I8" t="n">
         <v>356.81</v>
@@ -917,7 +917,7 @@
         <v>340.39</v>
       </c>
       <c r="H9" t="n">
-        <v>343.83</v>
+        <v>343.69</v>
       </c>
       <c r="I9" t="n">
         <v>343.25</v>
@@ -971,7 +971,7 @@
         <v>317.13</v>
       </c>
       <c r="H10" t="n">
-        <v>321.66</v>
+        <v>322.29</v>
       </c>
       <c r="I10" t="n">
         <v>316.86</v>
@@ -1021,7 +1021,7 @@
         <v>340.66</v>
       </c>
       <c r="H11" t="n">
-        <v>339.2</v>
+        <v>338.43</v>
       </c>
       <c r="I11" t="n">
         <v>333.27</v>
@@ -1075,7 +1075,7 @@
         <v>330.8</v>
       </c>
       <c r="H12" t="n">
-        <v>330.04</v>
+        <v>330.36</v>
       </c>
       <c r="I12" t="n">
         <v>323.56</v>
@@ -1129,7 +1129,7 @@
         <v>328.74</v>
       </c>
       <c r="H13" t="n">
-        <v>330.1</v>
+        <v>329.52</v>
       </c>
       <c r="I13" t="n">
         <v>323.51</v>
@@ -1183,7 +1183,7 @@
         <v>320.93</v>
       </c>
       <c r="H14" t="n">
-        <v>322.42</v>
+        <v>322.26</v>
       </c>
       <c r="I14" t="n">
         <v>318.88</v>
@@ -1237,7 +1237,7 @@
         <v>325.07</v>
       </c>
       <c r="H15" t="n">
-        <v>335.12</v>
+        <v>335.62</v>
       </c>
       <c r="I15" t="n">
         <v>340.13</v>
@@ -1291,7 +1291,7 @@
         <v>344.16</v>
       </c>
       <c r="H16" t="n">
-        <v>353.58</v>
+        <v>353.81</v>
       </c>
       <c r="I16" t="n">
         <v>347.55</v>
@@ -1345,7 +1345,7 @@
         <v>329.8</v>
       </c>
       <c r="H17" t="n">
-        <v>330.17</v>
+        <v>329.79</v>
       </c>
       <c r="I17" t="n">
         <v>330.41</v>
@@ -1399,7 +1399,7 @@
         <v>350.23</v>
       </c>
       <c r="H18" t="n">
-        <v>356.93</v>
+        <v>357.38</v>
       </c>
       <c r="I18" t="n">
         <v>345.6</v>
@@ -1453,7 +1453,7 @@
         <v>349.01</v>
       </c>
       <c r="H19" t="n">
-        <v>347.7</v>
+        <v>347.65</v>
       </c>
       <c r="I19" t="n">
         <v>342.42</v>
@@ -1495,7 +1495,7 @@
         <v>343.44</v>
       </c>
       <c r="H20" t="n">
-        <v>345.65</v>
+        <v>346.07</v>
       </c>
       <c r="I20" t="n">
         <v>345.15</v>
@@ -1549,7 +1549,7 @@
         <v>331.78</v>
       </c>
       <c r="H21" t="n">
-        <v>340.25</v>
+        <v>340.97</v>
       </c>
       <c r="I21" t="n">
         <v>334.78</v>
@@ -1603,7 +1603,7 @@
         <v>324.79</v>
       </c>
       <c r="H22" t="n">
-        <v>326.39</v>
+        <v>326.64</v>
       </c>
       <c r="I22" t="n">
         <v>322.89</v>
@@ -1651,7 +1651,7 @@
         <v>329.81</v>
       </c>
       <c r="H23" t="n">
-        <v>329.11</v>
+        <v>328.56</v>
       </c>
       <c r="I23" t="n">
         <v>328.98</v>
@@ -1705,7 +1705,7 @@
         <v>327.01</v>
       </c>
       <c r="H24" t="n">
-        <v>336.26</v>
+        <v>335.95</v>
       </c>
       <c r="I24" t="n">
         <v>329.19</v>
@@ -1753,7 +1753,7 @@
         <v>337.46</v>
       </c>
       <c r="H25" t="n">
-        <v>342.17</v>
+        <v>341.44</v>
       </c>
       <c r="I25" t="n">
         <v>332.66</v>
@@ -1807,7 +1807,7 @@
         <v>318.85</v>
       </c>
       <c r="H26" t="n">
-        <v>325.88</v>
+        <v>326.2</v>
       </c>
       <c r="I26" t="n">
         <v>326.39</v>
@@ -1861,7 +1861,7 @@
         <v>330.64</v>
       </c>
       <c r="H27" t="n">
-        <v>337.32</v>
+        <v>337.45</v>
       </c>
       <c r="I27" t="n">
         <v>334.42</v>
@@ -1915,7 +1915,7 @@
         <v>352.03</v>
       </c>
       <c r="H28" t="n">
-        <v>360.88</v>
+        <v>361.1</v>
       </c>
       <c r="I28" t="n">
         <v>356.32</v>
@@ -1969,7 +1969,7 @@
         <v>335.62</v>
       </c>
       <c r="H29" t="n">
-        <v>337.09</v>
+        <v>336.34</v>
       </c>
       <c r="I29" t="n">
         <v>335.08</v>
@@ -2023,7 +2023,7 @@
         <v>345.82</v>
       </c>
       <c r="H30" t="n">
-        <v>356.35</v>
+        <v>356.77</v>
       </c>
       <c r="I30" t="n">
         <v>354.1</v>
@@ -2077,7 +2077,7 @@
         <v>334.18</v>
       </c>
       <c r="H31" t="n">
-        <v>338.54</v>
+        <v>338.47</v>
       </c>
       <c r="I31" t="n">
         <v>330.87</v>
@@ -2131,7 +2131,7 @@
         <v>335.95</v>
       </c>
       <c r="H32" t="n">
-        <v>339.04</v>
+        <v>338.67</v>
       </c>
       <c r="I32" t="n">
         <v>328.17</v>
@@ -2179,7 +2179,7 @@
         <v>339.47</v>
       </c>
       <c r="H33" t="n">
-        <v>339.75</v>
+        <v>338.98</v>
       </c>
       <c r="I33" t="n">
         <v>335.99</v>
@@ -2233,7 +2233,7 @@
         <v>340.53</v>
       </c>
       <c r="H34" t="n">
-        <v>352.63</v>
+        <v>352.18</v>
       </c>
       <c r="I34" t="n">
         <v>345.09</v>
@@ -2287,7 +2287,7 @@
         <v>323.37</v>
       </c>
       <c r="H35" t="n">
-        <v>333.24</v>
+        <v>333.79</v>
       </c>
       <c r="I35" t="n">
         <v>339.11</v>
@@ -2341,7 +2341,7 @@
         <v>345.55</v>
       </c>
       <c r="H36" t="n">
-        <v>349.21</v>
+        <v>349.24</v>
       </c>
       <c r="I36" t="n">
         <v>344.98</v>
@@ -2395,7 +2395,7 @@
         <v>343.61</v>
       </c>
       <c r="H37" t="n">
-        <v>348.85</v>
+        <v>349.22</v>
       </c>
       <c r="I37" t="n">
         <v>352.3</v>
@@ -2447,7 +2447,7 @@
         <v>341.67</v>
       </c>
       <c r="H38" t="n">
-        <v>349.35</v>
+        <v>349.27</v>
       </c>
       <c r="I38" t="n">
         <v>345.21</v>
@@ -2497,7 +2497,7 @@
         <v>340.85</v>
       </c>
       <c r="H39" t="n">
-        <v>343.8</v>
+        <v>344.23</v>
       </c>
       <c r="I39" t="n">
         <v>344.93</v>
@@ -2587,7 +2587,7 @@
         <v>336.14</v>
       </c>
       <c r="H41" t="n">
-        <v>341.72</v>
+        <v>341.6</v>
       </c>
       <c r="I41" t="n">
         <v>339.07</v>
@@ -2641,7 +2641,7 @@
         <v>332.57</v>
       </c>
       <c r="H42" t="n">
-        <v>336.04</v>
+        <v>335.99</v>
       </c>
       <c r="I42" t="n">
         <v>334.82</v>
@@ -2695,7 +2695,7 @@
         <v>328.08</v>
       </c>
       <c r="H43" t="n">
-        <v>334.44</v>
+        <v>334.92</v>
       </c>
       <c r="I43" t="n">
         <v>343.5</v>
@@ -2749,7 +2749,7 @@
         <v>333</v>
       </c>
       <c r="H44" t="n">
-        <v>341.75</v>
+        <v>341.68</v>
       </c>
       <c r="I44" t="n">
         <v>337.49</v>
@@ -2803,7 +2803,7 @@
         <v>357.72</v>
       </c>
       <c r="H45" t="n">
-        <v>361.24</v>
+        <v>360.51</v>
       </c>
       <c r="I45" t="n">
         <v>353.61</v>
@@ -2857,7 +2857,7 @@
         <v>353.02</v>
       </c>
       <c r="H46" t="n">
-        <v>355.16</v>
+        <v>355.83</v>
       </c>
       <c r="I46" t="n">
         <v>351.5</v>
@@ -2911,7 +2911,7 @@
         <v>332.62</v>
       </c>
       <c r="H47" t="n">
-        <v>332.66</v>
+        <v>333.03</v>
       </c>
       <c r="I47" t="n">
         <v>332.15</v>
@@ -2993,7 +2993,7 @@
         <v>355.02</v>
       </c>
       <c r="H49" t="n">
-        <v>360.61</v>
+        <v>360.56</v>
       </c>
       <c r="I49" t="n">
         <v>358.98</v>
@@ -3047,7 +3047,7 @@
         <v>351.75</v>
       </c>
       <c r="H50" t="n">
-        <v>362.52</v>
+        <v>363.1</v>
       </c>
       <c r="I50" t="n">
         <v>362.14</v>
@@ -3087,7 +3087,7 @@
         <v>350.84</v>
       </c>
       <c r="H51" t="n">
-        <v>357.66</v>
+        <v>358</v>
       </c>
       <c r="I51" t="n">
         <v>357.06</v>
@@ -3135,7 +3135,7 @@
         <v>346.11</v>
       </c>
       <c r="H52" t="n">
-        <v>352.27</v>
+        <v>351.43</v>
       </c>
       <c r="I52" t="n">
         <v>347.07</v>
@@ -3189,7 +3189,7 @@
         <v>350.36</v>
       </c>
       <c r="H53" t="n">
-        <v>355.28</v>
+        <v>355.35</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>341.72</v>
+        <v>341.82</v>
       </c>
       <c r="I54" t="n">
         <v>340.62</v>
@@ -3265,7 +3265,7 @@
         <v>348.75</v>
       </c>
       <c r="H55" t="n">
-        <v>352.9</v>
+        <v>352.93</v>
       </c>
       <c r="I55" t="n">
         <v>350.26</v>
@@ -3319,7 +3319,7 @@
         <v>343.59</v>
       </c>
       <c r="H56" t="n">
-        <v>342.08</v>
+        <v>341.7</v>
       </c>
       <c r="I56" t="n">
         <v>348.27</v>
@@ -3411,7 +3411,7 @@
         <v>361.93</v>
       </c>
       <c r="H58" t="n">
-        <v>370.18</v>
+        <v>370.78</v>
       </c>
       <c r="I58" t="n">
         <v>360.69</v>
@@ -3459,7 +3459,7 @@
         <v>340.66</v>
       </c>
       <c r="H59" t="n">
-        <v>343.8</v>
+        <v>343.25</v>
       </c>
       <c r="I59" t="n">
         <v>348.39</v>
@@ -3507,7 +3507,7 @@
         <v>345.31</v>
       </c>
       <c r="H60" t="n">
-        <v>351.59</v>
+        <v>351.19</v>
       </c>
       <c r="I60" t="n">
         <v>345.94</v>
@@ -3547,7 +3547,7 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
-        <v>338.08</v>
+        <v>338.7</v>
       </c>
       <c r="I61" t="n">
         <v>334.27</v>
@@ -3601,7 +3601,7 @@
         <v>343.14</v>
       </c>
       <c r="H62" t="n">
-        <v>349.89</v>
+        <v>350.08</v>
       </c>
       <c r="I62" t="n">
         <v>343.01</v>
@@ -3655,7 +3655,7 @@
         <v>347.95</v>
       </c>
       <c r="H63" t="n">
-        <v>358.62</v>
+        <v>358.48</v>
       </c>
       <c r="I63" t="n">
         <v>337.56</v>
@@ -3709,7 +3709,7 @@
         <v>340.73</v>
       </c>
       <c r="H64" t="n">
-        <v>348.32</v>
+        <v>348.15</v>
       </c>
       <c r="I64" t="n">
         <v>342.22</v>
@@ -3797,7 +3797,7 @@
         <v>348.71</v>
       </c>
       <c r="H66" t="n">
-        <v>352.87</v>
+        <v>353.32</v>
       </c>
       <c r="I66" t="n">
         <v>347.77</v>
@@ -3851,7 +3851,7 @@
         <v>349.18</v>
       </c>
       <c r="H67" t="n">
-        <v>358.18</v>
+        <v>357.98</v>
       </c>
       <c r="I67" t="n">
         <v>353.08</v>
@@ -3905,7 +3905,7 @@
         <v>357.91</v>
       </c>
       <c r="H68" t="n">
-        <v>360.08</v>
+        <v>359.2</v>
       </c>
       <c r="I68" t="n">
         <v>354.81</v>
@@ -3949,7 +3949,7 @@
         <v>347.03</v>
       </c>
       <c r="H69" t="n">
-        <v>352.59</v>
+        <v>351.63</v>
       </c>
       <c r="I69" t="n">
         <v>341.67</v>
@@ -4003,7 +4003,7 @@
         <v>350.7</v>
       </c>
       <c r="H70" t="n">
-        <v>353.52</v>
+        <v>352.79</v>
       </c>
       <c r="I70" t="n">
         <v>349.23</v>
@@ -4079,7 +4079,7 @@
         <v>349.19</v>
       </c>
       <c r="H72" t="n">
-        <v>357.23</v>
+        <v>357.2</v>
       </c>
       <c r="I72" t="n">
         <v>356.62</v>
@@ -4213,7 +4213,7 @@
         <v>357.69</v>
       </c>
       <c r="H75" t="n">
-        <v>362.63</v>
+        <v>361.81</v>
       </c>
       <c r="I75" t="n">
         <v>360.24</v>
@@ -4307,7 +4307,7 @@
         <v>361.81</v>
       </c>
       <c r="H77" t="n">
-        <v>365.12</v>
+        <v>365.57</v>
       </c>
       <c r="I77" t="n">
         <v>364.82</v>
@@ -4401,7 +4401,7 @@
         <v>354.83</v>
       </c>
       <c r="H79" t="n">
-        <v>356.14</v>
+        <v>355.49</v>
       </c>
       <c r="I79" t="n">
         <v>353.83</v>
@@ -4533,7 +4533,7 @@
         <v>351.92</v>
       </c>
       <c r="H82" t="n">
-        <v>356.49</v>
+        <v>356.63</v>
       </c>
       <c r="I82" t="n">
         <v>351.4</v>
@@ -4619,7 +4619,7 @@
         <v>359.79</v>
       </c>
       <c r="H84" t="n">
-        <v>364.27</v>
+        <v>364.21</v>
       </c>
       <c r="I84" t="n">
         <v>362.63</v>
@@ -4663,7 +4663,7 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
-        <v>379.37</v>
+        <v>379.05</v>
       </c>
       <c r="I85" t="n">
         <v>363.82</v>
@@ -4711,7 +4711,7 @@
         <v>361.52</v>
       </c>
       <c r="H86" t="n">
-        <v>367.43</v>
+        <v>368.04</v>
       </c>
       <c r="I86" t="n">
         <v>360.13</v>
@@ -4765,7 +4765,7 @@
         <v>346.76</v>
       </c>
       <c r="H87" t="n">
-        <v>348.99</v>
+        <v>348.54</v>
       </c>
       <c r="I87" t="n">
         <v>342.81</v>
@@ -4819,7 +4819,7 @@
         <v>354.03</v>
       </c>
       <c r="H88" t="n">
-        <v>358.25</v>
+        <v>357.75</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -4859,7 +4859,7 @@
         <v>342.23</v>
       </c>
       <c r="H89" t="n">
-        <v>342.4</v>
+        <v>341.89</v>
       </c>
       <c r="I89" t="n">
         <v>335.79</v>
@@ -4905,7 +4905,7 @@
         <v>347.82</v>
       </c>
       <c r="H90" t="n">
-        <v>349.46</v>
+        <v>349.09</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -4945,7 +4945,7 @@
         <v>343.98</v>
       </c>
       <c r="H91" t="n">
-        <v>345.7</v>
+        <v>345.5</v>
       </c>
       <c r="I91" t="n">
         <v>336.94</v>
@@ -4989,7 +4989,7 @@
         <v>335.41</v>
       </c>
       <c r="H92" t="n">
-        <v>337.11</v>
+        <v>337.17</v>
       </c>
       <c r="I92" t="n">
         <v>327.57</v>
@@ -5043,7 +5043,7 @@
         <v>344.18</v>
       </c>
       <c r="H93" t="n">
-        <v>346.77</v>
+        <v>346.55</v>
       </c>
       <c r="I93" t="n">
         <v>344.08</v>
@@ -5097,7 +5097,7 @@
         <v>354.17</v>
       </c>
       <c r="H94" t="n">
-        <v>354.87</v>
+        <v>354.21</v>
       </c>
       <c r="I94" t="n">
         <v>349.88</v>
@@ -5151,7 +5151,7 @@
         <v>349.79</v>
       </c>
       <c r="H95" t="n">
-        <v>350.05</v>
+        <v>350.52</v>
       </c>
       <c r="I95" t="n">
         <v>342.34</v>
@@ -5283,7 +5283,7 @@
         <v>357.7</v>
       </c>
       <c r="H98" t="n">
-        <v>361.86</v>
+        <v>361</v>
       </c>
       <c r="I98" t="n">
         <v>355.83</v>
@@ -5375,7 +5375,7 @@
         <v>336.77</v>
       </c>
       <c r="H100" t="n">
-        <v>344.17</v>
+        <v>344.39</v>
       </c>
       <c r="I100" t="n">
         <v>339.22</v>
@@ -5423,7 +5423,7 @@
         <v>343.23</v>
       </c>
       <c r="H101" t="n">
-        <v>349.74</v>
+        <v>349.76</v>
       </c>
       <c r="I101" t="n">
         <v>356.17</v>
@@ -5477,7 +5477,7 @@
         <v>336.36</v>
       </c>
       <c r="H102" t="n">
-        <v>344.45</v>
+        <v>344.05</v>
       </c>
       <c r="I102" t="n">
         <v>340.01</v>
@@ -5525,7 +5525,7 @@
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
-        <v>341.43</v>
+        <v>341.44</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -5561,7 +5561,7 @@
         <v>335.59</v>
       </c>
       <c r="H104" t="n">
-        <v>342.23</v>
+        <v>341.78</v>
       </c>
       <c r="I104" t="n">
         <v>343.92</v>
@@ -5605,7 +5605,7 @@
         <v>335.38</v>
       </c>
       <c r="H105" t="n">
-        <v>338.7</v>
+        <v>337.98</v>
       </c>
       <c r="I105" t="n">
         <v>328.9</v>
@@ -5819,7 +5819,7 @@
         <v>342.83</v>
       </c>
       <c r="H110" t="n">
-        <v>346.49</v>
+        <v>346.42</v>
       </c>
       <c r="I110" t="n">
         <v>342.05</v>
@@ -5873,7 +5873,7 @@
         <v>347.67</v>
       </c>
       <c r="H111" t="n">
-        <v>352.03</v>
+        <v>351.66</v>
       </c>
       <c r="I111" t="n">
         <v>353.21</v>
@@ -5949,7 +5949,7 @@
         <v>340.91</v>
       </c>
       <c r="H113" t="n">
-        <v>342.66</v>
+        <v>343.06</v>
       </c>
       <c r="I113" t="n">
         <v>340.18</v>
@@ -6003,7 +6003,7 @@
         <v>353.15</v>
       </c>
       <c r="H114" t="n">
-        <v>356.97</v>
+        <v>356.44</v>
       </c>
       <c r="I114" t="n">
         <v>351.49</v>
@@ -6057,7 +6057,7 @@
         <v>356.13</v>
       </c>
       <c r="H115" t="n">
-        <v>364.17</v>
+        <v>363.32</v>
       </c>
       <c r="I115" t="n">
         <v>357.06</v>
@@ -6111,7 +6111,7 @@
         <v>349.5</v>
       </c>
       <c r="H116" t="n">
-        <v>360.32</v>
+        <v>360.09</v>
       </c>
       <c r="I116" t="n">
         <v>356.92</v>
@@ -6165,7 +6165,7 @@
         <v>357.99</v>
       </c>
       <c r="H117" t="n">
-        <v>368.32</v>
+        <v>368.48</v>
       </c>
       <c r="I117" t="n">
         <v>366.29</v>
@@ -6213,7 +6213,7 @@
         <v>359.71</v>
       </c>
       <c r="H118" t="n">
-        <v>364.13</v>
+        <v>363.98</v>
       </c>
       <c r="I118" t="n">
         <v>357.81</v>
@@ -6261,7 +6261,7 @@
         <v>325.24</v>
       </c>
       <c r="H119" t="n">
-        <v>328.69</v>
+        <v>329.14</v>
       </c>
       <c r="I119" t="n">
         <v>327.24</v>
@@ -6383,7 +6383,7 @@
         <v>301.92</v>
       </c>
       <c r="H122" t="n">
-        <v>307.64</v>
+        <v>307.24</v>
       </c>
       <c r="I122" t="n">
         <v>309.81</v>
@@ -6435,7 +6435,7 @@
         <v>349.39</v>
       </c>
       <c r="H123" t="n">
-        <v>351.19</v>
+        <v>351.51</v>
       </c>
       <c r="I123" t="n">
         <v>348.88</v>
@@ -6521,7 +6521,7 @@
         <v>353.64</v>
       </c>
       <c r="H125" t="n">
-        <v>356.13</v>
+        <v>356.81</v>
       </c>
       <c r="I125" t="n">
         <v>355.25</v>
@@ -6643,7 +6643,7 @@
         <v>347.24</v>
       </c>
       <c r="H128" t="n">
-        <v>354.94</v>
+        <v>355.19</v>
       </c>
       <c r="I128" t="n">
         <v>352.2</v>
@@ -6697,7 +6697,7 @@
         <v>339.64</v>
       </c>
       <c r="H129" t="n">
-        <v>344.85</v>
+        <v>345.1</v>
       </c>
       <c r="I129" t="n">
         <v>339.54</v>
@@ -6751,7 +6751,7 @@
         <v>346.7</v>
       </c>
       <c r="H130" t="n">
-        <v>352.41</v>
+        <v>351.9</v>
       </c>
       <c r="I130" t="n">
         <v>346.98</v>
@@ -6805,7 +6805,7 @@
         <v>344.93</v>
       </c>
       <c r="H131" t="n">
-        <v>358.9</v>
+        <v>359.4</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -6845,7 +6845,7 @@
         <v>349.55</v>
       </c>
       <c r="H132" t="n">
-        <v>359.97</v>
+        <v>360.17</v>
       </c>
       <c r="I132" t="n">
         <v>345.61</v>
@@ -6899,7 +6899,7 @@
         <v>354.08</v>
       </c>
       <c r="H133" t="n">
-        <v>355.62</v>
+        <v>355.37</v>
       </c>
       <c r="I133" t="n">
         <v>350.5</v>
@@ -7023,7 +7023,7 @@
         <v>341.03</v>
       </c>
       <c r="H136" t="n">
-        <v>344.05</v>
+        <v>343.3</v>
       </c>
       <c r="I136" t="n">
         <v>339.37</v>
@@ -7073,7 +7073,7 @@
         <v>332.84</v>
       </c>
       <c r="H137" t="n">
-        <v>339.92</v>
+        <v>339.14</v>
       </c>
       <c r="I137" t="n">
         <v>333.45</v>
@@ -7203,7 +7203,7 @@
         <v>328.2</v>
       </c>
       <c r="H140" t="n">
-        <v>332.49</v>
+        <v>332.29</v>
       </c>
       <c r="I140" t="n">
         <v>330.46</v>
@@ -7257,7 +7257,7 @@
         <v>340.13</v>
       </c>
       <c r="H141" t="n">
-        <v>349.73</v>
+        <v>350.43</v>
       </c>
       <c r="I141" t="n">
         <v>354.39</v>
@@ -7301,7 +7301,7 @@
         <v>356.51</v>
       </c>
       <c r="H142" t="n">
-        <v>352.23</v>
+        <v>351.49</v>
       </c>
       <c r="I142" t="n">
         <v>353.61</v>
@@ -7417,7 +7417,7 @@
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="n">
-        <v>336.08</v>
+        <v>336.61</v>
       </c>
       <c r="I145" t="n">
         <v>331.45</v>
@@ -7461,7 +7461,7 @@
         <v>341.3</v>
       </c>
       <c r="H146" t="n">
-        <v>349.97</v>
+        <v>350.15</v>
       </c>
       <c r="I146" t="n">
         <v>343.68</v>
@@ -7553,7 +7553,7 @@
         <v>327.19</v>
       </c>
       <c r="H148" t="n">
-        <v>335.95</v>
+        <v>336.43</v>
       </c>
       <c r="I148" t="n">
         <v>333.61</v>
@@ -7603,7 +7603,7 @@
         <v>325.63</v>
       </c>
       <c r="H149" t="n">
-        <v>334.8</v>
+        <v>334.15</v>
       </c>
       <c r="I149" t="n">
         <v>328.57</v>
@@ -7651,7 +7651,7 @@
         <v>325.18</v>
       </c>
       <c r="H150" t="n">
-        <v>331.43</v>
+        <v>330.44</v>
       </c>
       <c r="I150" t="n">
         <v>322.94</v>
@@ -7703,7 +7703,7 @@
         <v>334.16</v>
       </c>
       <c r="H151" t="n">
-        <v>337.39</v>
+        <v>336.69</v>
       </c>
       <c r="I151" t="n">
         <v>335.62</v>
@@ -7751,7 +7751,7 @@
         <v>352.66</v>
       </c>
       <c r="H152" t="n">
-        <v>355.94</v>
+        <v>355.38</v>
       </c>
       <c r="I152" t="n">
         <v>352.44</v>
@@ -7805,7 +7805,7 @@
         <v>342.59</v>
       </c>
       <c r="H153" t="n">
-        <v>348.65</v>
+        <v>348.5</v>
       </c>
       <c r="I153" t="n">
         <v>347.69</v>
@@ -7855,7 +7855,7 @@
         <v>342.56</v>
       </c>
       <c r="H154" t="n">
-        <v>347.14</v>
+        <v>346.79</v>
       </c>
       <c r="I154" t="n">
         <v>346.61</v>
@@ -7903,7 +7903,7 @@
         <v>336.11</v>
       </c>
       <c r="H155" t="n">
-        <v>345.89</v>
+        <v>346.24</v>
       </c>
       <c r="I155" t="n">
         <v>338.77</v>
@@ -7947,7 +7947,7 @@
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="n">
-        <v>338.77</v>
+        <v>338.07</v>
       </c>
       <c r="I156" t="n">
         <v>337.07</v>
@@ -8077,7 +8077,7 @@
         <v>332.44</v>
       </c>
       <c r="H159" t="n">
-        <v>339.41</v>
+        <v>339.83</v>
       </c>
       <c r="I159" t="n">
         <v>336.49</v>
@@ -8131,7 +8131,7 @@
         <v>337.06</v>
       </c>
       <c r="H160" t="n">
-        <v>342.9</v>
+        <v>342.61</v>
       </c>
       <c r="I160" t="n">
         <v>339.02</v>
@@ -8213,7 +8213,7 @@
         <v>326.03</v>
       </c>
       <c r="H162" t="n">
-        <v>334.69</v>
+        <v>334.06</v>
       </c>
       <c r="I162" t="n">
         <v>332.51</v>
@@ -8365,7 +8365,7 @@
         <v>329.69</v>
       </c>
       <c r="H166" t="n">
-        <v>335.9</v>
+        <v>335.45</v>
       </c>
       <c r="I166" t="n">
         <v>328.48</v>
@@ -8419,7 +8419,7 @@
         <v>340.18</v>
       </c>
       <c r="H167" t="n">
-        <v>348.84</v>
+        <v>348.71</v>
       </c>
       <c r="I167" t="n">
         <v>345.84</v>
@@ -8473,7 +8473,7 @@
         <v>340.36</v>
       </c>
       <c r="H168" t="n">
-        <v>343.25</v>
+        <v>343.15</v>
       </c>
       <c r="I168" t="n">
         <v>340.45</v>
@@ -8557,7 +8557,7 @@
         <v>334.01</v>
       </c>
       <c r="H170" t="n">
-        <v>342.22</v>
+        <v>341.57</v>
       </c>
       <c r="I170" t="n">
         <v>338.34</v>
@@ -8609,7 +8609,7 @@
         <v>345.37</v>
       </c>
       <c r="H171" t="n">
-        <v>357.53</v>
+        <v>357.88</v>
       </c>
       <c r="I171" t="n">
         <v>352.89</v>
@@ -8729,7 +8729,7 @@
         <v>324.88</v>
       </c>
       <c r="H174" t="n">
-        <v>334.1</v>
+        <v>333.97</v>
       </c>
       <c r="I174" t="n">
         <v>331.88</v>
@@ -8777,7 +8777,7 @@
         <v>332.56</v>
       </c>
       <c r="H175" t="n">
-        <v>341.13</v>
+        <v>340.62</v>
       </c>
       <c r="I175" t="n">
         <v>339.14</v>
@@ -8827,7 +8827,7 @@
         <v>324.21</v>
       </c>
       <c r="H176" t="n">
-        <v>331.29</v>
+        <v>331.69</v>
       </c>
       <c r="I176" t="n">
         <v>335.56</v>
@@ -8915,7 +8915,7 @@
         <v>327.37</v>
       </c>
       <c r="H178" t="n">
-        <v>336.5</v>
+        <v>336.3</v>
       </c>
       <c r="I178" t="n">
         <v>331.98</v>
@@ -9005,7 +9005,7 @@
         <v>337.97</v>
       </c>
       <c r="H180" t="n">
-        <v>342.07</v>
+        <v>341.26</v>
       </c>
       <c r="I180" t="n">
         <v>341.64</v>
@@ -9039,7 +9039,7 @@
         <v>335.44</v>
       </c>
       <c r="H181" t="n">
-        <v>348.91</v>
+        <v>348.75</v>
       </c>
       <c r="I181" t="n">
         <v>348.46</v>
@@ -9093,7 +9093,7 @@
         <v>351.59</v>
       </c>
       <c r="H182" t="n">
-        <v>358.01</v>
+        <v>357.61</v>
       </c>
       <c r="I182" t="n">
         <v>362.95</v>
@@ -9147,7 +9147,7 @@
         <v>344.2</v>
       </c>
       <c r="H183" t="n">
-        <v>349.73</v>
+        <v>350.01</v>
       </c>
       <c r="I183" t="n">
         <v>356.04</v>
@@ -9197,7 +9197,7 @@
         <v>339.89</v>
       </c>
       <c r="H184" t="n">
-        <v>347.82</v>
+        <v>348.17</v>
       </c>
       <c r="I184" t="n">
         <v>348.25</v>
@@ -9241,7 +9241,7 @@
         <v>333.04</v>
       </c>
       <c r="H185" t="n">
-        <v>333.93</v>
+        <v>333.48</v>
       </c>
       <c r="I185" t="n">
         <v>332.74</v>
@@ -9291,7 +9291,7 @@
         <v>338.13</v>
       </c>
       <c r="H186" t="n">
-        <v>344.64</v>
+        <v>344.6</v>
       </c>
       <c r="I186" t="n">
         <v>346</v>
@@ -9345,7 +9345,7 @@
         <v>330.65</v>
       </c>
       <c r="H187" t="n">
-        <v>334.17</v>
+        <v>334.54</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -9385,7 +9385,7 @@
         <v>350.77</v>
       </c>
       <c r="H188" t="n">
-        <v>355.44</v>
+        <v>354.69</v>
       </c>
       <c r="I188" t="n">
         <v>352.03</v>
@@ -9621,7 +9621,7 @@
         <v>338.96</v>
       </c>
       <c r="H194" t="n">
-        <v>348.8</v>
+        <v>348.48</v>
       </c>
       <c r="I194" t="n">
         <v>345.46</v>
@@ -9675,7 +9675,7 @@
         <v>345.62</v>
       </c>
       <c r="H195" t="n">
-        <v>344.88</v>
+        <v>344.94</v>
       </c>
       <c r="I195" t="n">
         <v>342.71</v>
@@ -9767,7 +9767,7 @@
         <v>336.57</v>
       </c>
       <c r="H197" t="n">
-        <v>343.5</v>
+        <v>343.36</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -9839,7 +9839,7 @@
         <v>341.5</v>
       </c>
       <c r="H199" t="n">
-        <v>332.86</v>
+        <v>333.33</v>
       </c>
       <c r="I199" t="n">
         <v>335.11</v>
@@ -9873,7 +9873,7 @@
         <v>359.42</v>
       </c>
       <c r="H200" t="n">
-        <v>364.94</v>
+        <v>365.54</v>
       </c>
       <c r="I200" t="n">
         <v>364.94</v>
@@ -9923,7 +9923,7 @@
         <v>348.18</v>
       </c>
       <c r="H201" t="n">
-        <v>347.8</v>
+        <v>347.62</v>
       </c>
       <c r="I201" t="n">
         <v>342.5</v>
@@ -10009,7 +10009,7 @@
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr"/>
       <c r="H203" t="n">
-        <v>351.43</v>
+        <v>350.5</v>
       </c>
       <c r="I203" t="n">
         <v>336.24</v>
@@ -10099,7 +10099,7 @@
         <v>329.85</v>
       </c>
       <c r="H205" t="n">
-        <v>337.79</v>
+        <v>337.24</v>
       </c>
       <c r="I205" t="n">
         <v>335.21</v>
@@ -10143,7 +10143,7 @@
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="n">
-        <v>335.77</v>
+        <v>335.2</v>
       </c>
       <c r="I206" t="n">
         <v>329.87</v>
@@ -10351,7 +10351,7 @@
         <v>334.74</v>
       </c>
       <c r="H211" t="n">
-        <v>345.73</v>
+        <v>346.21</v>
       </c>
       <c r="I211" t="n">
         <v>344.61</v>
@@ -10401,7 +10401,7 @@
         <v>344.27</v>
       </c>
       <c r="H212" t="n">
-        <v>348.85</v>
+        <v>348.52</v>
       </c>
       <c r="I212" t="n">
         <v>344.77</v>
@@ -10449,7 +10449,7 @@
         <v>346.49</v>
       </c>
       <c r="H213" t="n">
-        <v>354.68</v>
+        <v>354.61</v>
       </c>
       <c r="I213" t="n">
         <v>351.94</v>
@@ -10501,7 +10501,7 @@
         <v>345.99</v>
       </c>
       <c r="H214" t="n">
-        <v>352.76</v>
+        <v>352.28</v>
       </c>
       <c r="I214" t="n">
         <v>350.08</v>
@@ -10551,7 +10551,7 @@
         <v>349.64</v>
       </c>
       <c r="H215" t="n">
-        <v>351.89</v>
+        <v>351.44</v>
       </c>
       <c r="I215" t="n">
         <v>376.64</v>
@@ -10595,7 +10595,7 @@
         <v>345.4</v>
       </c>
       <c r="H216" t="n">
-        <v>352.59</v>
+        <v>353.04</v>
       </c>
       <c r="I216" t="n">
         <v>350.45</v>
@@ -10639,7 +10639,7 @@
         <v>336.24</v>
       </c>
       <c r="H217" t="n">
-        <v>338.83</v>
+        <v>338.05</v>
       </c>
       <c r="I217" t="n">
         <v>337.59</v>
@@ -10689,7 +10689,7 @@
         <v>323.99</v>
       </c>
       <c r="H218" t="n">
-        <v>332.73</v>
+        <v>333.35</v>
       </c>
       <c r="I218" t="n">
         <v>331.4</v>
@@ -10733,7 +10733,7 @@
         <v>335.04</v>
       </c>
       <c r="H219" t="n">
-        <v>347.37</v>
+        <v>347.87</v>
       </c>
       <c r="I219" t="n">
         <v>343.25</v>
@@ -10781,7 +10781,7 @@
         <v>336.59</v>
       </c>
       <c r="H220" t="n">
-        <v>350.36</v>
+        <v>351.12</v>
       </c>
       <c r="I220" t="n">
         <v>345.81</v>
@@ -10835,7 +10835,7 @@
         <v>351.42</v>
       </c>
       <c r="H221" t="n">
-        <v>356.22</v>
+        <v>356.8</v>
       </c>
       <c r="I221" t="n">
         <v>354.41</v>
@@ -10889,7 +10889,7 @@
         <v>342.51</v>
       </c>
       <c r="H222" t="n">
-        <v>354.39</v>
+        <v>353.99</v>
       </c>
       <c r="I222" t="n">
         <v>348.4</v>
@@ -10943,7 +10943,7 @@
         <v>336.76</v>
       </c>
       <c r="H223" t="n">
-        <v>347.87</v>
+        <v>347.85</v>
       </c>
       <c r="I223" t="n">
         <v>348.27</v>
@@ -11075,7 +11075,7 @@
         <v>340.86</v>
       </c>
       <c r="H226" t="n">
-        <v>352.86</v>
+        <v>352.56</v>
       </c>
       <c r="I226" t="n">
         <v>349.15</v>
@@ -11121,7 +11121,7 @@
         <v>340.65</v>
       </c>
       <c r="H227" t="n">
-        <v>344.25</v>
+        <v>344.23</v>
       </c>
       <c r="I227" t="n">
         <v>343.16</v>
@@ -11173,7 +11173,7 @@
         <v>337.03</v>
       </c>
       <c r="H228" t="n">
-        <v>341.11</v>
+        <v>340.29</v>
       </c>
       <c r="I228" t="n">
         <v>340.85</v>
@@ -11221,7 +11221,7 @@
         <v>344.1</v>
       </c>
       <c r="H229" t="n">
-        <v>350.53</v>
+        <v>350.24</v>
       </c>
       <c r="I229" t="n">
         <v>349</v>
@@ -11275,7 +11275,7 @@
         <v>352.33</v>
       </c>
       <c r="H230" t="n">
-        <v>358.67</v>
+        <v>359.07</v>
       </c>
       <c r="I230" t="n">
         <v>356.55</v>
@@ -11371,7 +11371,7 @@
         <v>354.55</v>
       </c>
       <c r="H232" t="n">
-        <v>361.58</v>
+        <v>362.06</v>
       </c>
       <c r="I232" t="n">
         <v>359.48</v>
@@ -11425,7 +11425,7 @@
         <v>332.75</v>
       </c>
       <c r="H233" t="n">
-        <v>336.35</v>
+        <v>335.37</v>
       </c>
       <c r="I233" t="n">
         <v>330.83</v>
@@ -11477,7 +11477,7 @@
         <v>337.71</v>
       </c>
       <c r="H234" t="n">
-        <v>346.59</v>
+        <v>346.87</v>
       </c>
       <c r="I234" t="n">
         <v>342.61</v>
@@ -11531,7 +11531,7 @@
         <v>343.71</v>
       </c>
       <c r="H235" t="n">
-        <v>349.37</v>
+        <v>348.81</v>
       </c>
       <c r="I235" t="n">
         <v>345.94</v>
@@ -11581,7 +11581,7 @@
         <v>353.24</v>
       </c>
       <c r="H236" t="n">
-        <v>362.12</v>
+        <v>361.82</v>
       </c>
       <c r="I236" t="n">
         <v>357.71</v>
@@ -11635,7 +11635,7 @@
         <v>346.33</v>
       </c>
       <c r="H237" t="n">
-        <v>351.35</v>
+        <v>350.67</v>
       </c>
       <c r="I237" t="n">
         <v>347.9</v>
@@ -11685,7 +11685,7 @@
         <v>342.57</v>
       </c>
       <c r="H238" t="n">
-        <v>349.99</v>
+        <v>350.16</v>
       </c>
       <c r="I238" t="n">
         <v>346.81</v>
@@ -11739,7 +11739,7 @@
         <v>339.79</v>
       </c>
       <c r="H239" t="n">
-        <v>349.08</v>
+        <v>349.3</v>
       </c>
       <c r="I239" t="n">
         <v>349.53</v>
@@ -11791,7 +11791,7 @@
         <v>338.49</v>
       </c>
       <c r="H240" t="n">
-        <v>345.02</v>
+        <v>345.5</v>
       </c>
       <c r="I240" t="n">
         <v>354.08</v>
@@ -11843,7 +11843,7 @@
         <v>344.8</v>
       </c>
       <c r="H241" t="n">
-        <v>351.17</v>
+        <v>350.26</v>
       </c>
       <c r="I241" t="n">
         <v>352.56</v>
@@ -11897,7 +11897,7 @@
         <v>342.1</v>
       </c>
       <c r="H242" t="n">
-        <v>351.78</v>
+        <v>352.38</v>
       </c>
       <c r="I242" t="n">
         <v>352.48</v>
@@ -11989,7 +11989,7 @@
         <v>336.14</v>
       </c>
       <c r="H244" t="n">
-        <v>343.65</v>
+        <v>343.36</v>
       </c>
       <c r="I244" t="n">
         <v>339.75</v>
@@ -12043,7 +12043,7 @@
         <v>337.47</v>
       </c>
       <c r="H245" t="n">
-        <v>344.02</v>
+        <v>344.37</v>
       </c>
       <c r="I245" t="n">
         <v>340.88</v>
@@ -12089,7 +12089,7 @@
         <v>343.05</v>
       </c>
       <c r="H246" t="n">
-        <v>348.85</v>
+        <v>348.75</v>
       </c>
       <c r="I246" t="n">
         <v>345.75</v>
@@ -12181,7 +12181,7 @@
         <v>341.3</v>
       </c>
       <c r="H248" t="n">
-        <v>347.73</v>
+        <v>347.23</v>
       </c>
       <c r="I248" t="n">
         <v>344.95</v>
@@ -12229,7 +12229,7 @@
         <v>336.84</v>
       </c>
       <c r="H249" t="n">
-        <v>343.28</v>
+        <v>342.68</v>
       </c>
       <c r="I249" t="n">
         <v>339.06</v>
@@ -12317,7 +12317,7 @@
         <v>335.16</v>
       </c>
       <c r="H251" t="n">
-        <v>340.51</v>
+        <v>340.06</v>
       </c>
       <c r="I251" t="n">
         <v>337.74</v>
@@ -12371,7 +12371,7 @@
         <v>344.85</v>
       </c>
       <c r="H252" t="n">
-        <v>346.29</v>
+        <v>346.21</v>
       </c>
       <c r="I252" t="n">
         <v>340.38</v>
@@ -12423,7 +12423,7 @@
         <v>328.43</v>
       </c>
       <c r="H253" t="n">
-        <v>335.33</v>
+        <v>335.82</v>
       </c>
       <c r="I253" t="n">
         <v>333.68</v>
@@ -12475,7 +12475,7 @@
         <v>343.31</v>
       </c>
       <c r="H254" t="n">
-        <v>342.56</v>
+        <v>342.31</v>
       </c>
       <c r="I254" t="n">
         <v>340.66</v>
@@ -12529,7 +12529,7 @@
         <v>348.61</v>
       </c>
       <c r="H255" t="n">
-        <v>353.08</v>
+        <v>352.95</v>
       </c>
       <c r="I255" t="n">
         <v>348.91</v>
@@ -12577,7 +12577,7 @@
         <v>350.79</v>
       </c>
       <c r="H256" t="n">
-        <v>356.3</v>
+        <v>356.89</v>
       </c>
       <c r="I256" t="n">
         <v>354.4</v>
@@ -12631,7 +12631,7 @@
         <v>340.17</v>
       </c>
       <c r="H257" t="n">
-        <v>342.81</v>
+        <v>342.11</v>
       </c>
       <c r="I257" t="n">
         <v>341.87</v>
@@ -12727,7 +12727,7 @@
         <v>346.18</v>
       </c>
       <c r="H259" t="n">
-        <v>350.56</v>
+        <v>350.36</v>
       </c>
       <c r="I259" t="n">
         <v>345.8</v>
@@ -12821,7 +12821,7 @@
         <v>348.35</v>
       </c>
       <c r="H261" t="n">
-        <v>350.42</v>
+        <v>350.31</v>
       </c>
       <c r="I261" t="n">
         <v>347.85</v>
@@ -12905,7 +12905,7 @@
         <v>331.31</v>
       </c>
       <c r="H263" t="n">
-        <v>336.45</v>
+        <v>336.05</v>
       </c>
       <c r="I263" t="n">
         <v>332.76</v>
@@ -12959,7 +12959,7 @@
         <v>358.33</v>
       </c>
       <c r="H264" t="n">
-        <v>361.3</v>
+        <v>362</v>
       </c>
       <c r="I264" t="n">
         <v>361.48</v>
@@ -13003,7 +13003,7 @@
         <v>364.36</v>
       </c>
       <c r="H265" t="n">
-        <v>368.72</v>
+        <v>369.32</v>
       </c>
       <c r="I265" t="n">
         <v>369.72</v>
@@ -13057,7 +13057,7 @@
         <v>354.01</v>
       </c>
       <c r="H266" t="n">
-        <v>353.5</v>
+        <v>352.77</v>
       </c>
       <c r="I266" t="n">
         <v>353.5</v>
@@ -13111,7 +13111,7 @@
         <v>354.33</v>
       </c>
       <c r="H267" t="n">
-        <v>357.71</v>
+        <v>357.17</v>
       </c>
       <c r="I267" t="n">
         <v>354.6</v>
@@ -13157,7 +13157,7 @@
         <v>343.66</v>
       </c>
       <c r="H268" t="n">
-        <v>347.92</v>
+        <v>347.56</v>
       </c>
       <c r="I268" t="n">
         <v>343.31</v>
@@ -13211,7 +13211,7 @@
         <v>353.92</v>
       </c>
       <c r="H269" t="n">
-        <v>357.75</v>
+        <v>358.2</v>
       </c>
       <c r="I269" t="n">
         <v>352.05</v>
@@ -13263,7 +13263,7 @@
         <v>349.01</v>
       </c>
       <c r="H270" t="n">
-        <v>349.54</v>
+        <v>349.37</v>
       </c>
       <c r="I270" t="n">
         <v>348.29</v>
@@ -13317,7 +13317,7 @@
         <v>360.4</v>
       </c>
       <c r="H271" t="n">
-        <v>368.04</v>
+        <v>368.6</v>
       </c>
       <c r="I271" t="n">
         <v>360.63</v>
@@ -13371,7 +13371,7 @@
         <v>359.47</v>
       </c>
       <c r="H272" t="n">
-        <v>362.87</v>
+        <v>363.59</v>
       </c>
       <c r="I272" t="n">
         <v>359.03</v>
@@ -13425,7 +13425,7 @@
         <v>363.69</v>
       </c>
       <c r="H273" t="n">
-        <v>358.77</v>
+        <v>358.43</v>
       </c>
       <c r="I273" t="n">
         <v>355.2</v>
@@ -13471,7 +13471,7 @@
         <v>353.93</v>
       </c>
       <c r="H274" t="n">
-        <v>362.26</v>
+        <v>362.81</v>
       </c>
       <c r="I274" t="n">
         <v>363.37</v>
@@ -13525,7 +13525,7 @@
         <v>347.38</v>
       </c>
       <c r="H275" t="n">
-        <v>360.95</v>
+        <v>360.12</v>
       </c>
       <c r="I275" t="n">
         <v>356.49</v>
@@ -13615,7 +13615,7 @@
         <v>341.02</v>
       </c>
       <c r="H277" t="n">
-        <v>347.09</v>
+        <v>346.55</v>
       </c>
       <c r="I277" t="n">
         <v>347.02</v>
@@ -13665,7 +13665,7 @@
         <v>324.4</v>
       </c>
       <c r="H278" t="n">
-        <v>329.32</v>
+        <v>329.19</v>
       </c>
       <c r="I278" t="n">
         <v>322.43</v>
@@ -13755,7 +13755,7 @@
         <v>333.09</v>
       </c>
       <c r="H280" t="n">
-        <v>340.83</v>
+        <v>340.93</v>
       </c>
       <c r="I280" t="n">
         <v>334.23</v>
@@ -13809,7 +13809,7 @@
         <v>329.33</v>
       </c>
       <c r="H281" t="n">
-        <v>337.65</v>
+        <v>338.11</v>
       </c>
       <c r="I281" t="n">
         <v>335.45</v>
@@ -13863,7 +13863,7 @@
         <v>350.19</v>
       </c>
       <c r="H282" t="n">
-        <v>349.16</v>
+        <v>348.61</v>
       </c>
       <c r="I282" t="n">
         <v>346.25</v>
@@ -13917,7 +13917,7 @@
         <v>334.88</v>
       </c>
       <c r="H283" t="n">
-        <v>339.34</v>
+        <v>339.69</v>
       </c>
       <c r="I283" t="n">
         <v>338.81</v>
@@ -13971,7 +13971,7 @@
         <v>363.43</v>
       </c>
       <c r="H284" t="n">
-        <v>364.35</v>
+        <v>364.7</v>
       </c>
       <c r="I284" t="n">
         <v>359.11</v>
@@ -14025,7 +14025,7 @@
         <v>356.47</v>
       </c>
       <c r="H285" t="n">
-        <v>361.37</v>
+        <v>361.93</v>
       </c>
       <c r="I285" t="n">
         <v>356.67</v>
@@ -14079,7 +14079,7 @@
         <v>362.77</v>
       </c>
       <c r="H286" t="n">
-        <v>367.85</v>
+        <v>367.68</v>
       </c>
       <c r="I286" t="n">
         <v>364.82</v>
@@ -14129,7 +14129,7 @@
         <v>354.26</v>
       </c>
       <c r="H287" t="n">
-        <v>359.4</v>
+        <v>358.48</v>
       </c>
       <c r="I287" t="n">
         <v>362.56</v>
@@ -14183,7 +14183,7 @@
         <v>361.49</v>
       </c>
       <c r="H288" t="n">
-        <v>366.58</v>
+        <v>365.74</v>
       </c>
       <c r="I288" t="n">
         <v>359.87</v>
@@ -14237,7 +14237,7 @@
         <v>356.82</v>
       </c>
       <c r="H289" t="n">
-        <v>362.98</v>
+        <v>362.36</v>
       </c>
       <c r="I289" t="n">
         <v>357.2</v>
@@ -14291,7 +14291,7 @@
         <v>351.17</v>
       </c>
       <c r="H290" t="n">
-        <v>358.03</v>
+        <v>357.88</v>
       </c>
       <c r="I290" t="n">
         <v>351.73</v>
@@ -14345,7 +14345,7 @@
         <v>348.44</v>
       </c>
       <c r="H291" t="n">
-        <v>353.67</v>
+        <v>353.12</v>
       </c>
       <c r="I291" t="n">
         <v>345.81</v>
@@ -14443,7 +14443,7 @@
         <v>351.27</v>
       </c>
       <c r="H293" t="n">
-        <v>354.53</v>
+        <v>354.85</v>
       </c>
       <c r="I293" t="n">
         <v>353.86</v>
@@ -14495,7 +14495,7 @@
         <v>344</v>
       </c>
       <c r="H294" t="n">
-        <v>350.37</v>
+        <v>350.85</v>
       </c>
       <c r="I294" t="n">
         <v>346.33</v>
@@ -14549,7 +14549,7 @@
         <v>365.15</v>
       </c>
       <c r="H295" t="n">
-        <v>371.58</v>
+        <v>372.15</v>
       </c>
       <c r="I295" t="n">
         <v>367.15</v>
@@ -14597,7 +14597,7 @@
         <v>353.92</v>
       </c>
       <c r="H296" t="n">
-        <v>355.82</v>
+        <v>356.25</v>
       </c>
       <c r="I296" t="n">
         <v>355.23</v>
@@ -14729,7 +14729,7 @@
         <v>341.11</v>
       </c>
       <c r="H299" t="n">
-        <v>348.22</v>
+        <v>348.18</v>
       </c>
       <c r="I299" t="n">
         <v>351.63</v>
@@ -14775,7 +14775,7 @@
         <v>333.94</v>
       </c>
       <c r="H300" t="n">
-        <v>339.05</v>
+        <v>338.7</v>
       </c>
       <c r="I300" t="n">
         <v>338.31</v>
@@ -14829,7 +14829,7 @@
         <v>349.98</v>
       </c>
       <c r="H301" t="n">
-        <v>351.38</v>
+        <v>350.65</v>
       </c>
       <c r="I301" t="n">
         <v>349.51</v>
@@ -14883,7 +14883,7 @@
         <v>342.02</v>
       </c>
       <c r="H302" t="n">
-        <v>346.63</v>
+        <v>345.99</v>
       </c>
       <c r="I302" t="n">
         <v>341.31</v>
@@ -14937,7 +14937,7 @@
         <v>354.43</v>
       </c>
       <c r="H303" t="n">
-        <v>355.23</v>
+        <v>354.7</v>
       </c>
       <c r="I303" t="n">
         <v>354.88</v>
@@ -14991,7 +14991,7 @@
         <v>345</v>
       </c>
       <c r="H304" t="n">
-        <v>352.23</v>
+        <v>351.75</v>
       </c>
       <c r="I304" t="n">
         <v>347.29</v>
@@ -15035,7 +15035,7 @@
         <v>356.38</v>
       </c>
       <c r="H305" t="n">
-        <v>355.78</v>
+        <v>355.65</v>
       </c>
       <c r="I305" t="n">
         <v>351.52</v>
@@ -15087,7 +15087,7 @@
         <v>349.24</v>
       </c>
       <c r="H306" t="n">
-        <v>354.05</v>
+        <v>354.44</v>
       </c>
       <c r="I306" t="n">
         <v>349.75</v>
@@ -15141,7 +15141,7 @@
         <v>338.48</v>
       </c>
       <c r="H307" t="n">
-        <v>340.29</v>
+        <v>339.31</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
         <v>332.69</v>
       </c>
       <c r="H309" t="n">
-        <v>343.69</v>
+        <v>343.31</v>
       </c>
       <c r="I309" t="n">
         <v>336.21</v>
@@ -15305,7 +15305,7 @@
         <v>343.46</v>
       </c>
       <c r="H311" t="n">
-        <v>350.02</v>
+        <v>349.35</v>
       </c>
       <c r="I311" t="n">
         <v>343.8</v>
@@ -15359,7 +15359,7 @@
         <v>365.11</v>
       </c>
       <c r="H312" t="n">
-        <v>369.8</v>
+        <v>370.19</v>
       </c>
       <c r="I312" t="n">
         <v>360.5</v>
@@ -15411,7 +15411,7 @@
         <v>369.8</v>
       </c>
       <c r="H313" t="n">
-        <v>369.17</v>
+        <v>369.82</v>
       </c>
       <c r="I313" t="n">
         <v>359.94</v>
@@ -15461,7 +15461,7 @@
         <v>341.65</v>
       </c>
       <c r="H314" t="n">
-        <v>352.07</v>
+        <v>352.32</v>
       </c>
       <c r="I314" t="n">
         <v>349.15</v>
@@ -15511,7 +15511,7 @@
         <v>336.42</v>
       </c>
       <c r="H315" t="n">
-        <v>343.34</v>
+        <v>343.31</v>
       </c>
       <c r="I315" t="n">
         <v>342.38</v>
@@ -15565,7 +15565,7 @@
         <v>348.72</v>
       </c>
       <c r="H316" t="n">
-        <v>350.71</v>
+        <v>350.86</v>
       </c>
       <c r="I316" t="n">
         <v>351.19</v>
@@ -15659,7 +15659,7 @@
         <v>345.4</v>
       </c>
       <c r="H318" t="n">
-        <v>351.89</v>
+        <v>352.51</v>
       </c>
       <c r="I318" t="n">
         <v>345.2</v>
@@ -15757,7 +15757,7 @@
         <v>336.85</v>
       </c>
       <c r="H320" t="n">
-        <v>342.8</v>
+        <v>343.39</v>
       </c>
       <c r="I320" t="n">
         <v>345.8</v>
@@ -15811,7 +15811,7 @@
         <v>343.01</v>
       </c>
       <c r="H321" t="n">
-        <v>350.83</v>
+        <v>350.44</v>
       </c>
       <c r="I321" t="n">
         <v>347.56</v>
@@ -15865,7 +15865,7 @@
         <v>365</v>
       </c>
       <c r="H322" t="n">
-        <v>371.65</v>
+        <v>371.98</v>
       </c>
       <c r="I322" t="n">
         <v>368.24</v>
@@ -15919,7 +15919,7 @@
         <v>355.51</v>
       </c>
       <c r="H323" t="n">
-        <v>359.09</v>
+        <v>358.59</v>
       </c>
       <c r="I323" t="n">
         <v>356.61</v>
@@ -15963,7 +15963,7 @@
         <v>340.73</v>
       </c>
       <c r="H324" t="n">
-        <v>350.87</v>
+        <v>351.35</v>
       </c>
       <c r="I324" t="n">
         <v>348.25</v>
@@ -16017,7 +16017,7 @@
         <v>358.42</v>
       </c>
       <c r="H325" t="n">
-        <v>364.57</v>
+        <v>364.37</v>
       </c>
       <c r="I325" t="n">
         <v>363.43</v>
@@ -16071,7 +16071,7 @@
         <v>353.5</v>
       </c>
       <c r="H326" t="n">
-        <v>360.61</v>
+        <v>360.59</v>
       </c>
       <c r="I326" t="n">
         <v>357.36</v>
@@ -16123,7 +16123,7 @@
         <v>346.68</v>
       </c>
       <c r="H327" t="n">
-        <v>355.81</v>
+        <v>355.49</v>
       </c>
       <c r="I327" t="n">
         <v>356.27</v>
@@ -16175,7 +16175,7 @@
         <v>359.58</v>
       </c>
       <c r="H328" t="n">
-        <v>361.56</v>
+        <v>361</v>
       </c>
       <c r="I328" t="n">
         <v>358.38</v>
@@ -16229,7 +16229,7 @@
         <v>350.74</v>
       </c>
       <c r="H329" t="n">
-        <v>355.64</v>
+        <v>356.01</v>
       </c>
       <c r="I329" t="n">
         <v>354.75</v>
@@ -16275,7 +16275,7 @@
         <v>347.59</v>
       </c>
       <c r="H330" t="n">
-        <v>354.41</v>
+        <v>354.7</v>
       </c>
       <c r="I330" t="n">
         <v>351.92</v>
@@ -16365,7 +16365,7 @@
         <v>348.56</v>
       </c>
       <c r="H332" t="n">
-        <v>350.84</v>
+        <v>351.24</v>
       </c>
       <c r="I332" t="n">
         <v>351.2</v>
@@ -16419,7 +16419,7 @@
         <v>351.85</v>
       </c>
       <c r="H333" t="n">
-        <v>359.75</v>
+        <v>359.11</v>
       </c>
       <c r="I333" t="n">
         <v>354.63</v>
@@ -16473,7 +16473,7 @@
         <v>339.79</v>
       </c>
       <c r="H334" t="n">
-        <v>348.17</v>
+        <v>347.75</v>
       </c>
       <c r="I334" t="n">
         <v>350.75</v>
@@ -16527,7 +16527,7 @@
         <v>359.76</v>
       </c>
       <c r="H335" t="n">
-        <v>364.77</v>
+        <v>365.07</v>
       </c>
       <c r="I335" t="n">
         <v>363.68</v>
@@ -16571,7 +16571,7 @@
       <c r="F336" t="inlineStr"/>
       <c r="G336" t="inlineStr"/>
       <c r="H336" t="n">
-        <v>371.83</v>
+        <v>372.43</v>
       </c>
       <c r="I336" t="n">
         <v>355.37</v>
@@ -16625,7 +16625,7 @@
         <v>370.04</v>
       </c>
       <c r="H337" t="n">
-        <v>374.24</v>
+        <v>373.56</v>
       </c>
       <c r="I337" t="n">
         <v>368.96</v>
@@ -16679,7 +16679,7 @@
         <v>358.37</v>
       </c>
       <c r="H338" t="n">
-        <v>366.21</v>
+        <v>366.68</v>
       </c>
       <c r="I338" t="n">
         <v>359.14</v>
@@ -16733,7 +16733,7 @@
         <v>351.52</v>
       </c>
       <c r="H339" t="n">
-        <v>359.62</v>
+        <v>358.9</v>
       </c>
       <c r="I339" t="n">
         <v>351.77</v>
@@ -16787,7 +16787,7 @@
         <v>358.82</v>
       </c>
       <c r="H340" t="n">
-        <v>365.89</v>
+        <v>365.55</v>
       </c>
       <c r="I340" t="n">
         <v>359.14</v>
@@ -16841,7 +16841,7 @@
         <v>346.16</v>
       </c>
       <c r="H341" t="n">
-        <v>350.7</v>
+        <v>350.57</v>
       </c>
       <c r="I341" t="n">
         <v>349.32</v>
@@ -16883,7 +16883,7 @@
         <v>348.4</v>
       </c>
       <c r="H342" t="n">
-        <v>359.59</v>
+        <v>359.72</v>
       </c>
       <c r="I342" t="n">
         <v>354.43</v>
@@ -16927,7 +16927,7 @@
       <c r="F343" t="inlineStr"/>
       <c r="G343" t="inlineStr"/>
       <c r="H343" t="n">
-        <v>346.66</v>
+        <v>347.16</v>
       </c>
       <c r="I343" t="n">
         <v>345.1</v>
@@ -16981,7 +16981,7 @@
         <v>352.25</v>
       </c>
       <c r="H344" t="n">
-        <v>353.59</v>
+        <v>354.17</v>
       </c>
       <c r="I344" t="n">
         <v>358.34</v>
@@ -17035,7 +17035,7 @@
         <v>345.82</v>
       </c>
       <c r="H345" t="n">
-        <v>352.78</v>
+        <v>352.31</v>
       </c>
       <c r="I345" t="n">
         <v>350.96</v>
@@ -17089,7 +17089,7 @@
         <v>347.96</v>
       </c>
       <c r="H346" t="n">
-        <v>350.05</v>
+        <v>350.15</v>
       </c>
       <c r="I346" t="n">
         <v>354.27</v>
@@ -17143,7 +17143,7 @@
         <v>353.68</v>
       </c>
       <c r="H347" t="n">
-        <v>359.75</v>
+        <v>360.02</v>
       </c>
       <c r="I347" t="n">
         <v>360.58</v>
@@ -17235,7 +17235,7 @@
         <v>353.92</v>
       </c>
       <c r="H349" t="n">
-        <v>359.37</v>
+        <v>359.95</v>
       </c>
       <c r="I349" t="n">
         <v>356.67</v>
@@ -17289,7 +17289,7 @@
         <v>349.61</v>
       </c>
       <c r="H350" t="n">
-        <v>355.52</v>
+        <v>355.82</v>
       </c>
       <c r="I350" t="n">
         <v>351.29</v>
@@ -17337,7 +17337,7 @@
         <v>354.42</v>
       </c>
       <c r="H351" t="n">
-        <v>361.01</v>
+        <v>360.54</v>
       </c>
       <c r="I351" t="n">
         <v>359.01</v>
@@ -17433,7 +17433,7 @@
         <v>361.5</v>
       </c>
       <c r="H353" t="n">
-        <v>366.86</v>
+        <v>366.81</v>
       </c>
       <c r="I353" t="n">
         <v>366.06</v>
@@ -17487,7 +17487,7 @@
         <v>356.77</v>
       </c>
       <c r="H354" t="n">
-        <v>359.85</v>
+        <v>359.69</v>
       </c>
       <c r="I354" t="n">
         <v>359.69</v>
@@ -17541,7 +17541,7 @@
         <v>361.43</v>
       </c>
       <c r="H355" t="n">
-        <v>365.09</v>
+        <v>365.49</v>
       </c>
       <c r="I355" t="n">
         <v>363.66</v>
@@ -17595,7 +17595,7 @@
         <v>361.65</v>
       </c>
       <c r="H356" t="n">
-        <v>369.09</v>
+        <v>368.49</v>
       </c>
       <c r="I356" t="n">
         <v>367.03</v>
@@ -17647,7 +17647,7 @@
         <v>361.92</v>
       </c>
       <c r="H357" t="n">
-        <v>367.12</v>
+        <v>366.35</v>
       </c>
       <c r="I357" t="n">
         <v>363.22</v>
@@ -17699,7 +17699,7 @@
         <v>363.01</v>
       </c>
       <c r="H358" t="n">
-        <v>367.07</v>
+        <v>366.12</v>
       </c>
       <c r="I358" t="n">
         <v>370.01</v>
@@ -17753,7 +17753,7 @@
         <v>363</v>
       </c>
       <c r="H359" t="n">
-        <v>368.49</v>
+        <v>367.82</v>
       </c>
       <c r="I359" t="n">
         <v>363.43</v>
@@ -17807,7 +17807,7 @@
         <v>370.36</v>
       </c>
       <c r="H360" t="n">
-        <v>377.6</v>
+        <v>377.56</v>
       </c>
       <c r="I360" t="n">
         <v>373.93</v>
@@ -17861,7 +17861,7 @@
         <v>351.65</v>
       </c>
       <c r="H361" t="n">
-        <v>360.5</v>
+        <v>360.65</v>
       </c>
       <c r="I361" t="n">
         <v>351.89</v>
@@ -17911,7 +17911,7 @@
         <v>344.78</v>
       </c>
       <c r="H362" t="n">
-        <v>351.2</v>
+        <v>351.63</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
         <v>350.93</v>
       </c>
       <c r="H363" t="n">
-        <v>357.04</v>
+        <v>356.36</v>
       </c>
       <c r="I363" t="n">
         <v>357.39</v>
@@ -18001,7 +18001,7 @@
         <v>355.59</v>
       </c>
       <c r="H364" t="n">
-        <v>379.14</v>
+        <v>379.92</v>
       </c>
       <c r="I364" t="n">
         <v>367.96</v>
@@ -18093,7 +18093,7 @@
         <v>354.55</v>
       </c>
       <c r="H366" t="n">
-        <v>363.65</v>
+        <v>363.35</v>
       </c>
       <c r="I366" t="n">
         <v>361.48</v>
@@ -18147,7 +18147,7 @@
         <v>360.19</v>
       </c>
       <c r="H367" t="n">
-        <v>368.71</v>
+        <v>368.56</v>
       </c>
       <c r="I367" t="n">
         <v>363.3</v>
@@ -18197,7 +18197,7 @@
         <v>343.04</v>
       </c>
       <c r="H368" t="n">
-        <v>344.64</v>
+        <v>344.34</v>
       </c>
       <c r="I368" t="n">
         <v>338.31</v>
@@ -18251,7 +18251,7 @@
         <v>344.57</v>
       </c>
       <c r="H369" t="n">
-        <v>348.14</v>
+        <v>347.69</v>
       </c>
       <c r="I369" t="n">
         <v>344.97</v>
@@ -18305,7 +18305,7 @@
         <v>364.93</v>
       </c>
       <c r="H370" t="n">
-        <v>368.49</v>
+        <v>368.96</v>
       </c>
       <c r="I370" t="n">
         <v>358.8</v>
@@ -18355,7 +18355,7 @@
         <v>338.58</v>
       </c>
       <c r="H371" t="n">
-        <v>339.7</v>
+        <v>339.23</v>
       </c>
       <c r="I371" t="n">
         <v>336.02</v>
@@ -18409,7 +18409,7 @@
         <v>345.94</v>
       </c>
       <c r="H372" t="n">
-        <v>347.71</v>
+        <v>346.81</v>
       </c>
       <c r="I372" t="n">
         <v>340.67</v>
@@ -18461,7 +18461,7 @@
         <v>351.66</v>
       </c>
       <c r="H373" t="n">
-        <v>360.87</v>
+        <v>361.12</v>
       </c>
       <c r="I373" t="n">
         <v>354.19</v>
@@ -18515,7 +18515,7 @@
         <v>350.48</v>
       </c>
       <c r="H374" t="n">
-        <v>357.9</v>
+        <v>357.57</v>
       </c>
       <c r="I374" t="n">
         <v>350.12</v>
@@ -18563,7 +18563,7 @@
         <v>339.35</v>
       </c>
       <c r="H375" t="n">
-        <v>344.83</v>
+        <v>344.2</v>
       </c>
       <c r="I375" t="n">
         <v>345.15</v>
@@ -18671,7 +18671,7 @@
         <v>336.36</v>
       </c>
       <c r="H377" t="n">
-        <v>342.68</v>
+        <v>343.01</v>
       </c>
       <c r="I377" t="n">
         <v>349.64</v>
@@ -18725,7 +18725,7 @@
         <v>343.69</v>
       </c>
       <c r="H378" t="n">
-        <v>344.96</v>
+        <v>344.11</v>
       </c>
       <c r="I378" t="n">
         <v>341.28</v>
@@ -18779,7 +18779,7 @@
         <v>350</v>
       </c>
       <c r="H379" t="n">
-        <v>355.16</v>
+        <v>354.54</v>
       </c>
       <c r="I379" t="n">
         <v>355.78</v>
@@ -18909,7 +18909,7 @@
         <v>355.57</v>
       </c>
       <c r="H382" t="n">
-        <v>361.32</v>
+        <v>360.75</v>
       </c>
       <c r="I382" t="n">
         <v>363.75</v>
@@ -18963,7 +18963,7 @@
         <v>350.15</v>
       </c>
       <c r="H383" t="n">
-        <v>356.23</v>
+        <v>355.93</v>
       </c>
       <c r="I383" t="n">
         <v>353.88</v>
@@ -19013,7 +19013,7 @@
         <v>345.11</v>
       </c>
       <c r="H384" t="n">
-        <v>354.68</v>
+        <v>354.76</v>
       </c>
       <c r="I384" t="n">
         <v>351.47</v>
@@ -19067,7 +19067,7 @@
         <v>335.91</v>
       </c>
       <c r="H385" t="n">
-        <v>339.77</v>
+        <v>339.52</v>
       </c>
       <c r="I385" t="n">
         <v>333.75</v>
@@ -19157,7 +19157,7 @@
         <v>348.42</v>
       </c>
       <c r="H387" t="n">
-        <v>350.03</v>
+        <v>349.45</v>
       </c>
       <c r="I387" t="n">
         <v>343.19</v>
@@ -19211,7 +19211,7 @@
         <v>336.13</v>
       </c>
       <c r="H388" t="n">
-        <v>340.78</v>
+        <v>340.99</v>
       </c>
       <c r="I388" t="n">
         <v>339.67</v>
@@ -19265,7 +19265,7 @@
         <v>351.73</v>
       </c>
       <c r="H389" t="n">
-        <v>364.43</v>
+        <v>364.93</v>
       </c>
       <c r="I389" t="n">
         <v>358.55</v>
@@ -19319,7 +19319,7 @@
         <v>345.14</v>
       </c>
       <c r="H390" t="n">
-        <v>348.76</v>
+        <v>348.44</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>349.74</v>
       </c>
       <c r="H392" t="n">
-        <v>349.1</v>
+        <v>348.67</v>
       </c>
       <c r="I392" t="n">
         <v>340.8</v>
@@ -19447,7 +19447,7 @@
         <v>341.43</v>
       </c>
       <c r="H393" t="n">
-        <v>349.98</v>
+        <v>349.23</v>
       </c>
       <c r="I393" t="n">
         <v>336.02</v>
@@ -19541,7 +19541,7 @@
         <v>355.54</v>
       </c>
       <c r="H395" t="n">
-        <v>356.48</v>
+        <v>356.45</v>
       </c>
       <c r="I395" t="n">
         <v>348.03</v>
@@ -19595,7 +19595,7 @@
         <v>345.01</v>
       </c>
       <c r="H396" t="n">
-        <v>345</v>
+        <v>344.35</v>
       </c>
       <c r="I396" t="n">
         <v>335.71</v>
@@ -19643,7 +19643,7 @@
         <v>350.81</v>
       </c>
       <c r="H397" t="n">
-        <v>347.18</v>
+        <v>346.81</v>
       </c>
       <c r="I397" t="n">
         <v>338.75</v>
@@ -19697,7 +19697,7 @@
         <v>338.69</v>
       </c>
       <c r="H398" t="n">
-        <v>340.35</v>
+        <v>339.9</v>
       </c>
       <c r="I398" t="n">
         <v>335.7</v>
@@ -19819,7 +19819,7 @@
         <v>349.59</v>
       </c>
       <c r="H401" t="n">
-        <v>354.46</v>
+        <v>354.86</v>
       </c>
       <c r="I401" t="n">
         <v>346.14</v>
@@ -19873,7 +19873,7 @@
         <v>339.65</v>
       </c>
       <c r="H402" t="n">
-        <v>349.45</v>
+        <v>348.85</v>
       </c>
       <c r="I402" t="n">
         <v>342.33</v>
@@ -19927,7 +19927,7 @@
         <v>347.48</v>
       </c>
       <c r="H403" t="n">
-        <v>353.83</v>
+        <v>354.26</v>
       </c>
       <c r="I403" t="n">
         <v>349.98</v>
@@ -19981,7 +19981,7 @@
         <v>341.22</v>
       </c>
       <c r="H404" t="n">
-        <v>343.87</v>
+        <v>343.42</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -20021,7 +20021,7 @@
         <v>341.16</v>
       </c>
       <c r="H405" t="n">
-        <v>349.19</v>
+        <v>349.77</v>
       </c>
       <c r="I405" t="n">
         <v>348.15</v>
@@ -20129,7 +20129,7 @@
         <v>342.28</v>
       </c>
       <c r="H407" t="n">
-        <v>353.8</v>
+        <v>353.58</v>
       </c>
       <c r="I407" t="n">
         <v>345.67</v>
@@ -20183,7 +20183,7 @@
         <v>342.07</v>
       </c>
       <c r="H408" t="n">
-        <v>349.38</v>
+        <v>349.65</v>
       </c>
       <c r="I408" t="n">
         <v>341.25</v>
@@ -20237,7 +20237,7 @@
         <v>351.57</v>
       </c>
       <c r="H409" t="n">
-        <v>354.96</v>
+        <v>354.79</v>
       </c>
       <c r="I409" t="n">
         <v>351.31</v>
@@ -20291,7 +20291,7 @@
         <v>350.76</v>
       </c>
       <c r="H410" t="n">
-        <v>354.15</v>
+        <v>354.44</v>
       </c>
       <c r="I410" t="n">
         <v>352.39</v>
@@ -20373,7 +20373,7 @@
         <v>347.75</v>
       </c>
       <c r="H412" t="n">
-        <v>349.23</v>
+        <v>349.04</v>
       </c>
       <c r="I412" t="n">
         <v>348.57</v>
@@ -20427,7 +20427,7 @@
         <v>346.1</v>
       </c>
       <c r="H413" t="n">
-        <v>347.67</v>
+        <v>347.02</v>
       </c>
       <c r="I413" t="n">
         <v>346.75</v>
@@ -20481,7 +20481,7 @@
         <v>352.75</v>
       </c>
       <c r="H414" t="n">
-        <v>352.66</v>
+        <v>351.89</v>
       </c>
       <c r="I414" t="n">
         <v>350.82</v>
@@ -20571,7 +20571,7 @@
         <v>354.11</v>
       </c>
       <c r="H416" t="n">
-        <v>355.81</v>
+        <v>355.28</v>
       </c>
       <c r="I416" t="n">
         <v>348.35</v>
@@ -20625,7 +20625,7 @@
         <v>343.94</v>
       </c>
       <c r="H417" t="n">
-        <v>345.93</v>
+        <v>346.7</v>
       </c>
       <c r="I417" t="n">
         <v>336.63</v>
@@ -20679,7 +20679,7 @@
         <v>339.1</v>
       </c>
       <c r="H418" t="n">
-        <v>339.91</v>
+        <v>340.59</v>
       </c>
       <c r="I418" t="n">
         <v>334.14</v>
@@ -20733,7 +20733,7 @@
         <v>343.18</v>
       </c>
       <c r="H419" t="n">
-        <v>340.05</v>
+        <v>340.25</v>
       </c>
       <c r="I419" t="n">
         <v>339.56</v>
@@ -20837,7 +20837,7 @@
         <v>336.38</v>
       </c>
       <c r="H421" t="n">
-        <v>336.12</v>
+        <v>336.51</v>
       </c>
       <c r="I421" t="n">
         <v>336.37</v>
@@ -20891,7 +20891,7 @@
         <v>342.86</v>
       </c>
       <c r="H422" t="n">
-        <v>342.66</v>
+        <v>343.14</v>
       </c>
       <c r="I422" t="n">
         <v>343.18</v>
@@ -20941,7 +20941,7 @@
         <v>321.97</v>
       </c>
       <c r="H423" t="n">
-        <v>322.04</v>
+        <v>321.77</v>
       </c>
       <c r="I423" t="n">
         <v>331.87</v>
@@ -20995,7 +20995,7 @@
         <v>330.09</v>
       </c>
       <c r="H424" t="n">
-        <v>340.95</v>
+        <v>340.44</v>
       </c>
       <c r="I424" t="n">
         <v>337.6</v>
@@ -21049,7 +21049,7 @@
         <v>328.56</v>
       </c>
       <c r="H425" t="n">
-        <v>338.22</v>
+        <v>338.21</v>
       </c>
       <c r="I425" t="n">
         <v>335.01</v>
@@ -21103,7 +21103,7 @@
         <v>336.74</v>
       </c>
       <c r="H426" t="n">
-        <v>334.23</v>
+        <v>334.4</v>
       </c>
       <c r="I426" t="n">
         <v>332.65</v>
@@ -21227,7 +21227,7 @@
         <v>334.2</v>
       </c>
       <c r="H429" t="n">
-        <v>336.66</v>
+        <v>336.87</v>
       </c>
       <c r="I429" t="n">
         <v>334.38</v>
@@ -21275,7 +21275,7 @@
         <v>341.69</v>
       </c>
       <c r="H430" t="n">
-        <v>342.8</v>
+        <v>342.72</v>
       </c>
       <c r="I430" t="n">
         <v>339.94</v>
@@ -21329,7 +21329,7 @@
         <v>342.91</v>
       </c>
       <c r="H431" t="n">
-        <v>349.16</v>
+        <v>348.79</v>
       </c>
       <c r="I431" t="n">
         <v>343.65</v>
@@ -21383,7 +21383,7 @@
         <v>344.03</v>
       </c>
       <c r="H432" t="n">
-        <v>347.42</v>
+        <v>347.3</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -21423,7 +21423,7 @@
         <v>352.52</v>
       </c>
       <c r="H433" t="n">
-        <v>353.58</v>
+        <v>354.25</v>
       </c>
       <c r="I433" t="n">
         <v>343.79</v>
@@ -21477,7 +21477,7 @@
         <v>350.63</v>
       </c>
       <c r="H434" t="n">
-        <v>345.94</v>
+        <v>346.5</v>
       </c>
       <c r="I434" t="n">
         <v>345.62</v>
@@ -21561,7 +21561,7 @@
         <v>343.87</v>
       </c>
       <c r="H436" t="n">
-        <v>340.76</v>
+        <v>340.23</v>
       </c>
       <c r="I436" t="n">
         <v>339.58</v>
@@ -21615,7 +21615,7 @@
         <v>348.93</v>
       </c>
       <c r="H437" t="n">
-        <v>347.02</v>
+        <v>346.64</v>
       </c>
       <c r="I437" t="n">
         <v>338</v>
@@ -21659,7 +21659,7 @@
         <v>334.67</v>
       </c>
       <c r="H438" t="n">
-        <v>331.24</v>
+        <v>331.81</v>
       </c>
       <c r="I438" t="n">
         <v>331.5</v>
@@ -21713,7 +21713,7 @@
         <v>336.17</v>
       </c>
       <c r="H439" t="n">
-        <v>335.28</v>
+        <v>334.75</v>
       </c>
       <c r="I439" t="n">
         <v>333.99</v>
@@ -21765,7 +21765,7 @@
         <v>340.51</v>
       </c>
       <c r="H440" t="n">
-        <v>338.24</v>
+        <v>338.04</v>
       </c>
       <c r="I440" t="n">
         <v>337.86</v>
@@ -21819,7 +21819,7 @@
         <v>342.74</v>
       </c>
       <c r="H441" t="n">
-        <v>344.74</v>
+        <v>344.76</v>
       </c>
       <c r="I441" t="n">
         <v>341.44</v>
@@ -21911,7 +21911,7 @@
         <v>350.73</v>
       </c>
       <c r="H443" t="n">
-        <v>352.01</v>
+        <v>352.31</v>
       </c>
       <c r="I443" t="n">
         <v>344.44</v>
@@ -21965,7 +21965,7 @@
         <v>351.94</v>
       </c>
       <c r="H444" t="n">
-        <v>349.87</v>
+        <v>350.38</v>
       </c>
       <c r="I444" t="n">
         <v>338.88</v>
@@ -22019,7 +22019,7 @@
         <v>355.72</v>
       </c>
       <c r="H445" t="n">
-        <v>357.99</v>
+        <v>357.31</v>
       </c>
       <c r="I445" t="n">
         <v>346.8</v>
@@ -22069,7 +22069,7 @@
         <v>352.73</v>
       </c>
       <c r="H446" t="n">
-        <v>349.94</v>
+        <v>350.55</v>
       </c>
       <c r="I446" t="n">
         <v>337.26</v>
@@ -22121,7 +22121,7 @@
         <v>345.68</v>
       </c>
       <c r="H447" t="n">
-        <v>344.31</v>
+        <v>343.76</v>
       </c>
       <c r="I447" t="n">
         <v>336.3</v>
@@ -22175,7 +22175,7 @@
         <v>344.38</v>
       </c>
       <c r="H448" t="n">
-        <v>345.64</v>
+        <v>346.29</v>
       </c>
       <c r="I448" t="n">
         <v>345.71</v>
@@ -22229,7 +22229,7 @@
         <v>346.55</v>
       </c>
       <c r="H449" t="n">
-        <v>344.61</v>
+        <v>344.12</v>
       </c>
       <c r="I449" t="n">
         <v>336.74</v>
@@ -22283,7 +22283,7 @@
         <v>338.55</v>
       </c>
       <c r="H450" t="n">
-        <v>338.65</v>
+        <v>338.85</v>
       </c>
       <c r="I450" t="n">
         <v>325.12</v>
@@ -22337,7 +22337,7 @@
         <v>341.18</v>
       </c>
       <c r="H451" t="n">
-        <v>339.38</v>
+        <v>339.11</v>
       </c>
       <c r="I451" t="n">
         <v>331.39</v>
@@ -22391,7 +22391,7 @@
         <v>339.72</v>
       </c>
       <c r="H452" t="n">
-        <v>341.57</v>
+        <v>341.4</v>
       </c>
       <c r="I452" t="n">
         <v>334.47</v>
@@ -22445,7 +22445,7 @@
         <v>335.57</v>
       </c>
       <c r="H453" t="n">
-        <v>338.09</v>
+        <v>338.26</v>
       </c>
       <c r="I453" t="n">
         <v>326.13</v>
@@ -22497,7 +22497,7 @@
         <v>330.29</v>
       </c>
       <c r="H454" t="n">
-        <v>335.33</v>
+        <v>335.83</v>
       </c>
       <c r="I454" t="n">
         <v>335.45</v>
@@ -22551,7 +22551,7 @@
         <v>344.32</v>
       </c>
       <c r="H455" t="n">
-        <v>345.53</v>
+        <v>344.83</v>
       </c>
       <c r="I455" t="n">
         <v>348.71</v>
@@ -22605,7 +22605,7 @@
         <v>350.46</v>
       </c>
       <c r="H456" t="n">
-        <v>355.46</v>
+        <v>355.11</v>
       </c>
       <c r="I456" t="n">
         <v>357.81</v>
@@ -22659,7 +22659,7 @@
         <v>336.95</v>
       </c>
       <c r="H457" t="n">
-        <v>342.49</v>
+        <v>342.42</v>
       </c>
       <c r="I457" t="n">
         <v>345.13</v>
@@ -22713,7 +22713,7 @@
         <v>342.72</v>
       </c>
       <c r="H458" t="n">
-        <v>352.46</v>
+        <v>352.01</v>
       </c>
       <c r="I458" t="n">
         <v>353.61</v>
@@ -22767,7 +22767,7 @@
         <v>317.07</v>
       </c>
       <c r="H459" t="n">
-        <v>327.44</v>
+        <v>327.8</v>
       </c>
       <c r="I459" t="n">
         <v>334.54</v>
@@ -22821,7 +22821,7 @@
         <v>352.83</v>
       </c>
       <c r="H460" t="n">
-        <v>354.04</v>
+        <v>354.29</v>
       </c>
       <c r="I460" t="n">
         <v>356.06</v>
@@ -22875,7 +22875,7 @@
         <v>340.65</v>
       </c>
       <c r="H461" t="n">
-        <v>344.85</v>
+        <v>343.95</v>
       </c>
       <c r="I461" t="n">
         <v>342.52</v>
@@ -22927,7 +22927,7 @@
         <v>342.09</v>
       </c>
       <c r="H462" t="n">
-        <v>349.39</v>
+        <v>348.37</v>
       </c>
       <c r="I462" t="n">
         <v>349.75</v>
@@ -22981,7 +22981,7 @@
         <v>346.18</v>
       </c>
       <c r="H463" t="n">
-        <v>353.56</v>
+        <v>353.92</v>
       </c>
       <c r="I463" t="n">
         <v>351.12</v>
@@ -23035,7 +23035,7 @@
         <v>363.64</v>
       </c>
       <c r="H464" t="n">
-        <v>369.02</v>
+        <v>368.52</v>
       </c>
       <c r="I464" t="n">
         <v>369.61</v>
@@ -23089,7 +23089,7 @@
         <v>352.83</v>
       </c>
       <c r="H465" t="n">
-        <v>355.47</v>
+        <v>355.5</v>
       </c>
       <c r="I465" t="n">
         <v>356.7</v>
@@ -23143,7 +23143,7 @@
         <v>349.87</v>
       </c>
       <c r="H466" t="n">
-        <v>356.06</v>
+        <v>355.91</v>
       </c>
       <c r="I466" t="n">
         <v>353.78</v>
@@ -23197,7 +23197,7 @@
         <v>349.95</v>
       </c>
       <c r="H467" t="n">
-        <v>356.9</v>
+        <v>357.02</v>
       </c>
       <c r="I467" t="n">
         <v>350.92</v>
@@ -23291,7 +23291,7 @@
         <v>346.57</v>
       </c>
       <c r="H469" t="n">
-        <v>350.73</v>
+        <v>350.18</v>
       </c>
       <c r="I469" t="n">
         <v>351.1</v>
@@ -23345,7 +23345,7 @@
         <v>352</v>
       </c>
       <c r="H470" t="n">
-        <v>352.83</v>
+        <v>352.13</v>
       </c>
       <c r="I470" t="n">
         <v>351.62</v>
@@ -23399,7 +23399,7 @@
         <v>356.58</v>
       </c>
       <c r="H471" t="n">
-        <v>365.77</v>
+        <v>366.24</v>
       </c>
       <c r="I471" t="n">
         <v>358.88</v>
@@ -23453,7 +23453,7 @@
         <v>356.25</v>
       </c>
       <c r="H472" t="n">
-        <v>358.73</v>
+        <v>358.25</v>
       </c>
       <c r="I472" t="n">
         <v>360.21</v>
@@ -23507,7 +23507,7 @@
         <v>356.89</v>
       </c>
       <c r="H473" t="n">
-        <v>363.88</v>
+        <v>363.3</v>
       </c>
       <c r="I473" t="n">
         <v>360.57</v>
@@ -23561,7 +23561,7 @@
         <v>361.85</v>
       </c>
       <c r="H474" t="n">
-        <v>361.96</v>
+        <v>362.71</v>
       </c>
       <c r="I474" t="n">
         <v>361.47</v>
@@ -23615,7 +23615,7 @@
         <v>355.72</v>
       </c>
       <c r="H475" t="n">
-        <v>360.63</v>
+        <v>360.1</v>
       </c>
       <c r="I475" t="n">
         <v>354.02</v>
@@ -23669,7 +23669,7 @@
         <v>353.56</v>
       </c>
       <c r="H476" t="n">
-        <v>359.07</v>
+        <v>358.82</v>
       </c>
       <c r="I476" t="n">
         <v>354.25</v>
@@ -23723,7 +23723,7 @@
         <v>349.38</v>
       </c>
       <c r="H477" t="n">
-        <v>355.91</v>
+        <v>355.92</v>
       </c>
       <c r="I477" t="n">
         <v>350.73</v>
@@ -23777,7 +23777,7 @@
         <v>359.18</v>
       </c>
       <c r="H478" t="n">
-        <v>358.95</v>
+        <v>358.85</v>
       </c>
       <c r="I478" t="n">
         <v>356.56</v>
@@ -23829,7 +23829,7 @@
         <v>347.8</v>
       </c>
       <c r="H479" t="n">
-        <v>352.57</v>
+        <v>352.23</v>
       </c>
       <c r="I479" t="n">
         <v>351.56</v>
@@ -23883,7 +23883,7 @@
         <v>349.96</v>
       </c>
       <c r="H480" t="n">
-        <v>355.06</v>
+        <v>355.34</v>
       </c>
       <c r="I480" t="n">
         <v>353.72</v>
@@ -23937,7 +23937,7 @@
         <v>355.2</v>
       </c>
       <c r="H481" t="n">
-        <v>358.04</v>
+        <v>357.35</v>
       </c>
       <c r="I481" t="n">
         <v>357.4</v>
@@ -23991,7 +23991,7 @@
         <v>352.09</v>
       </c>
       <c r="H482" t="n">
-        <v>358</v>
+        <v>357.13</v>
       </c>
       <c r="I482" t="n">
         <v>354.15</v>
@@ -24045,7 +24045,7 @@
         <v>357.59</v>
       </c>
       <c r="H483" t="n">
-        <v>360.23</v>
+        <v>359.52</v>
       </c>
       <c r="I483" t="n">
         <v>356.12</v>
@@ -24099,7 +24099,7 @@
         <v>357.51</v>
       </c>
       <c r="H484" t="n">
-        <v>361.66</v>
+        <v>361.31</v>
       </c>
       <c r="I484" t="n">
         <v>357.02</v>
@@ -24153,7 +24153,7 @@
         <v>343.12</v>
       </c>
       <c r="H485" t="n">
-        <v>345.44</v>
+        <v>344.76</v>
       </c>
       <c r="I485" t="n">
         <v>344.9</v>
@@ -24207,7 +24207,7 @@
         <v>348.87</v>
       </c>
       <c r="H486" t="n">
-        <v>353.89</v>
+        <v>353.14</v>
       </c>
       <c r="I486" t="n">
         <v>351.7</v>
@@ -24261,7 +24261,7 @@
         <v>350.51</v>
       </c>
       <c r="H487" t="n">
-        <v>359.2</v>
+        <v>359.48</v>
       </c>
       <c r="I487" t="n">
         <v>358.19</v>
@@ -24315,7 +24315,7 @@
         <v>357.25</v>
       </c>
       <c r="H488" t="n">
-        <v>364.63</v>
+        <v>364.74</v>
       </c>
       <c r="I488" t="n">
         <v>363.87</v>
@@ -24369,7 +24369,7 @@
         <v>366.15</v>
       </c>
       <c r="H489" t="n">
-        <v>374.95</v>
+        <v>374.52</v>
       </c>
       <c r="I489" t="n">
         <v>369.5</v>
@@ -24423,7 +24423,7 @@
         <v>352.45</v>
       </c>
       <c r="H490" t="n">
-        <v>359.57</v>
+        <v>359.59</v>
       </c>
       <c r="I490" t="n">
         <v>357.68</v>
@@ -24477,7 +24477,7 @@
         <v>344.48</v>
       </c>
       <c r="H491" t="n">
-        <v>352.68</v>
+        <v>352.55</v>
       </c>
       <c r="I491" t="n">
         <v>351.76</v>
@@ -24531,7 +24531,7 @@
         <v>349.9</v>
       </c>
       <c r="H492" t="n">
-        <v>362.41</v>
+        <v>362.71</v>
       </c>
       <c r="I492" t="n">
         <v>360.35</v>
@@ -24585,7 +24585,7 @@
         <v>342.24</v>
       </c>
       <c r="H493" t="n">
-        <v>352.39</v>
+        <v>352.49</v>
       </c>
       <c r="I493" t="n">
         <v>349.57</v>
@@ -24635,7 +24635,7 @@
         <v>341.03</v>
       </c>
       <c r="H494" t="n">
-        <v>349.34</v>
+        <v>348.37</v>
       </c>
       <c r="I494" t="n">
         <v>344.23</v>
@@ -24689,7 +24689,7 @@
         <v>357.96</v>
       </c>
       <c r="H495" t="n">
-        <v>363.48</v>
+        <v>363.94</v>
       </c>
       <c r="I495" t="n">
         <v>360.79</v>
@@ -24743,7 +24743,7 @@
         <v>346.35</v>
       </c>
       <c r="H496" t="n">
-        <v>353.55</v>
+        <v>353.52</v>
       </c>
       <c r="I496" t="n">
         <v>351.63</v>
@@ -24797,7 +24797,7 @@
         <v>340.65</v>
       </c>
       <c r="H497" t="n">
-        <v>344.3</v>
+        <v>344.1</v>
       </c>
       <c r="I497" t="n">
         <v>339</v>
@@ -24851,7 +24851,7 @@
         <v>350</v>
       </c>
       <c r="H498" t="n">
-        <v>351.14</v>
+        <v>351.26</v>
       </c>
       <c r="I498" t="n">
         <v>355.55</v>
@@ -24905,7 +24905,7 @@
         <v>339.72</v>
       </c>
       <c r="H499" t="n">
-        <v>343.19</v>
+        <v>343.06</v>
       </c>
       <c r="I499" t="n">
         <v>340.9</v>
@@ -24959,7 +24959,7 @@
         <v>352.09</v>
       </c>
       <c r="H500" t="n">
-        <v>356.32</v>
+        <v>356.47</v>
       </c>
       <c r="I500" t="n">
         <v>357</v>
@@ -25013,7 +25013,7 @@
         <v>358.87</v>
       </c>
       <c r="H501" t="n">
-        <v>361.66</v>
+        <v>362.11</v>
       </c>
       <c r="I501" t="n">
         <v>355.86</v>
@@ -25067,7 +25067,7 @@
         <v>339.48</v>
       </c>
       <c r="H502" t="n">
-        <v>335.78</v>
+        <v>336.33</v>
       </c>
       <c r="I502" t="n">
         <v>335.21</v>
@@ -25121,7 +25121,7 @@
         <v>349.48</v>
       </c>
       <c r="H503" t="n">
-        <v>338.14</v>
+        <v>338.71</v>
       </c>
       <c r="I503" t="n">
         <v>341.87</v>
@@ -25175,7 +25175,7 @@
         <v>348.8</v>
       </c>
       <c r="H504" t="n">
-        <v>348.25</v>
+        <v>347.8</v>
       </c>
       <c r="I504" t="n">
         <v>343.92</v>
@@ -25229,7 +25229,7 @@
         <v>344</v>
       </c>
       <c r="H505" t="n">
-        <v>360.61</v>
+        <v>361.39</v>
       </c>
       <c r="I505" t="n">
         <v>353.13</v>
@@ -25319,7 +25319,7 @@
         <v>348.7</v>
       </c>
       <c r="H507" t="n">
-        <v>349.07</v>
+        <v>348.5</v>
       </c>
       <c r="I507" t="n">
         <v>345.76</v>
@@ -25373,7 +25373,7 @@
         <v>343.52</v>
       </c>
       <c r="H508" t="n">
-        <v>347.49</v>
+        <v>347.16</v>
       </c>
       <c r="I508" t="n">
         <v>342.32</v>
@@ -25427,7 +25427,7 @@
         <v>346.4</v>
       </c>
       <c r="H509" t="n">
-        <v>356.06</v>
+        <v>355.51</v>
       </c>
       <c r="I509" t="n">
         <v>345.5</v>
@@ -25513,7 +25513,7 @@
         <v>343.59</v>
       </c>
       <c r="H511" t="n">
-        <v>349.08</v>
+        <v>349.44</v>
       </c>
       <c r="I511" t="n">
         <v>338.89</v>
@@ -25567,7 +25567,7 @@
         <v>338.36</v>
       </c>
       <c r="H512" t="n">
-        <v>343.59</v>
+        <v>343.56</v>
       </c>
       <c r="I512" t="n">
         <v>337.6</v>
@@ -25621,7 +25621,7 @@
         <v>328.47</v>
       </c>
       <c r="H513" t="n">
-        <v>335.32</v>
+        <v>335.24</v>
       </c>
       <c r="I513" t="n">
         <v>333.46</v>
@@ -25675,7 +25675,7 @@
         <v>334.72</v>
       </c>
       <c r="H514" t="n">
-        <v>344.01</v>
+        <v>344.19</v>
       </c>
       <c r="I514" t="n">
         <v>337.4</v>
@@ -25729,7 +25729,7 @@
         <v>321.07</v>
       </c>
       <c r="H515" t="n">
-        <v>329.79</v>
+        <v>329.92</v>
       </c>
       <c r="I515" t="n">
         <v>333.93</v>
@@ -25775,7 +25775,7 @@
         <v>331.41</v>
       </c>
       <c r="H516" t="n">
-        <v>338.1</v>
+        <v>337.89</v>
       </c>
       <c r="I516" t="n">
         <v>334.06</v>
@@ -25829,7 +25829,7 @@
         <v>322.4</v>
       </c>
       <c r="H517" t="n">
-        <v>327.83</v>
+        <v>328.36</v>
       </c>
       <c r="I517" t="n">
         <v>329.95</v>
@@ -25883,7 +25883,7 @@
         <v>329.46</v>
       </c>
       <c r="H518" t="n">
-        <v>339.92</v>
+        <v>339.19</v>
       </c>
       <c r="I518" t="n">
         <v>335.51</v>
@@ -25937,7 +25937,7 @@
         <v>335.53</v>
       </c>
       <c r="H519" t="n">
-        <v>346.42</v>
+        <v>346.67</v>
       </c>
       <c r="I519" t="n">
         <v>346.1</v>
@@ -25991,7 +25991,7 @@
         <v>324.1</v>
       </c>
       <c r="H520" t="n">
-        <v>333.19</v>
+        <v>333.39</v>
       </c>
       <c r="I520" t="n">
         <v>333.82</v>
@@ -26045,7 +26045,7 @@
         <v>334.47</v>
       </c>
       <c r="H521" t="n">
-        <v>341.05</v>
+        <v>340.8</v>
       </c>
       <c r="I521" t="n">
         <v>343.27</v>
@@ -32014,7 +32014,7 @@
         <v>0.0941</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2488342867792215</v>
+        <v>0.2488917907253472</v>
       </c>
       <c r="J8" t="n">
         <v>520</v>
@@ -32023,19 +32023,19 @@
         <v>428</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03431445894886198</v>
+        <v>0.03412631467118477</v>
       </c>
       <c r="M8" t="n">
-        <v>8.248154358568131</v>
+        <v>8.287791981176957</v>
       </c>
       <c r="N8" t="n">
-        <v>107.2334501028438</v>
+        <v>107.8955047014125</v>
       </c>
       <c r="O8" t="n">
-        <v>10.35535852121228</v>
+        <v>10.38727609633115</v>
       </c>
       <c r="P8" t="n">
-        <v>345.9770745886758</v>
+        <v>345.8787538809845</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32747,7 +32747,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-34.99397891210978,173.71181382323525</t>
+          <t>-34.99398007578246,173.71181229527835</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -32829,7 +32829,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-34.99398154568477,173.71181036522748</t>
+          <t>-34.99398234188185,173.71180931978324</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -32911,7 +32911,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-34.99395863970363,173.7118404418458</t>
+          <t>-34.99396372311718,173.7118337670897</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -32993,7 +32993,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-34.9939670303981,173.71182942447686</t>
+          <t>-34.99396856154663,173.71182741400781</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -33075,7 +33075,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-34.99391399139308,173.71189906707764</t>
+          <t>-34.99391858484194,173.71189303567812</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -33157,7 +33157,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-34.993854705253135,173.71197691228008</t>
+          <t>-34.99385133672099,173.71198133529958</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -33231,7 +33231,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>-34.99384864189514,173.7119848737149</t>
+          <t>-34.993845640838984,173.71198881422262</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -33313,7 +33313,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-34.99395582238993,173.71184414110786</t>
+          <t>-34.99395667983324,173.7118430152455</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -33395,7 +33395,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>-34.99409160453469,173.7116658524718</t>
+          <t>-34.99408774604698,173.7116709188688</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -33469,7 +33469,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-34.99398417925968,173.71180690721948</t>
+          <t>-34.99398889519589,173.71180071497204</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -33551,7 +33551,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-34.99404028050667,173.71173324355465</t>
+          <t>-34.99403832063852,173.71173581695948</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -33633,7 +33633,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>-34.99403991303139,173.71173372606808</t>
+          <t>-34.99404346529229,173.71172906177154</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -33715,7 +33715,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>-34.994086949851074,173.71167196431574</t>
+          <t>-34.994087929784484,173.7116706776118</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -33797,7 +33797,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>-34.99400916759347,173.7117740963419</t>
+          <t>-34.99400610529813,173.71177811728387</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -33879,7 +33879,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>-34.99389610756266,173.71192254931995</t>
+          <t>-34.99389469890459,173.7119243989482</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -33961,7 +33961,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>-34.99403948431024,173.7117342890004</t>
+          <t>-34.99404181165362,173.71173123308205</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -34043,7 +34043,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>-34.99387559014895,173.71194948955113</t>
+          <t>-34.99387283407801,173.71195310838715</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -34125,7 +34125,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>-34.99393212020291,173.71187526315032</t>
+          <t>-34.993932426432764,173.71187486105686</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -34183,7 +34183,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>-34.993944675625954,173.71185877731608</t>
+          <t>-34.99394210329556,173.71186215490204</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -34265,7 +34265,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>-34.993977748437075,173.7118153511921</t>
+          <t>-34.9939733387298,173.711821141344</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -34347,7 +34347,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>-34.99406263524893,173.71170389064707</t>
+          <t>-34.99406110410242,173.71170590112072</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -34417,7 +34417,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>-34.99404597637316,173.71172576459617</t>
+          <t>-34.99404934489615,173.7117213415557</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -34499,7 +34499,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>-34.994002185559914,173.71178326408912</t>
+          <t>-34.99400408418314,173.71178077110537</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -34569,7 +34569,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>-34.993965989217095,173.71183079159576</t>
+          <t>-34.99397046017074,173.71182492102614</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -34651,7 +34651,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>-34.9940657587877,173.71169978928063</t>
+          <t>-34.99406379892025,173.71170236268708</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -34733,7 +34733,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>-34.993995693493,173.71179178848425</t>
+          <t>-34.993994897296076,173.71179283392885</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -34815,7 +34815,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>-34.99385139796701,173.71198125488107</t>
+          <t>-34.99385005055412,173.71198302408874</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -34897,7 +34897,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>-34.993997102149066,173.71178993885147</t>
+          <t>-34.994001695592615,173.71178390743975</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -34979,7 +34979,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>-34.99387914241801,173.71194482527326</t>
+          <t>-34.993876570085256,173.71194820285385</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -35061,7 +35061,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>-34.993988221490746,173.71180159957888</t>
+          <t>-34.993988650212195,173.71180103664727</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -35143,7 +35143,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>-34.99398515919451,173.7118056205188</t>
+          <t>-34.99398742529373,173.71180264502328</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -35213,7 +35213,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>-34.993980810733625,173.7118113302529</t>
+          <t>-34.99398552667006,173.711805138006</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -35295,7 +35295,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>-34.99390192593264,173.71191490955047</t>
+          <t>-34.99390468200245,173.7119112907119</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -35377,7 +35377,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>-34.99402068182275,173.7117589775975</t>
+          <t>-34.99401731329842,173.71176340063485</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -35459,7 +35459,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>-34.99392287206063,173.7118874063713</t>
+          <t>-34.99392268832269,173.7118876476273</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -35541,7 +35541,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>-34.99392507691585,173.711884511299</t>
+          <t>-34.99392281081465,173.71188748678998</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -35619,7 +35619,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>-34.99392201461693,173.7118885322327</t>
+          <t>-34.993922504584745,173.71188788888335</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -35693,7 +35693,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>-34.993956006127775,173.71184389985163</t>
+          <t>-34.99395337255184,173.71184735785724</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -35821,7 +35821,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>-34.99396874528445,173.71182717275155</t>
+          <t>-34.99396948023573,173.71182620772638</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -35903,7 +35903,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>-34.994003532969934,173.71178149487488</t>
+          <t>-34.99400383919949,173.7117810927807</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -35985,7 +35985,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>-34.99401333231491,173.71176862786038</t>
+          <t>-34.99401039251156,173.71177248796505</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -36067,7 +36067,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>-34.99396856154663,173.71182741400781</t>
+          <t>-34.99396899026821,173.7118268510765</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -36149,7 +36149,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>-34.99384919310953,173.71198414994817</t>
+          <t>-34.993853664070485,173.71197827939523</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -36231,7 +36231,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>-34.993886430693635,173.71193525546053</t>
+          <t>-34.99388232721082,173.71194064350655</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -36313,7 +36313,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>-34.994024234084605,173.71175431330315</t>
+          <t>-34.99402196798656,173.7117572888013</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -36425,7 +36425,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>-34.993853051610095,173.71197908358062</t>
+          <t>-34.993853357840294,173.71197868148792</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -36507,7 +36507,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>-34.99384135361567,173.71199444351888</t>
+          <t>-34.99383780134472,173.71199910779242</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -36561,7 +36561,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>-34.99387111918936,173.7119553601072</t>
+          <t>-34.993869036824535,173.71195809433854</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -36631,7 +36631,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>-34.99390413078849,173.71191201447962</t>
+          <t>-34.99390927545193,173.71190525931377</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -36713,7 +36713,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>-34.993885695741504,173.71193622048375</t>
+          <t>-34.99388526701943,173.71193678341393</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -36747,7 +36747,7 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>-34.99396874528445,173.71182717275155</t>
+          <t>-34.993968132825046,173.71182797693916</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -36813,7 +36813,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>-34.99390027229068,173.71191708085348</t>
+          <t>-34.99390008855269,173.71191732210937</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -36895,7 +36895,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>-34.99396654043056,173.71183006782692</t>
+          <t>-34.993968867776324,173.711827011914</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -37027,7 +37027,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>-34.99379443912663,173.7120560440649</t>
+          <t>-34.99379076436118,173.71206086916996</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -37097,7 +37097,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>-34.993956006127775,173.71184389985163</t>
+          <t>-34.993959374655,173.71183947682087</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -37167,7 +37167,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>-34.99390829551606,173.7119065460121</t>
+          <t>-34.9939107453557,173.71190332926622</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -37221,7 +37221,7 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>-34.99399103880315,173.7117979003139</t>
+          <t>-34.993987241555956,173.71180288627968</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -37303,7 +37303,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>-34.99391870733391,173.71189287484077</t>
+          <t>-34.99391754366023,173.71189440279542</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -37385,7 +37385,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>-34.99386523957085,173.71196308028954</t>
+          <t>-34.993866097015236,173.71196195442965</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -37467,7 +37467,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>-34.993928322952584,173.71188024910893</t>
+          <t>-34.99392936413415,173.71187888199128</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -37591,7 +37591,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>-34.99390045602869,173.7119168395976</t>
+          <t>-34.993897699958694,173.71192045843577</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -37673,7 +37673,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>-34.993867934396064,173.71195954187274</t>
+          <t>-34.99386915931658,173.71195793350142</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -37755,7 +37755,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>-34.993856297650105,173.71197482139803</t>
+          <t>-34.9938616873011,173.71196774456578</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -37817,7 +37817,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>-34.99390217091661,173.71191458787592</t>
+          <t>-34.9939080505321,173.71190686768665</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -37899,7 +37899,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>-34.99389647503866,173.71192206680823</t>
+          <t>-34.99390094599666,173.71191619624855</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -37999,7 +37999,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>-34.99387375276833,173.7119519021085</t>
+          <t>-34.9938739365064,173.71195166085278</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -38189,7 +38189,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>-34.99384067990912,173.7119953281225</t>
+          <t>-34.99384570208503,173.7119887338041</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -38325,7 +38325,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>-34.99382542964112,173.71201535232828</t>
+          <t>-34.99382267356823,173.71201897115986</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -38461,7 +38461,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>-34.99388042858434,173.7119431364829</t>
+          <t>-34.99388440957526,173.7119379092743</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -38647,7 +38647,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>-34.993878284973775,173.7119459511335</t>
+          <t>-34.993877427529526,173.71194707699368</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -38767,7 +38767,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>-34.993830635556264,173.71200851675687</t>
+          <t>-34.993831003032625,173.7120080342459</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -38829,7 +38829,7 @@
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>-34.9937381539484,173.71212994854358</t>
+          <t>-34.993740113824764,173.71212737515756</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -38899,7 +38899,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>-34.99381128179922,173.71203392899446</t>
+          <t>-34.99380754578855,173.71203883451994</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -38981,7 +38981,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>-34.99392421947216,173.71188563716046</t>
+          <t>-34.99392697554113,173.71188201831993</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -39063,7 +39063,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>-34.99386750567388,173.7119601048027</t>
+          <t>-34.993870567975144,173.71195608387433</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -39117,7 +39117,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>-34.99396458056041,173.71183264122715</t>
+          <t>-34.99396770410346,173.71182853987048</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -39183,7 +39183,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>-34.993921340911136,173.71188941683806</t>
+          <t>-34.993923607012384,173.71188644134722</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -39237,7 +39237,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>-34.99394436939615,173.7118591794097</t>
+          <t>-34.993945594315356,173.71185757103532</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -39299,7 +39299,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>-34.99399697965724,173.7117900996891</t>
+          <t>-34.993996612181746,173.71179058220198</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -39381,7 +39381,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>-34.993937816078024,173.7118677842115</t>
+          <t>-34.99393916348929,173.71186601500003</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -39463,7 +39463,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>-34.99388820682792,173.71193292332103</t>
+          <t>-34.99389224906441,173.71192761569282</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -39545,7 +39545,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>-34.99391772739819,173.71189416153942</t>
+          <t>-34.993914848836894,173.71189794121645</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -39731,7 +39731,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>-34.9938453958548,173.71198913589672</t>
+          <t>-34.993850663014534,173.71198221990343</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -39863,7 +39863,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>-34.99395374002756,173.71184687534486</t>
+          <t>-34.993952392616585,173.71184864455694</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -39933,7 +39933,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>-34.99391962602366,173.71189166856078</t>
+          <t>-34.993919503531686,173.71189182939813</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -40015,7 +40015,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>-34.99395202514086,173.71184912706934</t>
+          <t>-34.99395447497899,173.71184591032005</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -40085,7 +40085,7 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>-34.993970521416685,173.71182484060736</t>
+          <t>-34.99397046017074,173.71182492102614</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -40131,7 +40131,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>-34.99396562174144,173.71183127410828</t>
+          <t>-34.99396837780882,173.7118276552641</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -40193,7 +40193,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>-34.993987241555956,173.71180288627968</t>
+          <t>-34.993991651262355,173.71179709612585</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -40491,7 +40491,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>-34.99393953096507,173.71186553248782</t>
+          <t>-34.99393995968683,173.71186496955684</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -40573,7 +40573,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>-34.99390560069237,173.71191008443233</t>
+          <t>-34.99390786679412,173.7119071089426</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -40673,7 +40673,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>-34.99396298816585,173.7118347321147</t>
+          <t>-34.993960538328004,173.71183794886468</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -40755,7 +40755,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>-34.99387534516487,173.71194981122545</t>
+          <t>-34.99387859120385,173.71194554904054</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -40837,7 +40837,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>-34.993831248016846,173.71200771257193</t>
+          <t>-34.99383645393158,173.71200087699953</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -40919,7 +40919,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>-34.9938548277452,173.711976751443</t>
+          <t>-34.993856236404056,173.71197490181657</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -41001,7 +41001,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>-34.993805830898346,173.71204108623644</t>
+          <t>-34.993804850961055,173.7120423729315</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -41071,7 +41071,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>-34.993831493001075,173.71200739089792</t>
+          <t>-34.99383241169194,173.71200618462052</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -41141,7 +41141,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>-34.994048548699816,173.71172238700166</t>
+          <t>-34.99404579263554,173.7117260058529</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -41307,7 +41307,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>-34.99417747114358,173.71155310491093</t>
+          <t>-34.994179920973984,173.711549888144</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -41385,7 +41385,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>-34.9939107453557,173.71190332926622</t>
+          <t>-34.99390878548399,173.71190590266292</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -41505,7 +41505,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>-34.99388048983037,173.71194305606434</t>
+          <t>-34.99387632510118,173.71194852452817</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -41671,7 +41671,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>-34.99388777810587,173.71193348625127</t>
+          <t>-34.99388624695561,173.71193549671634</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -41753,7 +41753,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>-34.993949575302636,173.71185234381844</t>
+          <t>-34.993948044153704,173.71185435428654</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -41835,7 +41835,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>-34.993903273344564,173.71191314034053</t>
+          <t>-34.99390639689029,173.71190903899</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -41917,7 +41917,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>-34.99386352468203,173.71196533200916</t>
+          <t>-34.993860462380454,173.71196935293685</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
@@ -41971,7 +41971,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>-34.99385697135649,173.71197393679404</t>
+          <t>-34.99385574643578,173.7119755451649</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -42053,7 +42053,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>-34.99388361337709,173.71193895471606</t>
+          <t>-34.9938851445274,173.7119369442511</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -42223,7 +42223,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>-34.99395447497899,173.71184591032005</t>
+          <t>-34.993959068425276,173.7118398789146</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -42297,7 +42297,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>-34.993979769552816,173.7118126973723</t>
+          <t>-34.99398454673524,173.7118064247067</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -42479,7 +42479,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>-34.99402527526479,173.7117529461823</t>
+          <t>-34.9940265001826,173.7117513378048</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -42561,7 +42561,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>-34.99391968726963,173.71189158814212</t>
+          <t>-34.99391540005075,173.71189721744852</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -42623,7 +42623,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>-34.99390437577247,173.7119116928051</t>
+          <t>-34.99390890797598,173.71190574182563</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -42777,7 +42777,7 @@
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr">
         <is>
-          <t>-34.99400328798631,173.7117818165502</t>
+          <t>-34.99400004195297,173.71178607874805</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -42839,7 +42839,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>-34.993918217366044,173.7118935181901</t>
+          <t>-34.993917114938334,173.71189496572603</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -42971,7 +42971,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>-34.99400408418314,173.71178077110537</t>
+          <t>-34.994001144379396,173.71178463120918</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -43045,7 +43045,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>-34.994011127462414,173.7117715229389</t>
+          <t>-34.99401510844604,173.71176629571366</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -43115,7 +43115,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>-34.994031767329005,173.71174442178102</t>
+          <t>-34.99403783067146,173.7117364603107</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -43193,7 +43193,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>-34.99399526477158,173.71179235141597</t>
+          <t>-34.99399955198566,173.71178672209862</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -43263,7 +43263,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>-34.99388165350465,173.71194152811108</t>
+          <t>-34.99388508328139,173.71193702466974</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -43345,7 +43345,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>-34.993926301835394,173.71188290292542</t>
+          <t>-34.993927220525045,173.7118816966452</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -43419,7 +43419,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>-34.99393554997724,173.71187075970343</t>
+          <t>-34.993937693586105,173.7118679450489</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -43489,7 +43489,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>-34.99394320572288,173.71186070736525</t>
+          <t>-34.99394106211419,173.7118635220201</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -43551,7 +43551,7 @@
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr">
         <is>
-          <t>-34.99398681283448,173.7118034492113</t>
+          <t>-34.99399110004908,173.7117978198951</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -43733,7 +43733,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>-34.9939828930952,173.71180859601412</t>
+          <t>-34.99398032076618,173.71181197360323</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -43815,7 +43815,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>-34.99396151826316,173.71183666216473</t>
+          <t>-34.99396329439558,173.71183433002096</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -43927,7 +43927,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>-34.99401180116734,173.7117706383316</t>
+          <t>-34.99401565965914,173.71176557194397</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -44127,7 +44127,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>-34.99400439041267,173.71178036901122</t>
+          <t>-34.994007146478545,173.71177675016364</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -44209,7 +44209,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>-34.99392513816183,173.7118844308803</t>
+          <t>-34.99392593435953,173.71188338543752</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -44291,7 +44291,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>-34.993959374655,173.71183947682087</t>
+          <t>-34.993959987114486,173.7118386726334</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -44407,7 +44407,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>-34.99396568298739,173.71183119368953</t>
+          <t>-34.993969663973544,173.7118259664701</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -44485,7 +44485,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>-34.99387191538767,173.71195431466575</t>
+          <t>-34.99386977177682,173.71195712931575</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -44647,7 +44647,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>-34.994015414675545,173.7117658936194</t>
+          <t>-34.99401621087224,173.71176484817428</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -44717,7 +44717,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>-34.993972358794814,173.71182242804431</t>
+          <t>-34.99397548233754,173.7118183266869</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -44791,7 +44791,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>-34.9940326247714,173.7117432959166</t>
+          <t>-34.99403017493594,173.71174651267202</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -44915,7 +44915,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>-34.99400071565801,173.711785194141</t>
+          <t>-34.994001940576254,173.71178358576444</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -45043,7 +45043,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>-34.99396660167652,173.71182998740818</t>
+          <t>-34.99397156259763,173.71182347348832</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -45085,7 +45085,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>-34.993924709439995,173.71188499381105</t>
+          <t>-34.99392568937563,173.7118837071122</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -45167,7 +45167,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>-34.9938689755785,173.71195817475711</t>
+          <t>-34.99387142541948,173.7119549580143</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -45249,7 +45249,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>-34.99391968726963,173.71189158814212</t>
+          <t>-34.99391797238212,173.71189383986476</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -45323,7 +45323,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>-34.99393138525125,173.7118762281746</t>
+          <t>-34.99392924164221,173.71187904282866</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -45385,7 +45385,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>-34.99401645585583,173.71176452649885</t>
+          <t>-34.994019211921255,173.71176090765022</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -45459,7 +45459,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>-34.99395086146771,173.7118506550252</t>
+          <t>-34.99395110645153,173.71185033335027</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -45541,7 +45541,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>-34.99401498595424,173.71176645655137</t>
+          <t>-34.9940127198559,173.71176943204887</t>
         </is>
       </c>
       <c r="I187" t="inlineStr"/>
@@ -45595,7 +45595,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>-34.99388471580533,173.71193750718132</t>
+          <t>-34.99388930925607,173.71193147578612</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -45911,7 +45911,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>-34.993925383145736,173.71188410920558</t>
+          <t>-34.993927343016985,173.71188153580783</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -45993,7 +45993,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>-34.99394939156477,173.7118525850746</t>
+          <t>-34.99394902408903,173.711853067587</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -46125,7 +46125,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>-34.993957843506294,173.71184148728943</t>
+          <t>-34.99395870094957,173.71184036142705</t>
         </is>
       </c>
       <c r="I197" t="inlineStr"/>
@@ -46217,7 +46217,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>-34.99402300916675,173.71175592168052</t>
+          <t>-34.994020130609705,173.71175970136727</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -46259,7 +46259,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>-34.993826532070244,173.71201390479558</t>
+          <t>-34.99382285730644,173.71201872990443</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -46333,7 +46333,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>-34.9939315077432,173.7118760673372</t>
+          <t>-34.99393261017069,173.71187461980077</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -46453,7 +46453,7 @@
       <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>-34.99390927545193,173.71190525931377</t>
+          <t>-34.99391497132886,173.71189778037913</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -46581,7 +46581,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>-34.99399281493484,173.71179556816847</t>
+          <t>-34.993996183460325,173.71179114513373</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -46643,7 +46643,7 @@
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>-34.99400518660949,173.7117793235664</t>
+          <t>-34.99400867762621,173.71177473969266</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -46929,7 +46929,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>-34.993944185658265,173.7118594206658</t>
+          <t>-34.993941245852085,173.711863280764</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -47003,7 +47003,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>-34.99392507691585,173.711884511299</t>
+          <t>-34.99392709803308,173.71188185748258</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -47073,7 +47073,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>-34.99388937050209,173.71193139536751</t>
+          <t>-34.99388979922414,173.71193083243725</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -47151,7 +47151,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>-34.99390112973467,173.71191595499266</t>
+          <t>-34.99390406954251,173.71191209489828</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -47225,7 +47225,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>-34.993906458136294,173.71190895857137</t>
+          <t>-34.99390921420592,173.7119053397324</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -47287,7 +47287,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>-34.99390217091661,173.71191458787592</t>
+          <t>-34.993899414846695,173.71191820671427</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -47349,7 +47349,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>-34.993986445358935,173.71180393172406</t>
+          <t>-34.993991222540906,173.71179765905748</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -47423,7 +47423,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>-34.99402380536336,173.71175487623523</t>
+          <t>-34.99402000811791,173.71175986220499</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -47485,7 +47485,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>-34.99393414131994,173.71187260933343</t>
+          <t>-34.993931079021394,173.71187663026802</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -47555,7 +47555,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>-34.99391582877266,173.7118966545179</t>
+          <t>-34.99391117407761,173.71190276633567</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -47637,7 +47637,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>-34.993879938616224,173.71194377983164</t>
+          <t>-34.99387638634721,173.71194844410957</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -47719,7 +47719,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>-34.9938911466363,173.7119290632278</t>
+          <t>-34.993893596476504,173.7119258464833</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -47801,7 +47801,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>-34.993931079021394,173.71187663026802</t>
+          <t>-34.99393120151334,173.71187646943065</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -47987,7 +47987,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>-34.99390051727468,173.71191675917896</t>
+          <t>-34.993902354654615,173.71191434662003</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -48053,7 +48053,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>-34.99395325005994,173.71184751869473</t>
+          <t>-34.99395337255184,173.71184735785724</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -48131,7 +48131,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>-34.99397248128668,173.71182226720677</t>
+          <t>-34.993977503453344,173.7118156728672</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -48201,7 +48201,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>-34.993914787590896,173.71189802163508</t>
+          <t>-34.99391656372448,173.71189568949399</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -48283,7 +48283,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>-34.9938649333407,173.71196348238232</t>
+          <t>-34.9938624834995,173.7119666991246</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -48423,7 +48423,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>-34.99384711074405,173.71198688417806</t>
+          <t>-34.993844170933876,173.71199074426713</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -48505,7 +48505,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>-34.9940016343467,173.71178398785855</t>
+          <t>-34.99400763644582,173.71177610681292</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -48583,7 +48583,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>-34.99393891850542,173.71186633667486</t>
+          <t>-34.993937203618366,173.71186858839854</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -48665,7 +48665,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>-34.99392189212496,173.71188869307005</t>
+          <t>-34.993925321899766,173.7118841896243</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -48739,7 +48739,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>-34.993843803457594,173.71199122677822</t>
+          <t>-34.993845640838984,173.71198881422262</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -48821,7 +48821,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>-34.99390976541986,173.71190461596458</t>
+          <t>-34.99391393014708,173.71189914749627</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -48895,7 +48895,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>-34.9939180948741,173.7118936790274</t>
+          <t>-34.99391705369235,173.7118950461447</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -48977,7 +48977,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>-34.99392366825835,173.71188636092853</t>
+          <t>-34.99392232084681,173.71188813013936</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -49055,7 +49055,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>-34.99394853412138,173.71185371093677</t>
+          <t>-34.993945594315356,173.71185757103532</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -49133,7 +49133,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>-34.99391086784769,173.71190316842893</t>
+          <t>-34.99391644123252,173.7118958503313</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -49215,7 +49215,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>-34.99390713184221,173.71190807396633</t>
+          <t>-34.99390345708254,173.71191289908464</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -49347,7 +49347,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>-34.993956924817034,173.71184269357056</t>
+          <t>-34.99395870094957,173.71184036142705</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -49429,7 +49429,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>-34.993954658716845,173.71184566906382</t>
+          <t>-34.99395251510849,173.7118484837195</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -49495,7 +49495,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>-34.99392507691585,173.711884511299</t>
+          <t>-34.99392568937563,173.7118837071122</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -49627,7 +49627,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>-34.99393193646501,173.71187550440638</t>
+          <t>-34.993934998763514,173.7118714834717</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -49697,7 +49697,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>-34.99395919091716,173.7118397180771</t>
+          <t>-34.993962865673964,173.71183489295223</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -49821,7 +49821,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>-34.99397615604283,173.71181744208036</t>
+          <t>-34.99397891210978,173.71181382323525</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -49903,7 +49903,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>-34.99394075588436,173.71186392411366</t>
+          <t>-34.993941245852085,173.711863280764</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -49981,7 +49981,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>-34.99400788142943,173.71177578513755</t>
+          <t>-34.994004880379954,173.71177972566056</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -50059,7 +50059,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>-34.99396360062531,173.71183392792722</t>
+          <t>-34.9939651317739,173.71183191745834</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -50141,7 +50141,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>-34.993899169862694,173.7119185283888</t>
+          <t>-34.99389996606069,173.71191748294663</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -50211,7 +50211,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>-34.99387944864811,173.7119444231803</t>
+          <t>-34.99387583513303,173.7119491678768</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -50293,7 +50293,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>-34.993962069476666,173.71183593839598</t>
+          <t>-34.99396635669275,173.71183030908318</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -50433,7 +50433,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>-34.99391460385294,173.71189826289108</t>
+          <t>-34.99391582877266,173.7118966545179</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -50569,7 +50569,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>-34.993915461296744,173.71189713702984</t>
+          <t>-34.993916135002586,173.71189625242462</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -50685,7 +50685,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>-34.994001021887584,173.71178479204684</t>
+          <t>-34.994003471724035,173.71178157529368</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -50767,7 +50767,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>-34.99384882563328,173.71198463245932</t>
+          <t>-34.99384453841015,173.711990261756</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -50829,7 +50829,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>-34.993803381055116,173.71204430297408</t>
+          <t>-34.99379970629011,173.71204912808022</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -50911,7 +50911,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>-34.99389659753068,173.711921905971</t>
+          <t>-34.99390106848865,173.7119160354113</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -50993,7 +50993,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>-34.993870812959244,173.71195576220003</t>
+          <t>-34.99387412024445,173.71195141959703</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -51059,7 +51059,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>-34.99393077279153,173.71187703236149</t>
+          <t>-34.9939329776465,173.71187413728862</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -51141,7 +51141,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>-34.993870567975144,173.71195608387433</t>
+          <t>-34.99386781190401,173.7119597027099</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -51219,7 +51219,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>-34.99392085094328,173.71189006018744</t>
+          <t>-34.99392189212496,173.71188869307005</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -51301,7 +51301,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>-34.99380754578855,173.71203883451994</t>
+          <t>-34.9938041160081,173.71204333795282</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -51383,7 +51383,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>-34.99383921000392,173.71199725816675</t>
+          <t>-34.99383480028811,173.7120030482991</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -51465,7 +51465,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>-34.99386432088041,173.7119642865679</t>
+          <t>-34.993866403245384,173.71196155233685</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -51531,7 +51531,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>-34.993842946012926,173.71199235263745</t>
+          <t>-34.99383957748022,173.7119967756557</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -51613,7 +51613,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>-34.99385096924473,173.7119818178108</t>
+          <t>-34.99385605266595,173.7119751430722</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -51741,7 +51741,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>-34.993935856207074,173.7118703576099</t>
+          <t>-34.99393916348929,173.71186601500003</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -51815,7 +51815,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>-34.994044690209805,173.71172745339334</t>
+          <t>-34.99404548640618,173.71172640794748</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -51943,7 +51943,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>-34.993974196172914,173.71182001548115</t>
+          <t>-34.99397358371355,173.7118208196689</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -52025,7 +52025,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>-34.99399367237771,173.71179444230512</t>
+          <t>-34.99399085506538,173.7117981415703</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -52107,7 +52107,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>-34.99392317829053,173.71188700427794</t>
+          <t>-34.993926546819296,173.71188258125068</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -52189,7 +52189,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>-34.9939833218167,173.71180803308258</t>
+          <t>-34.99398117820919,173.7118108477402</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -52271,7 +52271,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>-34.9938301455878,173.7120091601048</t>
+          <t>-34.993828001975714,173.71201197475193</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -52353,7 +52353,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>-34.993848396910984,173.71198519538902</t>
+          <t>-34.993844967132475,173.71198969882636</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -52435,7 +52435,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>-34.99380870946403,173.71203730656944</t>
+          <t>-34.99380975064732,173.71203593945577</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -52509,7 +52509,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>-34.993860462380454,173.71196935293685</t>
+          <t>-34.993866097015236,173.71196195442965</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -52591,7 +52591,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>-34.99381648771539,173.7120270934254</t>
+          <t>-34.99382163238513,173.71202033827393</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -52673,7 +52673,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>-34.993838536297346,173.71199814277034</t>
+          <t>-34.99384233355245,173.71199315682261</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -52755,7 +52755,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>-34.99386885308645,173.71195833559426</t>
+          <t>-34.99386977177682,173.71195712931575</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -52837,7 +52837,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>-34.993895556348626,173.71192327308754</t>
+          <t>-34.9938989248787,173.71191885006328</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -52981,7 +52981,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>-34.9938902891922,173.71193018908838</t>
+          <t>-34.993888329319944,173.7119327624838</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -53059,7 +53059,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>-34.99391576752668,173.71189673493657</t>
+          <t>-34.99391282771932,173.71190059503206</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -53141,7 +53141,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>-34.99378586467361,173.7120673026427</t>
+          <t>-34.99378237364602,173.7120718864916</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -53211,7 +53211,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>-34.993882388456825,173.71194056308798</t>
+          <t>-34.993879754878165,173.7119440210874</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -53397,7 +53397,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>-34.99392893541232,173.7118794449221</t>
+          <t>-34.993929180396236,173.71187912324734</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -53463,7 +53463,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>-34.993985097948574,173.7118057009376</t>
+          <t>-34.993987241555956,173.71180288627968</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -53545,7 +53545,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>-34.99390958168187,173.71190485722053</t>
+          <t>-34.99391405263907,173.71189898665895</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -53627,7 +53627,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>-34.993938673521555,173.71186665834966</t>
+          <t>-34.993942593263256,173.71186151155237</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -53709,7 +53709,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>-34.99388600197157,173.71193581839074</t>
+          <t>-34.99388924801007,173.71193155620472</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -53791,7 +53791,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>-34.99390437577247,173.7119116928051</t>
+          <t>-34.99390731558019,173.71190783271038</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -53853,7 +53853,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>-34.99388263344089,173.7119402414136</t>
+          <t>-34.99388342963906,173.71193919597187</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -53931,7 +53931,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>-34.993893229000484,173.711926328995</t>
+          <t>-34.993890840406266,173.7119294653209</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -54013,7 +54013,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>-34.993977503453344,173.7118156728672</t>
+          <t>-34.993983505554475,173.7118077918262</t>
         </is>
       </c>
       <c r="I307" t="inlineStr"/>
@@ -54113,7 +54113,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>-34.99395667983324,173.7118430152455</t>
+          <t>-34.99395900717933,173.71183995933333</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -54237,7 +54237,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>-34.99391791113613,173.71189392028342</t>
+          <t>-34.99392201461693,173.7118885322327</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -54319,7 +54319,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>-34.99379676647799,173.71205298816477</t>
+          <t>-34.99379437788055,173.71205612448333</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -54397,7 +54397,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>-34.99380062498139,173.7120479218037</t>
+          <t>-34.99379664398582,173.71205314900163</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -54471,7 +54471,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>-34.99390535570839,173.71191040610688</t>
+          <t>-34.993903824558515,173.7119124165728</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -54545,7 +54545,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>-34.99395882344147,173.71184020058956</t>
+          <t>-34.99395900717933,173.71183995933333</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -54627,7 +54627,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>-34.99391368516315,173.7118994691709</t>
+          <t>-34.99391276647332,173.71190067545072</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -54763,7 +54763,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>-34.993906458136294,173.71190895857137</t>
+          <t>-34.993902660884594,173.71191394452688</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -54907,7 +54907,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>-34.99396213072262,173.71183585797723</t>
+          <t>-34.99395851721172,173.71184060268325</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -54989,7 +54989,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>-34.99391295021129,173.71190043419477</t>
+          <t>-34.99391533880478,173.71189729786718</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -55071,7 +55071,7 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>-34.99378543595094,173.71206786557156</t>
+          <t>-34.9937834148297,173.71207051937884</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -55153,7 +55153,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>-34.993862361007444,173.7119668599617</t>
+          <t>-34.99386542330893,173.71196283903384</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -55215,7 +55215,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>-34.99391270522733,173.71190075586938</t>
+          <t>-34.99390976541986,173.71190461596458</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -55297,7 +55297,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>-34.99382879817448,173.7120109293116</t>
+          <t>-34.993830023095676,173.71200932094177</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -55379,7 +55379,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>-34.993853051610095,173.71197908358062</t>
+          <t>-34.993853174102185,173.71197892274353</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -55457,7 +55457,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>-34.99388244970284,173.71194048266938</t>
+          <t>-34.99388440957526,173.7119379092743</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -55535,7 +55535,7 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>-34.993847233236146,173.711986723341</t>
+          <t>-34.993850663014534,173.71198221990343</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -55617,7 +55617,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>-34.993883490885075,173.71193911555326</t>
+          <t>-34.99388122478254,173.7119420910412</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -55683,7 +55683,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>-34.99389102414428,173.71192922406507</t>
+          <t>-34.99388924801007,173.71193155620472</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -55811,7 +55811,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>-34.99391288896531,173.7119005146134</t>
+          <t>-34.99391043912575,173.71190373135943</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -55893,7 +55893,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>-34.99385831876927,173.71197216758605</t>
+          <t>-34.993862238515376,173.71196702079882</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -55975,7 +55975,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>-34.99392924164221,173.71187904282866</t>
+          <t>-34.99393181397305,173.71187566524375</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -56057,7 +56057,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>-34.993827573253284,173.71201253768132</t>
+          <t>-34.99382573587143,173.71201495023587</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -56119,7 +56119,7 @@
       <c r="G336" t="inlineStr"/>
       <c r="H336" t="inlineStr">
         <is>
-          <t>-34.99378433352119,173.7120693131028</t>
+          <t>-34.99378065875521,173.7120741382067</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -56201,7 +56201,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>-34.993769573210045,173.71208869393413</t>
+          <t>-34.993773737945446,173.71208322548452</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -56283,7 +56283,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>-34.99381875381995,173.71202411794212</t>
+          <t>-34.99381587525468,173.71202789761006</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -56365,7 +56365,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>-34.99385911496773,173.71197112214492</t>
+          <t>-34.99386352468203,173.71196533200916</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -56447,7 +56447,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>-34.99382071369412,173.71202154455105</t>
+          <t>-34.993822796060364,173.7120188103229</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -56529,7 +56529,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>-34.993913746409135,173.71189938875224</t>
+          <t>-34.99391454260696,173.7118983433097</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -56587,7 +56587,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>-34.99385929870582,173.71197088088928</t>
+          <t>-34.99385850250737,173.71197192633042</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -56649,7 +56649,7 @@
       <c r="G343" t="inlineStr"/>
       <c r="H343" t="inlineStr">
         <is>
-          <t>-34.99393848978366,173.71186689960578</t>
+          <t>-34.9939354274853,173.7118709205408</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -56731,7 +56731,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>-34.99389604631665,173.71192262973858</t>
+          <t>-34.993892494048424,173.71192729401835</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -56813,7 +56813,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>-34.99390100724267,173.71191611582992</t>
+          <t>-34.993903885804514,173.71191233615417</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -56895,7 +56895,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>-34.99391772739819,173.71189416153942</t>
+          <t>-34.993917114938334,173.71189496572603</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -56977,7 +56977,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>-34.99385831876927,173.71197216758605</t>
+          <t>-34.993856665126316,173.71197433888676</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -57109,7 +57109,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>-34.99386064611855,173.71196911168119</t>
+          <t>-34.993857093848575,173.71197377595695</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -57191,7 +57191,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>-34.99388422583723,173.7119381505301</t>
+          <t>-34.993882388456825,173.71194056308798</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -57261,7 +57261,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>-34.99385060176849,173.71198230032198</t>
+          <t>-34.99385348033237,173.71197852065086</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -57401,7 +57401,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>-34.99381477282539,173.71202934514235</t>
+          <t>-34.99381507905576,173.71202894305006</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -57483,7 +57483,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>-34.99385770630892,173.7119729717715</t>
+          <t>-34.99385868624548,173.7119716850748</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -57565,7 +57565,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>-34.993825613379315,173.71201511107282</t>
+          <t>-34.99382316353676,173.71201832781205</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -57647,7 +57647,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>-34.99380111495006,173.71204727845625</t>
+          <t>-34.99380478971497,173.71204245334994</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -57725,7 +57725,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>-34.99381318042751,173.71203143602233</t>
+          <t>-34.993817896374985,173.71202524380067</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -57803,7 +57803,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>-34.99381348665787,173.71203103393003</t>
+          <t>-34.99381930503458,173.71202339417587</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -57885,7 +57885,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>-34.99380478971497,173.71204245334994</t>
+          <t>-34.99380889320226,173.7120370653141</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -57967,7 +57967,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>-34.993748994513915,173.7121157145006</t>
+          <t>-34.99374923949842,173.7121153928273</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -58049,7 +58049,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>-34.993853725316534,173.7119781989767</t>
+          <t>-34.993852806625945,173.71197940525474</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -58123,7 +58123,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>-34.9939106841097,173.71190340968485</t>
+          <t>-34.9939080505321,173.71190686768665</t>
         </is>
       </c>
       <c r="I362" t="inlineStr"/>
@@ -58169,7 +58169,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>-34.99387491644273,173.71195037415552</t>
+          <t>-34.993879081172,173.71194490569187</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -58251,7 +58251,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>-34.993739562609534,173.71212809892236</t>
+          <t>-34.993734785410744,173.71213437155052</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -58383,7 +58383,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>-34.99383443281178,173.71200353081008</t>
+          <t>-34.993836270193405,173.71200111825505</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -58465,7 +58465,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>-34.9938034423012,173.71204422255565</t>
+          <t>-34.99380436099242,173.71204301627904</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -58539,7 +58539,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>-34.99395086146771,173.7118506550252</t>
+          <t>-34.99395269884636,173.7118482424633</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -58621,7 +58621,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>-34.99392942538012,173.7118788015726</t>
+          <t>-34.99393218144889,173.7118751827316</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -58703,7 +58703,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>-34.99380478971497,173.71204245334994</t>
+          <t>-34.99380191114914,173.71204623301657</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -58777,7 +58777,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>-34.99398111696327,173.711810928159</t>
+          <t>-34.993983995521894,173.71180714847586</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -58859,7 +58859,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>-34.99393205895695,173.71187534356898</t>
+          <t>-34.99393757109417,173.7118681058863</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -58937,7 +58937,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>-34.99385145921307,173.71198117446252</t>
+          <t>-34.99384992806203,173.7119831849258</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -59019,7 +59019,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>-34.99386964928478,173.71195729015287</t>
+          <t>-34.99387167040358,173.71195463634004</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -59089,7 +59089,7 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>-34.99394969779455,173.711852182981</t>
+          <t>-34.9939535562897,173.71184711660106</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -59253,7 +59253,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>-34.993962865673964,173.71183489295223</t>
+          <t>-34.99396084455774,173.71183754677097</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -59335,7 +59335,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>-34.99394890159711,173.71185322842442</t>
+          <t>-34.99395410750327,173.71184639283246</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -59417,7 +59417,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>-34.993886430693635,173.71193525546053</t>
+          <t>-34.993890227946196,173.71193026950698</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -59599,7 +59599,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>-34.99384870314118,173.71198479329638</t>
+          <t>-34.993852194165534,173.7119802094401</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -59681,7 +59681,7 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>-34.99387987737022,173.71194386025022</t>
+          <t>-34.99388171475067,173.71194144769248</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -59755,7 +59755,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>-34.99388937050209,173.71193139536751</t>
+          <t>-34.993888880534016,173.71193203871638</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -59837,7 +59837,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>-34.993980688241756,173.7118114910905</t>
+          <t>-34.99398221938999,173.71180948062081</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -59965,7 +59965,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>-34.99391784989015,173.71189400070207</t>
+          <t>-34.99392140215711,173.71188933641943</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -60047,7 +60047,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>-34.99397450240257,173.7118196133873</t>
+          <t>-34.99397321623793,173.71182130218153</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -60129,7 +60129,7 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>-34.99382965561932,173.7120098034527</t>
+          <t>-34.9938265933163,173.7120138243771</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -60211,7 +60211,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>-34.99392562812965,173.7118837875309</t>
+          <t>-34.99392758800089,173.71188121413311</t>
         </is>
       </c>
       <c r="I390" t="inlineStr"/>
@@ -60307,7 +60307,7 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>-34.9939235457664,173.71188652176588</t>
+          <t>-34.99392617934344,173.7118830637628</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -60389,7 +60389,7 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>-34.993918156120074,173.71189359860878</t>
+          <t>-34.99392274956867,173.71188756720863</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -60525,7 +60525,7 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>-34.993878346219795,173.71194587071489</t>
+          <t>-34.99387852995784,173.71194562945914</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -60607,7 +60607,7 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>-34.99394865661329,173.7118535500993</t>
+          <t>-34.9939526376004,173.71184832288205</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -60677,7 +60677,7 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>-34.993935304993364,173.7118710813782</t>
+          <t>-34.99393757109417,173.7118681058863</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -60759,7 +60759,7 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>-34.99397713597774,173.7118161553799</t>
+          <t>-34.99397989204467,173.71181253653472</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -60925,7 +60925,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>-34.993890717914255,173.7119296261581</t>
+          <t>-34.99388826807393,173.71193284290243</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -61007,7 +61007,7 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>-34.99392140215711,173.71188933641943</t>
+          <t>-34.99392507691585,173.711884511299</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -61089,7 +61089,7 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>-34.993894576412586,173.71192455978544</t>
+          <t>-34.993891942834374,173.71192801778588</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -61171,7 +61171,7 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>-34.993955577406126,173.71184446278278</t>
+          <t>-34.99395833347389,173.7118408439395</t>
         </is>
       </c>
       <c r="I404" t="inlineStr"/>
@@ -61225,7 +61225,7 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>-34.9939229945526,173.71188724553394</t>
+          <t>-34.993919442285716,173.7118919098168</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -61389,7 +61389,7 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>-34.993894760150596,173.71192431852958</t>
+          <t>-34.99389610756266,173.71192254931995</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -61471,7 +61471,7 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>-34.99392183087897,173.71188877348874</t>
+          <t>-34.99392017723749,173.7118909447928</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -61553,7 +61553,7 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>-34.99388765561385,173.71193364708847</t>
+          <t>-34.993888696795985,173.7119322799722</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -61635,7 +61635,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>-34.99389261654044,173.71192713318115</t>
+          <t>-34.993890840406266,173.7119294653209</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -61747,7 +61747,7 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>-34.99392274956867,173.71188756720863</t>
+          <t>-34.99392391324227,173.71188603925384</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
@@ -61829,7 +61829,7 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>-34.99393230394083,173.71187502189423</t>
+          <t>-34.99393628492885,173.71186979467905</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -61911,7 +61911,7 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>-34.99390174219464,173.71191515080636</t>
+          <t>-34.993906458136294,173.71190895857137</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -62039,7 +62039,7 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>-34.99388244970284,173.71194048266938</t>
+          <t>-34.993885695741504,173.71193622048375</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -62121,7 +62121,7 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>-34.99394296073904,173.71186102904008</t>
+          <t>-34.9939382447998,173.71186722128058</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
@@ -62203,7 +62203,7 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>-34.993979830798736,173.7118126169535</t>
+          <t>-34.99397566607534,173.71181808543056</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
@@ -62285,7 +62285,7 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>-34.99397897335571,173.71181374281647</t>
+          <t>-34.993977748437075,173.7118153511921</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -62441,7 +62441,7 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>-34.99400304300266,173.71178213822552</t>
+          <t>-34.99400065441209,173.7117852745598</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -62523,7 +62523,7 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>-34.99396298816585,173.7118347321147</t>
+          <t>-34.99396004836043,173.71183859221466</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -62597,7 +62597,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>-34.99408927719291,173.71166890839385</t>
+          <t>-34.99409093083049,173.71166673708086</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -62679,7 +62679,7 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>-34.99397346122168,173.71182098050645</t>
+          <t>-34.99397658476435,173.71181687914893</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
@@ -62761,7 +62761,7 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>-34.99399018136025,173.71179902617718</t>
+          <t>-34.99399024260618,173.71179894575837</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -62843,7 +62843,7 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>-34.99401461847884,173.7117669390645</t>
+          <t>-34.994013577298524,173.71176830618498</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -63013,7 +63013,7 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>-34.99399973572341,173.71178648084216</t>
+          <t>-34.993998449559214,173.71178816963743</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
@@ -63083,7 +63083,7 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>-34.99396213072262,173.71183585797723</t>
+          <t>-34.993962620690176,173.71183521462723</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
@@ -63165,7 +63165,7 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>-34.99392317829053,173.71188700427794</t>
+          <t>-34.993925444391714,173.71188402878693</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
@@ -63247,7 +63247,7 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>-34.99393383509009,173.71187301142692</t>
+          <t>-34.99393457004173,173.71187204640256</t>
         </is>
       </c>
       <c r="I432" t="inlineStr"/>
@@ -63301,7 +63301,7 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>-34.99389610756266,173.71192254931995</t>
+          <t>-34.99389200408038,173.71192793736728</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
@@ -63383,7 +63383,7 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>-34.99394289949307,173.7118611094588</t>
+          <t>-34.99393946971911,173.7118656129065</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
@@ -63499,7 +63499,7 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>-34.993974624894456,173.71181945254975</t>
+          <t>-34.99397787092894,173.71181519035454</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
@@ -63581,7 +63581,7 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>-34.99393628492885,173.71186979467905</t>
+          <t>-34.99393861227559,173.71186673876835</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
@@ -63643,7 +63643,7 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>-34.994032931000824,173.71174289382216</t>
+          <t>-34.99402943998529,173.7117474776986</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
@@ -63725,7 +63725,7 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>-34.99400818765898,173.71177538304337</t>
+          <t>-34.994011433691924,173.71177112084467</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -63803,7 +63803,7 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>-34.99399005886841,173.71179918701478</t>
+          <t>-34.99399128378684,173.71179757863868</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
@@ -63885,7 +63885,7 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>-34.993950249008165,173.71185145921245</t>
+          <t>-34.99395012651625,173.7118516200499</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -64017,7 +64017,7 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>-34.99390572318437,173.71190992359504</t>
+          <t>-34.993903885804514,173.71191233615417</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
@@ -64099,7 +64099,7 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>-34.99391882982589,173.71189271400345</t>
+          <t>-34.993915706280696,173.7118968153552</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
@@ -64181,7 +64181,7 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>-34.993869098070554,173.71195801391997</t>
+          <t>-34.99387326280016,173.7119525454571</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
@@ -64255,7 +64255,7 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>-34.993918401104004,173.71189327693412</t>
+          <t>-34.99391466509892,173.7118981824724</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
@@ -64333,7 +64333,7 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>-34.99395288258421,173.7118480012071</t>
+          <t>-34.993956251111584,173.71184357817666</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
@@ -64415,7 +64415,7 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>-34.99394473687192,173.71185869689737</t>
+          <t>-34.99394075588436,173.71186392411366</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
@@ -64497,7 +64497,7 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>-34.99395104520559,173.711850413769</t>
+          <t>-34.99395404625732,173.71184647325117</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
@@ -64579,7 +64579,7 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>-34.99398754778557,173.71180248418568</t>
+          <t>-34.99398632286709,173.71180409256166</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
@@ -64661,7 +64661,7 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>-34.99398307683298,173.71180835475775</t>
+          <t>-34.99398473047302,173.71180618345034</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
@@ -64743,7 +64743,7 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>-34.993969663973544,173.7118259664701</t>
+          <t>-34.9939707051545,173.71182459935108</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
@@ -64825,7 +64825,7 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>-34.99399097755723,173.7117979807327</t>
+          <t>-34.993989936376565,173.7117993478524</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
@@ -64903,7 +64903,7 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>-34.99400788142943,173.71177578513755</t>
+          <t>-34.99400481913405,173.7117798060794</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -64985,7 +64985,7 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>-34.993945410577474,173.7118578122915</t>
+          <t>-34.99394969779455,173.711852182981</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
@@ -65067,7 +65067,7 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>-34.99388459331331,173.71193766801852</t>
+          <t>-34.9938867369237,173.7119348533675</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
@@ -65149,7 +65149,7 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>-34.993964029346905,173.71183336499593</t>
+          <t>-34.993964458068525,173.71183280206463</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
@@ -65231,7 +65231,7 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>-34.993902967114565,173.7119135424337</t>
+          <t>-34.99390572318437,173.71190992359504</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
@@ -65313,7 +65313,7 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>-34.99405620443338,173.71171233463582</t>
+          <t>-34.99405399958219,173.71171522971736</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
@@ -65395,7 +65395,7 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>-34.99389329024648,173.7119262485764</t>
+          <t>-34.99389175909636,173.7119282590417</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
@@ -65477,7 +65477,7 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>-34.993949575302636,173.71185234381844</t>
+          <t>-34.99395508743852,173.7118451061327</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
@@ -65555,7 +65555,7 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>-34.993921769633005,173.7118888539074</t>
+          <t>-34.99392801672273,173.71188065120236</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
@@ -65637,7 +65637,7 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>-34.993896230054666,173.71192238848272</t>
+          <t>-34.993894025198536,173.711925283553</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
@@ -65719,7 +65719,7 @@
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>-34.993801543672646,173.7120467155272</t>
+          <t>-34.99380460597674,173.71204269460526</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
@@ -65801,7 +65801,7 @@
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>-34.99388453206729,173.71193774843712</t>
+          <t>-34.99388434832924,173.7119379896929</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
@@ -65883,7 +65883,7 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>-34.99388091855248,173.7119424931342</t>
+          <t>-34.99388183724271,173.7119412868553</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -65965,7 +65965,7 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>-34.993875773887005,173.7119492482954</t>
+          <t>-34.99387503893477,173.71195021331837</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -66101,7 +66101,7 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>-34.99391356267116,173.7118996300082</t>
+          <t>-34.993916931200395,173.71189520698204</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
@@ -66183,7 +66183,7 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>-34.99390070101267,173.71191651792307</t>
+          <t>-34.99390498823242,173.71191088861872</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
@@ -66265,7 +66265,7 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>-34.993821448646926,173.71202057952937</t>
+          <t>-34.99381857008176,173.71202435919753</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
@@ -66347,7 +66347,7 @@
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>-34.99386456586452,173.71196396489367</t>
+          <t>-34.99386750567388,173.7119601048027</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
@@ -66429,7 +66429,7 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>-34.99383302415251,173.71200538043556</t>
+          <t>-34.99383657642367,173.71200071616252</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -66511,7 +66511,7 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>-34.99384478339434,173.71198994008193</t>
+          <t>-34.99384018994073,173.7119959714706</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
@@ -66593,7 +66593,7 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>-34.99385292911802,173.71197924441768</t>
+          <t>-34.99385617515803,173.71197498223512</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
@@ -66675,7 +66675,7 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>-34.9938624834995,173.7119666991246</t>
+          <t>-34.99386401465027,173.7119646886607</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -66757,7 +66757,7 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>-34.99388183724271,173.7119412868553</t>
+          <t>-34.99388177599669,173.71194136727388</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
@@ -66839,7 +66839,7 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>-34.99386321845188,173.71196573410194</t>
+          <t>-34.99386383091216,173.71196492991638</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
@@ -66917,7 +66917,7 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>-34.9939022934086,173.71191442703866</t>
+          <t>-34.99390437577247,173.7119116928051</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
@@ -66999,7 +66999,7 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>-34.99388704315374,173.7119344512745</t>
+          <t>-34.993885328265435,173.71193670299533</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -67081,7 +67081,7 @@
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>-34.99386879184043,173.71195841601283</t>
+          <t>-34.993873017816085,173.7119528671314</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
@@ -67163,7 +67163,7 @@
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>-34.993869036824535,173.71195809433854</t>
+          <t>-34.99387436522855,173.71195109792274</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
@@ -67245,7 +67245,7 @@
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>-34.993855378959545,173.71197602767614</t>
+          <t>-34.993859727428045,173.71197031795944</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
@@ -67327,7 +67327,7 @@
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>-34.9938466207757,173.71198752752628</t>
+          <t>-34.99384876438724,173.71198471287786</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
@@ -67409,7 +67409,7 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>-34.99394596179112,173.71185708852303</t>
+          <t>-34.99395012651625,173.7118516200499</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
@@ -67491,7 +67491,7 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>-34.99389420893657,173.71192504229714</t>
+          <t>-34.99389880238669,173.71191901090054</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
@@ -67573,7 +67573,7 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>-34.9938616873011,173.71196774456578</t>
+          <t>-34.99385997241218,173.71196999628526</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
@@ -67655,7 +67655,7 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>-34.99382843069813,173.7120114118225</t>
+          <t>-34.99382775699147,173.71201229642585</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
@@ -67737,7 +67737,7 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>-34.99376522473606,173.71209440363828</t>
+          <t>-34.993767858318925,173.71209094564853</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
@@ -67819,7 +67819,7 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>-34.99385942119788,173.7119707200522</t>
+          <t>-34.99385929870582,173.71197088088928</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
@@ -67901,7 +67901,7 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>-34.99390161970264,173.71191531164362</t>
+          <t>-34.99390241590061,173.7119142662014</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -67983,7 +67983,7 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>-34.9938420273222,173.7119935589152</t>
+          <t>-34.99384018994073,173.7119959714706</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
@@ -68065,7 +68065,7 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>-34.99390339583655,173.71191297950324</t>
+          <t>-34.99390278337659,173.7119137836896</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
@@ -68139,7 +68139,7 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>-34.99392207586289,173.71188845181405</t>
+          <t>-34.99392801672273,173.71188065120236</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
@@ -68221,7 +68221,7 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>-34.99383547399471,173.7120021636956</t>
+          <t>-34.99383265667616,173.71200586294654</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
@@ -68303,7 +68303,7 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>-34.99389629130066,173.7119223080641</t>
+          <t>-34.99389647503866,173.71192206680823</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
@@ -68385,7 +68385,7 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>-34.993952943830166,173.7118479207884</t>
+          <t>-34.99395416874922,173.7118463124137</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
@@ -68467,7 +68467,7 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>-34.99391105158564,173.71190292717296</t>
+          <t>-34.99391031663376,173.71190389219674</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
@@ -68549,7 +68549,7 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>-34.993959742130684,173.71183899430838</t>
+          <t>-34.993960538328004,173.71183794886468</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
@@ -68631,7 +68631,7 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>-34.99387932615606,173.71194458401752</t>
+          <t>-34.993878407465814,173.7119457902963</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
@@ -68713,7 +68713,7 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>-34.9938466207757,173.71198752752628</t>
+          <t>-34.993843864703635,173.7119911463597</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
@@ -68795,7 +68795,7 @@
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>-34.994005125363586,173.71177940398522</t>
+          <t>-34.99400175683853,173.71178382702092</t>
         </is>
       </c>
       <c r="I502" t="inlineStr">
@@ -68877,7 +68877,7 @@
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>-34.99399067132763,173.71179838282674</t>
+          <t>-34.99398718031003,173.71180296669849</t>
         </is>
       </c>
       <c r="I503" t="inlineStr">
@@ -68959,7 +68959,7 @@
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>-34.993928751674424,173.71187968617815</t>
+          <t>-34.9939315077432,173.7118760673372</t>
         </is>
       </c>
       <c r="I504" t="inlineStr">
@@ -69041,7 +69041,7 @@
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>-34.993853051610095,173.71197908358062</t>
+          <t>-34.99384827441889,173.71198535622605</t>
         </is>
       </c>
       <c r="I505" t="inlineStr">
@@ -69169,7 +69169,7 @@
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>-34.99392372950434,173.71188628050987</t>
+          <t>-34.993927220525045,173.7118816966452</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
@@ -69251,7 +69251,7 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>-34.993933406368306,173.71187357435775</t>
+          <t>-34.9939354274853,173.7118709205408</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
@@ -69333,7 +69333,7 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>-34.99388091855248,173.7119424931342</t>
+          <t>-34.99388428708323,173.7119380701115</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
@@ -69453,7 +69453,7 @@
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>-34.99392366825835,173.71188636092853</t>
+          <t>-34.9939214634031,173.71188925600075</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
@@ -69535,7 +69535,7 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>-34.993957292292734,173.71184221105813</t>
+          <t>-34.993957476030594,173.7118419698019</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
@@ -69617,7 +69617,7 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>-34.99400794267533,173.71177570471872</t>
+          <t>-34.994008432642595,173.711775061368</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
@@ -69699,7 +69699,7 @@
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>-34.9939547199628,173.7118455886451</t>
+          <t>-34.99395361753566,173.7118470361823</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
@@ -69781,7 +69781,7 @@
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>-34.99404181165362,173.71173123308205</t>
+          <t>-34.9940410154572,173.7117322785278</t>
         </is>
       </c>
       <c r="I515" t="inlineStr">
@@ -69847,7 +69847,7 @@
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>-34.99399091631132,173.7117980611515</t>
+          <t>-34.99399220247564,173.71179637235656</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
@@ -69929,7 +69929,7 @@
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>-34.994053815844595,173.71171547097416</t>
+          <t>-34.99405056981355,173.71171973317726</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
@@ -70011,7 +70011,7 @@
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>-34.993979769552816,173.7118126973723</t>
+          <t>-34.99398424050561,173.71180682680068</t>
         </is>
       </c>
       <c r="I518" t="inlineStr">
@@ -70093,7 +70093,7 @@
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>-34.99393995968683,173.71186496955684</t>
+          <t>-34.9939384285377,173.71186698002447</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
@@ -70175,7 +70175,7 @@
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>-34.994020988052235,173.71175857550315</t>
+          <t>-34.99401976313431,173.71176018388044</t>
         </is>
       </c>
       <c r="I520" t="inlineStr">
@@ -70257,7 +70257,7 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>-34.993972848762304,173.71182178469417</t>
+          <t>-34.9939743799107,173.71181977422484</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">

--- a/data/nzd0043/nzd0043.xlsx
+++ b/data/nzd0043/nzd0043.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P521"/>
+  <dimension ref="A1:P522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28571,6 +28571,60 @@
       <c r="P521" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:11:40+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>338.03</v>
+      </c>
+      <c r="C522" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="D522" t="n">
+        <v>343.1</v>
+      </c>
+      <c r="E522" t="n">
+        <v>351.91</v>
+      </c>
+      <c r="F522" t="n">
+        <v>340.23</v>
+      </c>
+      <c r="G522" t="n">
+        <v>338.47</v>
+      </c>
+      <c r="H522" t="n">
+        <v>344.12</v>
+      </c>
+      <c r="I522" t="n">
+        <v>341.51</v>
+      </c>
+      <c r="J522" t="n">
+        <v>344.29</v>
+      </c>
+      <c r="K522" t="n">
+        <v>351.28</v>
+      </c>
+      <c r="L522" t="n">
+        <v>351.88</v>
+      </c>
+      <c r="M522" t="n">
+        <v>339.6</v>
+      </c>
+      <c r="N522" t="n">
+        <v>321.06</v>
+      </c>
+      <c r="O522" t="n">
+        <v>331.6</v>
+      </c>
+      <c r="P522" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -28585,7 +28639,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B528"/>
+  <dimension ref="A1:B529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33873,6 +33927,16 @@
       </c>
       <c r="B528" t="n">
         <v>0.31</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>-0.47</v>
       </c>
     </row>
   </sheetData>
@@ -34043,31 +34107,31 @@
         <v>0.0497</v>
       </c>
       <c r="H2" t="n">
-        <v>0.064</v>
+        <v>0.0638</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.002628315121126051</v>
+        <v>-0.005635897627020733</v>
       </c>
       <c r="J2" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K2" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L2" t="n">
-        <v>1.583121151171873e-05</v>
+        <v>7.271825672361398e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>4.106179256194364</v>
+        <v>4.112999835564897</v>
       </c>
       <c r="N2" t="n">
-        <v>25.47168099834848</v>
+        <v>25.55169665646785</v>
       </c>
       <c r="O2" t="n">
-        <v>5.046947691263352</v>
+        <v>5.054868609219023</v>
       </c>
       <c r="P2" t="n">
-        <v>346.3221132722584</v>
+        <v>346.3517208804034</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34118,34 +34182,34 @@
         <v>0.06</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0539</v>
+        <v>0.0538</v>
       </c>
       <c r="H3" t="n">
         <v>0.0634</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.004504520298966697</v>
+        <v>-0.006748884174736474</v>
       </c>
       <c r="J3" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K3" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L3" t="n">
-        <v>5.299701820349334e-05</v>
+        <v>0.000119062062892028</v>
       </c>
       <c r="M3" t="n">
-        <v>3.75765800053573</v>
+        <v>3.759875735056736</v>
       </c>
       <c r="N3" t="n">
-        <v>22.34839871641443</v>
+        <v>22.37728680780519</v>
       </c>
       <c r="O3" t="n">
-        <v>4.727409302822681</v>
+        <v>4.730463699026259</v>
       </c>
       <c r="P3" t="n">
-        <v>340.3568799711385</v>
+        <v>340.3789742099627</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34199,31 +34263,31 @@
         <v>0.0536</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0612</v>
+        <v>0.061</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0834246771031007</v>
+        <v>0.08135319197191986</v>
       </c>
       <c r="J4" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K4" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0174093266199451</v>
+        <v>0.01659293147915086</v>
       </c>
       <c r="M4" t="n">
-        <v>3.843555728757849</v>
+        <v>3.846905843245046</v>
       </c>
       <c r="N4" t="n">
-        <v>22.92997069334767</v>
+        <v>22.94710979671642</v>
       </c>
       <c r="O4" t="n">
-        <v>4.788524897434248</v>
+        <v>4.790314164719931</v>
       </c>
       <c r="P4" t="n">
-        <v>346.5707427034306</v>
+        <v>346.591135068369</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34274,34 +34338,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06270000000000001</v>
+        <v>0.0626</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0788</v>
+        <v>0.07870000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1791580206344782</v>
+        <v>0.1772373163204592</v>
       </c>
       <c r="J5" t="n">
+        <v>521</v>
+      </c>
+      <c r="K5" t="n">
         <v>520</v>
       </c>
-      <c r="K5" t="n">
-        <v>519</v>
-      </c>
       <c r="L5" t="n">
-        <v>0.07114478395621271</v>
+        <v>0.06985945314962427</v>
       </c>
       <c r="M5" t="n">
-        <v>3.99418537271168</v>
+        <v>3.996203632759498</v>
       </c>
       <c r="N5" t="n">
-        <v>24.50735677138409</v>
+        <v>24.51292158560026</v>
       </c>
       <c r="O5" t="n">
-        <v>4.950490558660231</v>
+        <v>4.951052573503968</v>
       </c>
       <c r="P5" t="n">
-        <v>352.4564818388569</v>
+        <v>352.4753747943627</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -34352,34 +34416,34 @@
         <v>0.075</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0654</v>
+        <v>0.0653</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0905</v>
+        <v>0.0898</v>
       </c>
       <c r="I6" t="n">
-        <v>0.24378824155251</v>
+        <v>0.2410463933539095</v>
       </c>
       <c r="J6" t="n">
+        <v>521</v>
+      </c>
+      <c r="K6" t="n">
         <v>520</v>
       </c>
-      <c r="K6" t="n">
-        <v>519</v>
-      </c>
       <c r="L6" t="n">
-        <v>0.1096697340238753</v>
+        <v>0.1075081156506815</v>
       </c>
       <c r="M6" t="n">
-        <v>4.252763053005725</v>
+        <v>4.258527884763948</v>
       </c>
       <c r="N6" t="n">
-        <v>28.21687140984998</v>
+        <v>28.26998978110731</v>
       </c>
       <c r="O6" t="n">
-        <v>5.311955516554142</v>
+        <v>5.316953054250837</v>
       </c>
       <c r="P6" t="n">
-        <v>341.3265197444997</v>
+        <v>341.3534898593903</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -34433,31 +34497,31 @@
         <v>0.0635</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08459999999999999</v>
+        <v>0.08359999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3002027921749577</v>
+        <v>0.2965778313131496</v>
       </c>
       <c r="J7" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K7" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1320969472115814</v>
+        <v>0.1291869325764733</v>
       </c>
       <c r="M7" t="n">
-        <v>4.772395790960331</v>
+        <v>4.781596048236738</v>
       </c>
       <c r="N7" t="n">
-        <v>34.69162419211651</v>
+        <v>34.81291052132439</v>
       </c>
       <c r="O7" t="n">
-        <v>5.88995960869992</v>
+        <v>5.900246649193946</v>
       </c>
       <c r="P7" t="n">
-        <v>340.4992296321699</v>
+        <v>340.5348577562294</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -34508,34 +34572,34 @@
         <v>0.08</v>
       </c>
       <c r="G8" t="n">
-        <v>0.067</v>
+        <v>0.0667</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0941</v>
+        <v>0.0935</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2514735124103404</v>
+        <v>0.2483971575723548</v>
       </c>
       <c r="J8" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K8" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08947642714738602</v>
+        <v>0.08753080951628078</v>
       </c>
       <c r="M8" t="n">
-        <v>5.004534045768005</v>
+        <v>5.011022336010711</v>
       </c>
       <c r="N8" t="n">
-        <v>37.70368504862238</v>
+        <v>37.76653323319172</v>
       </c>
       <c r="O8" t="n">
-        <v>6.140332649671545</v>
+        <v>6.145448171874182</v>
       </c>
       <c r="P8" t="n">
-        <v>345.9313807430529</v>
+        <v>345.9616168631097</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -34586,34 +34650,34 @@
         <v>0.08</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0698</v>
+        <v>0.0696</v>
       </c>
       <c r="H9" t="n">
-        <v>0.096</v>
+        <v>0.0954</v>
       </c>
       <c r="I9" t="n">
-        <v>0.292647692312174</v>
+        <v>0.2895429194670339</v>
       </c>
       <c r="J9" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K9" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1028936058630884</v>
+        <v>0.1010262196594168</v>
       </c>
       <c r="M9" t="n">
-        <v>5.415530725497089</v>
+        <v>5.424493099879927</v>
       </c>
       <c r="N9" t="n">
-        <v>43.74843444785727</v>
+        <v>43.8021505640483</v>
       </c>
       <c r="O9" t="n">
-        <v>6.614259931984626</v>
+        <v>6.618319315660759</v>
       </c>
       <c r="P9" t="n">
-        <v>342.3190497895129</v>
+        <v>342.3495652174913</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34664,34 +34728,34 @@
         <v>0.075</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0668</v>
+        <v>0.0669</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0871</v>
+        <v>0.0872</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3573105580319151</v>
+        <v>0.3548387593439128</v>
       </c>
       <c r="J10" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K10" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1378995777449428</v>
+        <v>0.1365188522113696</v>
       </c>
       <c r="M10" t="n">
-        <v>5.704990462779291</v>
+        <v>5.708381104089968</v>
       </c>
       <c r="N10" t="n">
-        <v>46.76310753758623</v>
+        <v>46.76047871712523</v>
       </c>
       <c r="O10" t="n">
-        <v>6.838355616490431</v>
+        <v>6.838163402341687</v>
       </c>
       <c r="P10" t="n">
-        <v>341.6670249224641</v>
+        <v>341.6913191296745</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34742,34 +34806,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0633</v>
+        <v>0.0634</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0771</v>
+        <v>0.0772</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4039954537616569</v>
+        <v>0.4017535849187599</v>
       </c>
       <c r="J11" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K11" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1515470010794004</v>
+        <v>0.1504723356792298</v>
       </c>
       <c r="M11" t="n">
-        <v>6.0463876759466</v>
+        <v>6.047917503694947</v>
       </c>
       <c r="N11" t="n">
-        <v>53.53652053474674</v>
+        <v>53.50532393388978</v>
       </c>
       <c r="O11" t="n">
-        <v>7.316865485626119</v>
+        <v>7.314733346738607</v>
       </c>
       <c r="P11" t="n">
-        <v>346.8086609186576</v>
+        <v>346.8306952479386</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34820,34 +34884,34 @@
         <v>0.06</v>
       </c>
       <c r="G12" t="n">
-        <v>0.057</v>
+        <v>0.0571</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06850000000000001</v>
+        <v>0.0689</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4551823552705617</v>
+        <v>0.4517127883716352</v>
       </c>
       <c r="J12" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K12" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L12" t="n">
-        <v>0.176214360063614</v>
+        <v>0.1741565308735059</v>
       </c>
       <c r="M12" t="n">
-        <v>6.172280719101963</v>
+        <v>6.177851982059173</v>
       </c>
       <c r="N12" t="n">
-        <v>56.54152581315854</v>
+        <v>56.60454948100576</v>
       </c>
       <c r="O12" t="n">
-        <v>7.519409937831462</v>
+        <v>7.523599502964373</v>
       </c>
       <c r="P12" t="n">
-        <v>349.4128458591152</v>
+        <v>349.4470013900026</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34898,34 +34962,34 @@
         <v>0.055</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0496</v>
+        <v>0.0497</v>
       </c>
       <c r="H13" t="n">
-        <v>0.061</v>
+        <v>0.0612</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4432146807646072</v>
+        <v>0.4394723450134899</v>
       </c>
       <c r="J13" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K13" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1127171987936684</v>
+        <v>0.1112182954083689</v>
       </c>
       <c r="M13" t="n">
-        <v>7.753960163527683</v>
+        <v>7.757334738028947</v>
       </c>
       <c r="N13" t="n">
-        <v>90.26594167520899</v>
+        <v>90.29226894491627</v>
       </c>
       <c r="O13" t="n">
-        <v>9.500838998488975</v>
+        <v>9.502224420887789</v>
       </c>
       <c r="P13" t="n">
-        <v>338.195117317852</v>
+        <v>338.2319580729266</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34979,31 +35043,31 @@
         <v>0.0388</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0468</v>
+        <v>0.0467</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3040509481568378</v>
+        <v>0.298925844318757</v>
       </c>
       <c r="J14" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K14" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0338230827383329</v>
+        <v>0.0327822608025935</v>
       </c>
       <c r="M14" t="n">
-        <v>10.28342118277321</v>
+        <v>10.28813422060678</v>
       </c>
       <c r="N14" t="n">
-        <v>154.155832292477</v>
+        <v>154.2342670258419</v>
       </c>
       <c r="O14" t="n">
-        <v>12.41595072044332</v>
+        <v>12.41910894653243</v>
       </c>
       <c r="P14" t="n">
-        <v>327.0830556546896</v>
+        <v>327.1335088229213</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -35054,34 +35118,34 @@
         <v>0.05</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0433</v>
+        <v>0.0431</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0584</v>
+        <v>0.0581</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2363645140990022</v>
+        <v>0.2333250012088522</v>
       </c>
       <c r="J15" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K15" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L15" t="n">
-        <v>0.06043613913545931</v>
+        <v>0.05906609855801337</v>
       </c>
       <c r="M15" t="n">
-        <v>5.878432113281185</v>
+        <v>5.882876757691345</v>
       </c>
       <c r="N15" t="n">
-        <v>50.70116157032058</v>
+        <v>50.7355037375285</v>
       </c>
       <c r="O15" t="n">
-        <v>7.12047481354443</v>
+        <v>7.12288591355558</v>
       </c>
       <c r="P15" t="n">
-        <v>333.7038705513872</v>
+        <v>333.7337924924901</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -35119,7 +35183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P521"/>
+  <dimension ref="A1:P522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77801,6 +77865,88 @@
         </is>
       </c>
     </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:11:40+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>-34.98991656141007,173.70972746616602</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>-34.99066558284153,173.70971299071255</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>-34.99140657005793,173.70992371497118</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>-34.99212623904271,173.71025456336668</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>-34.99279536052191,173.71070605161032</t>
+        </is>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>-34.99339494066602,173.7112321202527</t>
+        </is>
+      </c>
+      <c r="H522" t="inlineStr">
+        <is>
+          <t>-34.99395404625732,173.71184647325117</t>
+        </is>
+      </c>
+      <c r="I522" t="inlineStr">
+        <is>
+          <t>-34.99448160669602,173.71249624328178</t>
+        </is>
+      </c>
+      <c r="J522" t="inlineStr">
+        <is>
+          <t>-34.994966744943056,173.71316759887017</t>
+        </is>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>-34.99543979943076,173.71386097080722</t>
+        </is>
+      </c>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>-34.99592887668205,173.7145449010992</t>
+        </is>
+      </c>
+      <c r="M522" t="inlineStr">
+        <is>
+          <t>-34.99642787944819,173.71523241752266</t>
+        </is>
+      </c>
+      <c r="N522" t="inlineStr">
+        <is>
+          <t>-34.99697361499851,173.7158817863714</t>
+        </is>
+      </c>
+      <c r="O522" t="inlineStr">
+        <is>
+          <t>-34.99727472245429,173.716716600704</t>
+        </is>
+      </c>
+      <c r="P522" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
